--- a/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D6D4BF8-8330-C244-B831-F2511D222247}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A5C52-BB57-8E4C-B7F2-9DADCED80327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1140" windowWidth="30240" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -46,7 +46,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -57,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
   <si>
     <t>Source</t>
   </si>
@@ -258,21 +261,6 @@
   </si>
   <si>
     <t>Technical</t>
-  </si>
-  <si>
-    <t>hours_prep_nl</t>
-  </si>
-  <si>
-    <t>hours_prod_nl</t>
-  </si>
-  <si>
-    <t>hours_place_nl</t>
-  </si>
-  <si>
-    <t>hours_maint_nl</t>
-  </si>
-  <si>
-    <t>hours_remov_nl</t>
   </si>
   <si>
     <t>full_load_hours</t>
@@ -377,6 +365,33 @@
   <si>
     <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
   </si>
+  <si>
+    <t>This is considered to be the roundtrip efficiency.</t>
+  </si>
+  <si>
+    <t>typical_input_capacity</t>
+  </si>
+  <si>
+    <t>News article</t>
+  </si>
+  <si>
+    <t>TU Delft</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>https://www.delta.tudelft.nl/article/holland-will-need-blue-battery#:~:text=Holland%20needs%20an%20underground%20hydroelectric,brand%20new%20Doctor%20Jan%20Huynen.&amp;text=Pumped%20hydro%2C%20also%20known%20as,a%20viable%20option%2C%20says%20Huynen.</t>
+  </si>
+  <si>
+    <t>TU Delta</t>
+  </si>
+  <si>
+    <t>It is stated that the 1400 MW design is pump or generator power.</t>
+  </si>
+  <si>
+    <t>Based on this it is assumed that both input and output are equal to 1400 MW.</t>
+  </si>
 </sst>
 </file>
 
@@ -387,19 +402,12 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -518,6 +526,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -525,6 +534,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -532,6 +542,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -539,6 +550,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,17 +558,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -570,6 +585,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -894,517 +910,514 @@
   </borders>
   <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1418,9 +1431,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1429,47 +1442,55 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2233,8 +2254,8 @@
       <c r="B4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="140" t="s">
-        <v>99</v>
+      <c r="C4" s="139" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2243,7 +2264,7 @@
         <v>45</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2400,10 +2421,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K43"/>
+  <dimension ref="B1:K39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2428,28 +2449,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="151" t="s">
-        <v>88</v>
-      </c>
-      <c r="C2" s="152"/>
-      <c r="D2" s="152"/>
-      <c r="E2" s="153"/>
+      <c r="B2" s="150" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="152"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="154"/>
-      <c r="C3" s="155"/>
-      <c r="D3" s="155"/>
-      <c r="E3" s="156"/>
+      <c r="B3" s="153"/>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="155"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="157"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="159"/>
+      <c r="B4" s="156"/>
+      <c r="C4" s="157"/>
+      <c r="D4" s="157"/>
+      <c r="E4" s="158"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2515,45 +2536,45 @@
     <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="88"/>
       <c r="C10" s="101" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="131">
+        <v>77</v>
+      </c>
+      <c r="E10" s="130">
         <f>'Research data'!G6</f>
         <v>8400</v>
       </c>
       <c r="F10" s="103"/>
       <c r="G10" s="104"/>
-      <c r="I10" s="138" t="s">
-        <v>94</v>
+      <c r="I10" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="88"/>
       <c r="C11" s="101" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D11" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="131">
+      <c r="E11" s="130">
         <f>'Research data'!G7</f>
         <v>0</v>
       </c>
       <c r="F11" s="103"/>
       <c r="G11" s="104"/>
-      <c r="I11" s="138" t="s">
-        <v>94</v>
+      <c r="I11" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="88"/>
-      <c r="C12" s="134" t="s">
-        <v>87</v>
+      <c r="C12" s="133" t="s">
+        <v>82</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>4</v>
@@ -2563,9 +2584,11 @@
         <v>0.8</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="G12" s="104"/>
-      <c r="I12" s="138" t="s">
-        <v>94</v>
+      <c r="G12" s="159" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J12" s="91"/>
     </row>
@@ -2577,60 +2600,60 @@
       <c r="D13" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="131">
+      <c r="E13" s="130">
         <f>'Research data'!G10</f>
         <v>1400</v>
       </c>
       <c r="F13" s="103"/>
       <c r="G13" s="104"/>
-      <c r="I13" s="138" t="s">
-        <v>94</v>
+      <c r="I13" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J13" s="91"/>
     </row>
-    <row r="14" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B14" s="92"/>
-      <c r="C14" s="103" t="s">
-        <v>23</v>
+    <row r="14" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="88"/>
+      <c r="C14" s="159" t="s">
+        <v>98</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="102">
-        <f>'Research data'!G8</f>
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="E14" s="130">
+        <f>'Research data'!G9</f>
+        <v>1400</v>
       </c>
       <c r="F14" s="103"/>
-      <c r="G14" s="103"/>
-      <c r="I14" s="138" t="s">
-        <v>94</v>
-      </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="79"/>
+      <c r="G14" s="104"/>
+      <c r="I14" s="163" t="s">
+        <v>103</v>
+      </c>
+      <c r="J14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="92"/>
       <c r="C15" s="103" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="106">
-        <v>0</v>
+      <c r="E15" s="102">
+        <f>'Research data'!G8</f>
+        <v>1</v>
       </c>
       <c r="F15" s="103"/>
       <c r="G15" s="103"/>
-      <c r="I15" s="138" t="s">
-        <v>86</v>
+      <c r="I15" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="92"/>
-      <c r="C16" s="107" t="s">
-        <v>72</v>
+      <c r="C16" s="103" t="s">
+        <v>25</v>
       </c>
       <c r="D16" s="105" t="s">
         <v>4</v>
@@ -2640,16 +2663,16 @@
       </c>
       <c r="F16" s="103"/>
       <c r="G16" s="103"/>
-      <c r="I16" s="138" t="s">
-        <v>86</v>
+      <c r="I16" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="79"/>
     </row>
     <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B17" s="92"/>
-      <c r="C17" s="103" t="s">
-        <v>7</v>
+      <c r="C17" s="107" t="s">
+        <v>67</v>
       </c>
       <c r="D17" s="105" t="s">
         <v>4</v>
@@ -2659,8 +2682,8 @@
       </c>
       <c r="F17" s="103"/>
       <c r="G17" s="103"/>
-      <c r="I17" s="138" t="s">
-        <v>86</v>
+      <c r="I17" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J17" s="93"/>
       <c r="K17" s="79"/>
@@ -2668,7 +2691,7 @@
     <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="92"/>
       <c r="C18" s="103" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D18" s="105" t="s">
         <v>4</v>
@@ -2678,8 +2701,8 @@
       </c>
       <c r="F18" s="103"/>
       <c r="G18" s="103"/>
-      <c r="I18" s="138" t="s">
-        <v>86</v>
+      <c r="I18" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J18" s="93"/>
       <c r="K18" s="79"/>
@@ -2687,7 +2710,7 @@
     <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="92"/>
       <c r="C19" s="103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D19" s="105" t="s">
         <v>4</v>
@@ -2697,8 +2720,8 @@
       </c>
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
-      <c r="I19" s="138" t="s">
-        <v>86</v>
+      <c r="I19" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J19" s="93"/>
       <c r="K19" s="79"/>
@@ -2706,36 +2729,43 @@
     <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="92"/>
       <c r="C20" s="103" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="E20" s="106">
         <v>0</v>
       </c>
       <c r="F20" s="103"/>
       <c r="G20" s="103"/>
-      <c r="I20" s="138" t="s">
-        <v>86</v>
+      <c r="I20" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1">
+      <c r="K20" s="79"/>
+    </row>
+    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="92"/>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="96"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="79"/>
-      <c r="I21" s="79"/>
+      <c r="C21" s="103" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" s="105" t="s">
+        <v>44</v>
+      </c>
+      <c r="E21" s="106">
+        <v>0</v>
+      </c>
+      <c r="F21" s="103"/>
+      <c r="G21" s="103"/>
+      <c r="I21" s="137" t="s">
+        <v>81</v>
+      </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="22" spans="2:11" ht="16" customHeight="1">
       <c r="B22" s="92"/>
-      <c r="C22" s="89" t="s">
-        <v>61</v>
-      </c>
+      <c r="C22" s="94"/>
       <c r="D22" s="95"/>
       <c r="E22" s="96"/>
       <c r="F22" s="79"/>
@@ -2745,45 +2775,39 @@
     </row>
     <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="92"/>
-      <c r="C23" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="106">
-        <f>'Research data'!G14</f>
-        <v>1785000000</v>
-      </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="I23" s="138" t="s">
-        <v>94</v>
-      </c>
+      <c r="C23" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="95"/>
+      <c r="E23" s="96"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="79"/>
+      <c r="I23" s="79"/>
       <c r="J23" s="93"/>
     </row>
     <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="92"/>
       <c r="C24" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" s="105" t="s">
         <v>22</v>
       </c>
       <c r="E24" s="106">
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>1785000000</v>
       </c>
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
-      <c r="I24" s="138" t="s">
-        <v>86</v>
+      <c r="I24" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J24" s="93"/>
     </row>
     <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="92"/>
       <c r="C25" s="103" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="D25" s="105" t="s">
         <v>22</v>
@@ -2793,15 +2817,15 @@
       </c>
       <c r="F25" s="103"/>
       <c r="G25" s="103"/>
-      <c r="I25" s="138" t="s">
-        <v>86</v>
+      <c r="I25" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="92"/>
       <c r="C26" s="103" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="D26" s="105" t="s">
         <v>22</v>
@@ -2811,117 +2835,123 @@
       </c>
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
-      <c r="I26" s="138" t="s">
-        <v>86</v>
+      <c r="I26" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J26" s="93"/>
     </row>
     <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="92"/>
       <c r="C27" s="103" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="108">
-        <f>'Research data'!G15</f>
-        <v>19800000</v>
+        <v>22</v>
+      </c>
+      <c r="E27" s="106">
+        <v>0</v>
       </c>
       <c r="F27" s="103"/>
       <c r="G27" s="103"/>
-      <c r="I27" s="138" t="s">
-        <v>94</v>
+      <c r="I27" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J27" s="93"/>
     </row>
     <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="92"/>
       <c r="C28" s="103" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E28" s="102">
-        <v>0</v>
+        <v>42</v>
+      </c>
+      <c r="E28" s="108">
+        <f>'Research data'!G15</f>
+        <v>19800000</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
-      <c r="I28" s="138" t="s">
-        <v>94</v>
+      <c r="I28" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J28" s="93"/>
     </row>
     <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="92"/>
       <c r="C29" s="103" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D29" s="105" t="s">
         <v>41</v>
       </c>
-      <c r="E29" s="109">
+      <c r="E29" s="102">
         <v>0</v>
       </c>
       <c r="F29" s="103"/>
       <c r="G29" s="103"/>
-      <c r="I29" s="138" t="s">
-        <v>86</v>
+      <c r="I29" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J29" s="93"/>
     </row>
     <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B30" s="92"/>
       <c r="C30" s="103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D30" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E30" s="102">
-        <v>7.0000000000000007E-2</v>
+        <v>41</v>
+      </c>
+      <c r="E30" s="109">
+        <v>0</v>
       </c>
       <c r="F30" s="103"/>
       <c r="G30" s="103"/>
-      <c r="I30" s="160" t="s">
-        <v>101</v>
+      <c r="I30" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J30" s="93"/>
     </row>
     <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="92"/>
       <c r="C31" s="103" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="D31" s="105" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E31" s="102">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F31" s="103"/>
       <c r="G31" s="103"/>
-      <c r="I31" s="138" t="s">
-        <v>86</v>
+      <c r="I31" s="149" t="s">
+        <v>96</v>
       </c>
       <c r="J31" s="93"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1">
+    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="92"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="95"/>
-      <c r="E32" s="97"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="I32" s="79"/>
+      <c r="C32" s="103" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="106">
+        <v>0</v>
+      </c>
+      <c r="F32" s="103"/>
+      <c r="G32" s="103"/>
+      <c r="I32" s="137" t="s">
+        <v>81</v>
+      </c>
       <c r="J32" s="93"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1">
       <c r="B33" s="92"/>
-      <c r="C33" s="89" t="s">
-        <v>6</v>
-      </c>
+      <c r="C33" s="79"/>
       <c r="D33" s="95"/>
       <c r="E33" s="97"/>
       <c r="F33" s="79"/>
@@ -2931,168 +2961,100 @@
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="92"/>
-      <c r="C34" s="103" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="106">
-        <v>0</v>
-      </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="I34" s="138" t="s">
-        <v>86</v>
-      </c>
+      <c r="C34" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="95"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="I34" s="79"/>
       <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="92"/>
       <c r="C35" s="103" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="108">
-        <f>'Research data'!G18</f>
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E35" s="106">
+        <v>0</v>
       </c>
       <c r="F35" s="103"/>
       <c r="G35" s="103"/>
-      <c r="I35" s="138" t="s">
-        <v>94</v>
+      <c r="I35" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B36" s="92"/>
       <c r="C36" s="103" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D36" s="105" t="s">
         <v>1</v>
       </c>
-      <c r="E36" s="106">
-        <f>'Research data'!G19</f>
-        <v>50</v>
+      <c r="E36" s="108">
+        <f>'Research data'!G18</f>
+        <v>5</v>
       </c>
       <c r="F36" s="103"/>
       <c r="G36" s="103"/>
-      <c r="I36" s="138" t="s">
-        <v>94</v>
+      <c r="I36" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J36" s="93"/>
     </row>
     <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B37" s="92"/>
       <c r="C37" s="103" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D37" s="105" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E37" s="106">
-        <v>0</v>
+        <f>'Research data'!G19</f>
+        <v>50</v>
       </c>
       <c r="F37" s="103"/>
       <c r="G37" s="103"/>
-      <c r="I37" s="138" t="s">
-        <v>86</v>
+      <c r="I37" s="137" t="s">
+        <v>89</v>
       </c>
       <c r="J37" s="93"/>
     </row>
     <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B38" s="92"/>
-      <c r="C38" s="110" t="s">
-        <v>67</v>
-      </c>
-      <c r="D38" s="105"/>
-      <c r="E38" s="108">
+      <c r="C38" s="103" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="106">
         <v>0</v>
       </c>
       <c r="F38" s="103"/>
       <c r="G38" s="103"/>
-      <c r="I38" s="138" t="s">
-        <v>86</v>
+      <c r="I38" s="137" t="s">
+        <v>81</v>
       </c>
       <c r="J38" s="93"/>
     </row>
     <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="92"/>
-      <c r="C39" s="110" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="105"/>
-      <c r="E39" s="108">
-        <v>0</v>
-      </c>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="I39" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="J39" s="93"/>
-    </row>
-    <row r="40" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B40" s="92"/>
-      <c r="C40" s="110" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="105"/>
-      <c r="E40" s="108">
-        <v>0</v>
-      </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="I40" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="J40" s="93"/>
-    </row>
-    <row r="41" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B41" s="92"/>
-      <c r="C41" s="110" t="s">
-        <v>70</v>
-      </c>
-      <c r="D41" s="105"/>
-      <c r="E41" s="108">
-        <v>0</v>
-      </c>
-      <c r="F41" s="103"/>
-      <c r="G41" s="103"/>
-      <c r="I41" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" s="93"/>
-    </row>
-    <row r="42" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B42" s="92"/>
-      <c r="C42" s="110" t="s">
-        <v>71</v>
-      </c>
-      <c r="D42" s="105"/>
-      <c r="E42" s="108">
-        <v>0</v>
-      </c>
-      <c r="F42" s="103"/>
-      <c r="G42" s="103"/>
-      <c r="I42" s="138" t="s">
-        <v>86</v>
-      </c>
-      <c r="J42" s="93"/>
-    </row>
-    <row r="43" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B43" s="98"/>
-      <c r="C43" s="99"/>
-      <c r="D43" s="99"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="99"/>
-      <c r="G43" s="99"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="99"/>
-      <c r="J43" s="100"/>
+      <c r="B39" s="98"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="99"/>
+      <c r="E39" s="99"/>
+      <c r="F39" s="99"/>
+      <c r="G39" s="99"/>
+      <c r="H39" s="99"/>
+      <c r="I39" s="99"/>
+      <c r="J39" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3111,7 +3073,7 @@
   <dimension ref="B1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3190,131 +3152,130 @@
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
-      <c r="K5" s="142"/>
+      <c r="K5" s="141"/>
       <c r="L5" s="73"/>
     </row>
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
-      <c r="C6" s="129" t="s">
-        <v>79</v>
+      <c r="C6" s="128" t="s">
+        <v>74</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
-      <c r="F6" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="147">
+      <c r="F6" s="129" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" s="146">
         <v>8400</v>
       </c>
       <c r="H6" s="45"/>
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
-      <c r="K6" s="142" t="s">
-        <v>94</v>
+      <c r="K6" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L6" s="73"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="41"/>
-      <c r="C7" s="129" t="s">
-        <v>81</v>
+      <c r="C7" s="128" t="s">
+        <v>76</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
-      <c r="F7" s="130" t="s">
+      <c r="F7" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G7" s="147">
+      <c r="G7" s="146">
         <v>0</v>
       </c>
       <c r="H7" s="45"/>
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
-      <c r="K7" s="142" t="s">
-        <v>94</v>
+      <c r="K7" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="41"/>
-      <c r="C8" s="143" t="s">
-        <v>98</v>
+      <c r="C8" s="142" t="s">
+        <v>93</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="147">
+      <c r="F8" s="129"/>
+      <c r="G8" s="146">
         <v>1</v>
       </c>
       <c r="H8" s="45"/>
       <c r="I8" s="45"/>
       <c r="J8" s="43"/>
-      <c r="K8" s="142" t="s">
-        <v>94</v>
+      <c r="K8" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L8" s="73"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="41"/>
-      <c r="C9" s="129" t="s">
-        <v>83</v>
+      <c r="C9" s="128" t="s">
+        <v>78</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
-      <c r="F9" s="130" t="s">
+      <c r="F9" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="148">
-        <f>G10/G11</f>
-        <v>1750</v>
+      <c r="G9" s="160">
+        <v>1400</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="142" t="s">
-        <v>94</v>
+      <c r="K9" s="161" t="s">
+        <v>103</v>
       </c>
       <c r="L9" s="73"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="41"/>
-      <c r="C10" s="129" t="s">
-        <v>80</v>
+      <c r="C10" s="128" t="s">
+        <v>75</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
-      <c r="F10" s="130" t="s">
+      <c r="F10" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="147">
+      <c r="G10" s="146">
         <v>1400</v>
       </c>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
       <c r="J10" s="43"/>
-      <c r="K10" s="142" t="s">
-        <v>94</v>
+      <c r="K10" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="41"/>
-      <c r="C11" s="129" t="s">
-        <v>85</v>
+      <c r="C11" s="128" t="s">
+        <v>80</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="130" t="s">
+      <c r="F11" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="146">
+      <c r="G11" s="145">
         <v>0.8</v>
       </c>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
       <c r="J11" s="43"/>
-      <c r="K11" s="142" t="s">
-        <v>94</v>
+      <c r="K11" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L11" s="73"/>
     </row>
@@ -3324,11 +3285,11 @@
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
       <c r="F12" s="48"/>
-      <c r="G12" s="149"/>
+      <c r="G12" s="147"/>
       <c r="H12" s="46"/>
       <c r="I12" s="46"/>
       <c r="J12" s="46"/>
-      <c r="K12" s="142"/>
+      <c r="K12" s="141"/>
       <c r="L12" s="73"/>
     </row>
     <row r="13" spans="2:12" ht="17" thickBot="1">
@@ -3339,52 +3300,52 @@
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
-      <c r="G13" s="150"/>
+      <c r="G13" s="148"/>
       <c r="H13" s="10"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
-      <c r="K13" s="142"/>
+      <c r="K13" s="141"/>
       <c r="L13" s="73"/>
     </row>
     <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="41"/>
-      <c r="C14" s="129" t="s">
-        <v>84</v>
+      <c r="C14" s="128" t="s">
+        <v>79</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
-      <c r="F14" s="130" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="147">
+      <c r="F14" s="129" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="146">
         <v>1785000000</v>
       </c>
       <c r="H14" s="45"/>
       <c r="I14" s="45"/>
       <c r="J14" s="43"/>
-      <c r="K14" s="142" t="s">
-        <v>94</v>
+      <c r="K14" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
       <c r="B15" s="41"/>
-      <c r="C15" s="143" t="s">
-        <v>95</v>
+      <c r="C15" s="142" t="s">
+        <v>90</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
-      <c r="F15" s="144" t="s">
-        <v>96</v>
-      </c>
-      <c r="G15" s="147">
+      <c r="F15" s="143" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="146">
         <v>19800000</v>
       </c>
       <c r="H15" s="45"/>
       <c r="I15" s="45"/>
       <c r="J15" s="43"/>
-      <c r="K15" s="142" t="s">
-        <v>94</v>
+      <c r="K15" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -3394,11 +3355,11 @@
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
       <c r="F16" s="48"/>
-      <c r="G16" s="149"/>
+      <c r="G16" s="147"/>
       <c r="H16" s="45"/>
       <c r="I16" s="45"/>
       <c r="J16" s="43"/>
-      <c r="K16" s="145"/>
+      <c r="K16" s="144"/>
       <c r="L16" s="73"/>
     </row>
     <row r="17" spans="2:12" ht="17" thickBot="1">
@@ -3409,16 +3370,16 @@
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
       <c r="F17" s="11"/>
-      <c r="G17" s="150"/>
+      <c r="G17" s="148"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
-      <c r="K17" s="142"/>
+      <c r="K17" s="141"/>
       <c r="L17" s="73"/>
     </row>
     <row r="18" spans="2:12" ht="17" thickBot="1">
       <c r="B18" s="41"/>
-      <c r="C18" s="129" t="s">
+      <c r="C18" s="128" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="44" t="s">
@@ -3427,23 +3388,23 @@
       <c r="E18" s="44">
         <v>0</v>
       </c>
-      <c r="F18" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="147">
+      <c r="F18" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="G18" s="146">
         <v>5</v>
       </c>
       <c r="H18" s="45"/>
       <c r="I18" s="45"/>
       <c r="J18" s="43"/>
-      <c r="K18" s="142" t="s">
-        <v>94</v>
+      <c r="K18" s="141" t="s">
+        <v>89</v>
       </c>
       <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="41"/>
-      <c r="C19" s="143" t="s">
+      <c r="C19" s="142" t="s">
         <v>39</v>
       </c>
       <c r="D19" s="44" t="s">
@@ -3452,17 +3413,17 @@
       <c r="E19" s="44">
         <v>5</v>
       </c>
-      <c r="F19" s="144" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="147">
+      <c r="F19" s="143" t="s">
+        <v>92</v>
+      </c>
+      <c r="G19" s="146">
         <v>50</v>
       </c>
       <c r="H19" s="45"/>
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="142" t="s">
-        <v>93</v>
+      <c r="K19" s="141" t="s">
+        <v>88</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -3490,10 +3451,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="B1:K9"/>
+  <dimension ref="B1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
@@ -3565,50 +3526,73 @@
         <v>20</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I5" s="33" t="s">
         <v>43</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="K5" s="33" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="C7" s="138"/>
+      <c r="F7" s="138"/>
+      <c r="H7" s="126"/>
+      <c r="I7" s="127"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="139" t="s">
-        <v>89</v>
+      <c r="C8" s="138" t="s">
+        <v>84</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" s="141">
+        <v>86</v>
+      </c>
+      <c r="F8" s="138" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="140">
         <v>43344</v>
       </c>
       <c r="H8" s="22">
         <v>2018</v>
       </c>
-      <c r="I8" s="128">
+      <c r="I8" s="127">
         <v>43709</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="22" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="127">
+        <v>43336</v>
+      </c>
+      <c r="H10" s="22">
+        <v>2018</v>
+      </c>
+      <c r="I10" s="127">
+        <v>44144</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3625,57 +3609,57 @@
   <dimension ref="B2:K166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="111" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="111" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="111" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="111" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="111" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="111"/>
-    <col min="8" max="8" width="10.7109375" style="112"/>
-    <col min="9" max="9" width="10.7109375" style="111"/>
-    <col min="10" max="10" width="35" style="111" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="111" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="111"/>
+    <col min="1" max="1" width="3.42578125" style="110" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="110" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="110" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="110" customWidth="1"/>
+    <col min="5" max="6" width="8.42578125" style="110" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="110"/>
+    <col min="8" max="8" width="10.7109375" style="111"/>
+    <col min="9" max="9" width="10.7109375" style="110"/>
+    <col min="10" max="10" width="35" style="110" customWidth="1"/>
+    <col min="11" max="11" width="63.28515625" style="110" customWidth="1"/>
+    <col min="12" max="16384" width="10.7109375" style="110"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="113"/>
-      <c r="C3" s="114"/>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="114"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="114"/>
-      <c r="J3" s="114"/>
-      <c r="K3" s="116"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="114"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="115"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="117"/>
-      <c r="C4" s="118" t="s">
+      <c r="B4" s="116"/>
+      <c r="C4" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="118" t="s">
+      <c r="D4" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="118" t="s">
+      <c r="E4" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="118" t="s">
+      <c r="F4" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="118"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="120" t="s">
-        <v>77</v>
+      <c r="G4" s="117"/>
+      <c r="H4" s="118"/>
+      <c r="I4" s="117"/>
+      <c r="J4" s="117"/>
+      <c r="K4" s="119" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3685,22 +3669,34 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="121"/>
+      <c r="H5" s="120"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="72"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="121"/>
+      <c r="C6" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="D6" s="162" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="162">
+        <v>1400</v>
+      </c>
+      <c r="F6" s="162" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="162" t="s">
+        <v>104</v>
+      </c>
+      <c r="H6" s="120"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="123"/>
+      <c r="K6" s="122" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="14"/>
@@ -3708,8 +3704,10 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="121"/>
+      <c r="G7" s="162" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" s="120"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="72"/>
@@ -3717,11 +3715,11 @@
     <row r="8" spans="2:11">
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="D8" s="121"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="121"/>
+      <c r="H8" s="120"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
       <c r="K8" s="72"/>
@@ -3729,11 +3727,11 @@
     <row r="9" spans="2:11">
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="D9" s="121"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="121"/>
+      <c r="H9" s="120"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
       <c r="K9" s="72"/>
@@ -3745,7 +3743,7 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="121"/>
+      <c r="H10" s="120"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
       <c r="K10" s="72"/>
@@ -3753,11 +3751,11 @@
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="121"/>
+      <c r="H11" s="120"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
       <c r="K11" s="72"/>
@@ -3765,11 +3763,11 @@
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="121"/>
+      <c r="H12" s="120"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
       <c r="K12" s="72"/>
@@ -3777,11 +3775,11 @@
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
+      <c r="D13" s="121"/>
+      <c r="E13" s="121"/>
+      <c r="F13" s="121"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="121"/>
+      <c r="H13" s="120"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
       <c r="K13" s="72"/>
@@ -3789,11 +3787,11 @@
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="121"/>
+      <c r="H14" s="120"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
       <c r="K14" s="72"/>
@@ -3801,11 +3799,11 @@
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="121"/>
+      <c r="H15" s="120"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
       <c r="K15" s="72"/>
@@ -3813,11 +3811,11 @@
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="122"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="121"/>
+      <c r="F16" s="121"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="121"/>
+      <c r="H16" s="120"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
       <c r="K16" s="72"/>
@@ -3825,11 +3823,11 @@
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="122"/>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
+      <c r="D17" s="121"/>
+      <c r="E17" s="121"/>
+      <c r="F17" s="121"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="121"/>
+      <c r="H17" s="120"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
       <c r="K17" s="72"/>
@@ -3837,11 +3835,11 @@
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
+      <c r="D18" s="121"/>
+      <c r="E18" s="121"/>
+      <c r="F18" s="121"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="121"/>
+      <c r="H18" s="120"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
       <c r="K18" s="72"/>
@@ -3849,11 +3847,11 @@
     <row r="19" spans="2:11">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
+      <c r="D19" s="121"/>
+      <c r="E19" s="121"/>
+      <c r="F19" s="121"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="121"/>
+      <c r="H19" s="120"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
       <c r="K19" s="72"/>
@@ -3865,7 +3863,7 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="121"/>
+      <c r="H20" s="120"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
       <c r="K20" s="72"/>
@@ -3877,22 +3875,22 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="121"/>
+      <c r="H21" s="120"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
       <c r="K21" s="72"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="124"/>
-      <c r="C22" s="122"/>
-      <c r="D22" s="122"/>
-      <c r="E22" s="122"/>
+      <c r="B22" s="123"/>
+      <c r="C22" s="121"/>
+      <c r="D22" s="121"/>
+      <c r="E22" s="121"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="121"/>
+      <c r="H22" s="120"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="123"/>
+      <c r="K22" s="122"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="14"/>
@@ -3901,10 +3899,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="121"/>
+      <c r="H23" s="120"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="137"/>
+      <c r="K23" s="136"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="14"/>
@@ -3913,7 +3911,7 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="121"/>
+      <c r="H24" s="120"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
       <c r="K24" s="72"/>
@@ -3925,7 +3923,7 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="121"/>
+      <c r="H25" s="120"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
       <c r="K25" s="72"/>
@@ -3937,7 +3935,7 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="121"/>
+      <c r="H26" s="120"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
       <c r="K26" s="72"/>
@@ -3949,7 +3947,7 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="121"/>
+      <c r="H27" s="120"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
       <c r="K27" s="72"/>
@@ -3961,7 +3959,7 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="121"/>
+      <c r="H28" s="120"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
       <c r="K28" s="72"/>
@@ -3973,7 +3971,7 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="121"/>
+      <c r="H29" s="120"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
       <c r="K29" s="72"/>
@@ -3985,7 +3983,7 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="121"/>
+      <c r="H30" s="120"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="72"/>
@@ -3997,7 +3995,7 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="121"/>
+      <c r="H31" s="120"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
       <c r="K31" s="72"/>
@@ -4005,11 +4003,11 @@
     <row r="32" spans="2:11">
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="122"/>
-      <c r="E32" s="122"/>
-      <c r="F32" s="122"/>
+      <c r="D32" s="121"/>
+      <c r="E32" s="121"/>
+      <c r="F32" s="121"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="121"/>
+      <c r="H32" s="120"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
       <c r="K32" s="72"/>
@@ -4021,7 +4019,7 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="121"/>
+      <c r="H33" s="120"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
       <c r="K33" s="72"/>
@@ -4033,7 +4031,7 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="121"/>
+      <c r="H34" s="120"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
       <c r="K34" s="72"/>
@@ -4045,7 +4043,7 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="121"/>
+      <c r="H35" s="120"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
       <c r="K35" s="72"/>
@@ -4057,7 +4055,7 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="121"/>
+      <c r="H36" s="120"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
       <c r="K36" s="72"/>
@@ -4069,7 +4067,7 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="121"/>
+      <c r="H37" s="120"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
       <c r="K37" s="72"/>
@@ -4078,10 +4076,10 @@
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="122"/>
+      <c r="E38" s="121"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="121"/>
+      <c r="H38" s="120"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
       <c r="K38" s="72"/>
@@ -4092,7 +4090,7 @@
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="121"/>
+      <c r="H39" s="120"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
       <c r="K39" s="72"/>
@@ -4101,10 +4099,10 @@
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="122"/>
-      <c r="F40" s="122"/>
+      <c r="E40" s="121"/>
+      <c r="F40" s="121"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="121"/>
+      <c r="H40" s="120"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
       <c r="K40" s="72"/>
@@ -4116,7 +4114,7 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="121"/>
+      <c r="H41" s="120"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
       <c r="K41" s="72"/>
@@ -4128,7 +4126,7 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="121"/>
+      <c r="H42" s="120"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
       <c r="K42" s="72"/>
@@ -4140,7 +4138,7 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="121"/>
+      <c r="H43" s="120"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
       <c r="K43" s="72"/>
@@ -4152,7 +4150,7 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="121"/>
+      <c r="H44" s="120"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
       <c r="K44" s="72"/>
@@ -4164,7 +4162,7 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="121"/>
+      <c r="H45" s="120"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
       <c r="K45" s="72"/>
@@ -4176,7 +4174,7 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="121"/>
+      <c r="H46" s="120"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
       <c r="K46" s="72"/>
@@ -4188,7 +4186,7 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="121"/>
+      <c r="H47" s="120"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
       <c r="K47" s="72"/>
@@ -4200,7 +4198,7 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="121"/>
+      <c r="H48" s="120"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
       <c r="K48" s="72"/>
@@ -4208,11 +4206,11 @@
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="122"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="122"/>
+      <c r="D49" s="121"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="121"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="121"/>
+      <c r="H49" s="120"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
       <c r="K49" s="72"/>
@@ -4224,1368 +4222,1368 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="121"/>
+      <c r="H50" s="120"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
       <c r="K50" s="72"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="124"/>
-      <c r="C51" s="122"/>
-      <c r="D51" s="122"/>
-      <c r="E51" s="122"/>
-      <c r="F51" s="122"/>
-      <c r="G51" s="122"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="122"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="123"/>
+      <c r="B51" s="123"/>
+      <c r="C51" s="121"/>
+      <c r="D51" s="121"/>
+      <c r="E51" s="121"/>
+      <c r="F51" s="121"/>
+      <c r="G51" s="121"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="121"/>
+      <c r="K51" s="122"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="124"/>
-      <c r="G52" s="122"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="122"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="123"/>
+      <c r="B52" s="123"/>
+      <c r="G52" s="121"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="121"/>
+      <c r="K52" s="122"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="124"/>
-      <c r="C53" s="122"/>
-      <c r="D53" s="122"/>
-      <c r="E53" s="122"/>
-      <c r="F53" s="122"/>
-      <c r="G53" s="122"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="122"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="123"/>
+      <c r="B53" s="123"/>
+      <c r="C53" s="121"/>
+      <c r="D53" s="121"/>
+      <c r="E53" s="121"/>
+      <c r="F53" s="121"/>
+      <c r="G53" s="121"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="121"/>
+      <c r="K53" s="122"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="124"/>
-      <c r="C54" s="122"/>
-      <c r="D54" s="122"/>
-      <c r="E54" s="122"/>
-      <c r="F54" s="122"/>
-      <c r="G54" s="122"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="122"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="123"/>
+      <c r="B54" s="123"/>
+      <c r="C54" s="121"/>
+      <c r="D54" s="121"/>
+      <c r="E54" s="121"/>
+      <c r="F54" s="121"/>
+      <c r="G54" s="121"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="121"/>
+      <c r="K54" s="122"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="124"/>
-      <c r="C55" s="122"/>
-      <c r="D55" s="122"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="122"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="122"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="123"/>
+      <c r="B55" s="123"/>
+      <c r="C55" s="121"/>
+      <c r="D55" s="121"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="121"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="121"/>
+      <c r="K55" s="122"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="124"/>
-      <c r="C56" s="122"/>
-      <c r="G56" s="122"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="122"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="123"/>
+      <c r="B56" s="123"/>
+      <c r="C56" s="121"/>
+      <c r="G56" s="121"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="121"/>
+      <c r="K56" s="122"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="124"/>
-      <c r="C57" s="122"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="122"/>
-      <c r="F57" s="122"/>
-      <c r="G57" s="122"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="122"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="123"/>
+      <c r="B57" s="123"/>
+      <c r="C57" s="121"/>
+      <c r="D57" s="121"/>
+      <c r="E57" s="121"/>
+      <c r="F57" s="121"/>
+      <c r="G57" s="121"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="121"/>
+      <c r="K57" s="122"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="124"/>
-      <c r="C58" s="122"/>
-      <c r="G58" s="122"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="122"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="123"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="121"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="121"/>
+      <c r="K58" s="122"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="124"/>
-      <c r="C59" s="122"/>
-      <c r="D59" s="122"/>
-      <c r="E59" s="122"/>
-      <c r="F59" s="122"/>
-      <c r="G59" s="122"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="122"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="123"/>
+      <c r="B59" s="123"/>
+      <c r="C59" s="121"/>
+      <c r="D59" s="121"/>
+      <c r="E59" s="121"/>
+      <c r="F59" s="121"/>
+      <c r="G59" s="121"/>
+      <c r="H59" s="124"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="121"/>
+      <c r="K59" s="122"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="124"/>
-      <c r="C60" s="122"/>
-      <c r="D60" s="122"/>
-      <c r="E60" s="122"/>
-      <c r="F60" s="122"/>
-      <c r="G60" s="122"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="123"/>
+      <c r="B60" s="123"/>
+      <c r="C60" s="121"/>
+      <c r="D60" s="121"/>
+      <c r="E60" s="121"/>
+      <c r="F60" s="121"/>
+      <c r="G60" s="121"/>
+      <c r="H60" s="124"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="121"/>
+      <c r="K60" s="122"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="124"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="125"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="123"/>
+      <c r="B61" s="123"/>
+      <c r="C61" s="121"/>
+      <c r="D61" s="121"/>
+      <c r="E61" s="121"/>
+      <c r="F61" s="121"/>
+      <c r="G61" s="121"/>
+      <c r="H61" s="124"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="121"/>
+      <c r="K61" s="122"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="124"/>
-      <c r="C62" s="122"/>
-      <c r="D62" s="122"/>
-      <c r="E62" s="122"/>
-      <c r="F62" s="122"/>
-      <c r="G62" s="122"/>
-      <c r="H62" s="125"/>
-      <c r="I62" s="122"/>
-      <c r="J62" s="122"/>
+      <c r="B62" s="123"/>
+      <c r="C62" s="121"/>
+      <c r="D62" s="121"/>
+      <c r="E62" s="121"/>
+      <c r="F62" s="121"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="124"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="121"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="124"/>
-      <c r="C63" s="122"/>
-      <c r="D63" s="122"/>
-      <c r="E63" s="122"/>
-      <c r="F63" s="122"/>
-      <c r="G63" s="122"/>
-      <c r="H63" s="125"/>
-      <c r="I63" s="122"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="123"/>
+      <c r="B63" s="123"/>
+      <c r="C63" s="121"/>
+      <c r="D63" s="121"/>
+      <c r="E63" s="121"/>
+      <c r="F63" s="121"/>
+      <c r="G63" s="121"/>
+      <c r="H63" s="124"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="121"/>
+      <c r="K63" s="122"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="124"/>
-      <c r="C64" s="122"/>
-      <c r="D64" s="122"/>
-      <c r="E64" s="122"/>
-      <c r="F64" s="122"/>
-      <c r="G64" s="122"/>
-      <c r="H64" s="125"/>
-      <c r="I64" s="122"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="123"/>
+      <c r="B64" s="123"/>
+      <c r="C64" s="121"/>
+      <c r="D64" s="121"/>
+      <c r="E64" s="121"/>
+      <c r="F64" s="121"/>
+      <c r="G64" s="121"/>
+      <c r="H64" s="124"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="121"/>
+      <c r="K64" s="122"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="124"/>
-      <c r="C65" s="122"/>
-      <c r="D65" s="122"/>
-      <c r="E65" s="122"/>
-      <c r="F65" s="122"/>
-      <c r="G65" s="122"/>
-      <c r="H65" s="125"/>
-      <c r="I65" s="122"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="123"/>
+      <c r="B65" s="123"/>
+      <c r="C65" s="121"/>
+      <c r="D65" s="121"/>
+      <c r="E65" s="121"/>
+      <c r="F65" s="121"/>
+      <c r="G65" s="121"/>
+      <c r="H65" s="124"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="121"/>
+      <c r="K65" s="122"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="124"/>
-      <c r="C66" s="122"/>
-      <c r="D66" s="136"/>
-      <c r="E66" s="122"/>
-      <c r="F66" s="122"/>
-      <c r="G66" s="122"/>
-      <c r="H66" s="125"/>
-      <c r="I66" s="122"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="123"/>
+      <c r="B66" s="123"/>
+      <c r="C66" s="121"/>
+      <c r="D66" s="135"/>
+      <c r="E66" s="121"/>
+      <c r="F66" s="121"/>
+      <c r="G66" s="121"/>
+      <c r="H66" s="124"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="121"/>
+      <c r="K66" s="122"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="124"/>
-      <c r="C67" s="122"/>
-      <c r="D67" s="136"/>
-      <c r="E67" s="122"/>
-      <c r="F67" s="122"/>
-      <c r="G67" s="122"/>
-      <c r="H67" s="125"/>
-      <c r="I67" s="122"/>
-      <c r="J67" s="122"/>
-      <c r="K67" s="123"/>
+      <c r="B67" s="123"/>
+      <c r="C67" s="121"/>
+      <c r="D67" s="135"/>
+      <c r="E67" s="121"/>
+      <c r="F67" s="121"/>
+      <c r="G67" s="121"/>
+      <c r="H67" s="124"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="121"/>
+      <c r="K67" s="122"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="124"/>
-      <c r="C68" s="122"/>
-      <c r="D68" s="136"/>
-      <c r="E68" s="122"/>
-      <c r="F68" s="136"/>
-      <c r="G68" s="122"/>
-      <c r="H68" s="125"/>
-      <c r="I68" s="122"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="123"/>
+      <c r="B68" s="123"/>
+      <c r="C68" s="121"/>
+      <c r="D68" s="135"/>
+      <c r="E68" s="121"/>
+      <c r="F68" s="135"/>
+      <c r="G68" s="121"/>
+      <c r="H68" s="124"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="121"/>
+      <c r="K68" s="122"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="124"/>
-      <c r="C69" s="122"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="125"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="123"/>
+      <c r="B69" s="123"/>
+      <c r="C69" s="121"/>
+      <c r="G69" s="121"/>
+      <c r="H69" s="124"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="121"/>
+      <c r="K69" s="122"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="124"/>
-      <c r="C70" s="122"/>
-      <c r="G70" s="122"/>
-      <c r="H70" s="125"/>
-      <c r="I70" s="122"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="123"/>
+      <c r="B70" s="123"/>
+      <c r="C70" s="121"/>
+      <c r="G70" s="121"/>
+      <c r="H70" s="124"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="121"/>
+      <c r="K70" s="122"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="124"/>
-      <c r="C71" s="122"/>
-      <c r="G71" s="122"/>
-      <c r="H71" s="125"/>
-      <c r="I71" s="122"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="123"/>
+      <c r="B71" s="123"/>
+      <c r="C71" s="121"/>
+      <c r="G71" s="121"/>
+      <c r="H71" s="124"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="121"/>
+      <c r="K71" s="122"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="124"/>
-      <c r="C72" s="122"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="125"/>
-      <c r="I72" s="122"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="123"/>
+      <c r="B72" s="123"/>
+      <c r="C72" s="121"/>
+      <c r="G72" s="121"/>
+      <c r="H72" s="124"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="121"/>
+      <c r="K72" s="122"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="124"/>
-      <c r="C73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="125"/>
-      <c r="I73" s="122"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="133"/>
+      <c r="B73" s="123"/>
+      <c r="C73" s="121"/>
+      <c r="G73" s="121"/>
+      <c r="H73" s="124"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="121"/>
+      <c r="K73" s="132"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="124"/>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="122"/>
-      <c r="F74" s="122"/>
-      <c r="G74" s="122"/>
-      <c r="H74" s="125"/>
-      <c r="I74" s="122"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="123"/>
+      <c r="B74" s="123"/>
+      <c r="C74" s="121"/>
+      <c r="D74" s="121"/>
+      <c r="E74" s="121"/>
+      <c r="F74" s="121"/>
+      <c r="G74" s="121"/>
+      <c r="H74" s="124"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="121"/>
+      <c r="K74" s="122"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="124"/>
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="125"/>
-      <c r="I75" s="122"/>
-      <c r="J75" s="122"/>
-      <c r="K75" s="123"/>
+      <c r="B75" s="123"/>
+      <c r="C75" s="121"/>
+      <c r="D75" s="121"/>
+      <c r="E75" s="121"/>
+      <c r="F75" s="121"/>
+      <c r="G75" s="121"/>
+      <c r="H75" s="124"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="121"/>
+      <c r="K75" s="122"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="124"/>
-      <c r="C76" s="122"/>
-      <c r="D76" s="122"/>
-      <c r="E76" s="122"/>
-      <c r="F76" s="122"/>
-      <c r="G76" s="122"/>
-      <c r="H76" s="125"/>
-      <c r="I76" s="122"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="123"/>
+      <c r="B76" s="123"/>
+      <c r="C76" s="121"/>
+      <c r="D76" s="121"/>
+      <c r="E76" s="121"/>
+      <c r="F76" s="121"/>
+      <c r="G76" s="121"/>
+      <c r="H76" s="124"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="121"/>
+      <c r="K76" s="122"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="124"/>
-      <c r="C77" s="122"/>
-      <c r="D77" s="122"/>
-      <c r="E77" s="122"/>
-      <c r="F77" s="122"/>
-      <c r="G77" s="122"/>
-      <c r="H77" s="125"/>
-      <c r="I77" s="122"/>
-      <c r="J77" s="122"/>
-      <c r="K77" s="123"/>
+      <c r="B77" s="123"/>
+      <c r="C77" s="121"/>
+      <c r="D77" s="121"/>
+      <c r="E77" s="121"/>
+      <c r="F77" s="121"/>
+      <c r="G77" s="121"/>
+      <c r="H77" s="124"/>
+      <c r="I77" s="121"/>
+      <c r="J77" s="121"/>
+      <c r="K77" s="122"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="124"/>
-      <c r="C78" s="122"/>
-      <c r="G78" s="122"/>
-      <c r="H78" s="125"/>
-      <c r="I78" s="122"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="123"/>
+      <c r="B78" s="123"/>
+      <c r="C78" s="121"/>
+      <c r="G78" s="121"/>
+      <c r="H78" s="124"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="121"/>
+      <c r="K78" s="122"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="124"/>
-      <c r="C79" s="122"/>
-      <c r="G79" s="122"/>
-      <c r="H79" s="125"/>
-      <c r="I79" s="122"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="123"/>
+      <c r="B79" s="123"/>
+      <c r="C79" s="121"/>
+      <c r="G79" s="121"/>
+      <c r="H79" s="124"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="121"/>
+      <c r="K79" s="122"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="124"/>
-      <c r="C80" s="122"/>
-      <c r="D80" s="135"/>
-      <c r="G80" s="122"/>
-      <c r="H80" s="125"/>
-      <c r="I80" s="122"/>
-      <c r="J80" s="122"/>
-      <c r="K80" s="123"/>
+      <c r="B80" s="123"/>
+      <c r="C80" s="121"/>
+      <c r="D80" s="134"/>
+      <c r="G80" s="121"/>
+      <c r="H80" s="124"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="121"/>
+      <c r="K80" s="122"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="124"/>
-      <c r="C81" s="122"/>
-      <c r="D81" s="122"/>
-      <c r="E81" s="122"/>
-      <c r="F81" s="132"/>
-      <c r="G81" s="122"/>
-      <c r="H81" s="125"/>
-      <c r="I81" s="122"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="123"/>
+      <c r="B81" s="123"/>
+      <c r="C81" s="121"/>
+      <c r="D81" s="121"/>
+      <c r="E81" s="121"/>
+      <c r="F81" s="131"/>
+      <c r="G81" s="121"/>
+      <c r="H81" s="124"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="121"/>
+      <c r="K81" s="122"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="124"/>
-      <c r="C82" s="122"/>
-      <c r="D82" s="122"/>
-      <c r="E82" s="122"/>
-      <c r="F82" s="132"/>
-      <c r="G82" s="122"/>
-      <c r="H82" s="125"/>
-      <c r="I82" s="122"/>
-      <c r="J82" s="122"/>
-      <c r="K82" s="123"/>
+      <c r="B82" s="123"/>
+      <c r="C82" s="121"/>
+      <c r="D82" s="121"/>
+      <c r="E82" s="121"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="121"/>
+      <c r="H82" s="124"/>
+      <c r="I82" s="121"/>
+      <c r="J82" s="121"/>
+      <c r="K82" s="122"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="124"/>
-      <c r="C83" s="122"/>
-      <c r="D83" s="122"/>
-      <c r="E83" s="122"/>
-      <c r="F83" s="122"/>
-      <c r="G83" s="122"/>
-      <c r="H83" s="125"/>
-      <c r="I83" s="122"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="123"/>
+      <c r="B83" s="123"/>
+      <c r="C83" s="121"/>
+      <c r="D83" s="121"/>
+      <c r="E83" s="121"/>
+      <c r="F83" s="121"/>
+      <c r="G83" s="121"/>
+      <c r="H83" s="124"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="121"/>
+      <c r="K83" s="122"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="124"/>
-      <c r="C84" s="122"/>
-      <c r="D84" s="122"/>
-      <c r="E84" s="122"/>
-      <c r="F84" s="122"/>
-      <c r="G84" s="122"/>
-      <c r="H84" s="125"/>
-      <c r="I84" s="122"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="123"/>
+      <c r="B84" s="123"/>
+      <c r="C84" s="121"/>
+      <c r="D84" s="121"/>
+      <c r="E84" s="121"/>
+      <c r="F84" s="121"/>
+      <c r="G84" s="121"/>
+      <c r="H84" s="124"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="121"/>
+      <c r="K84" s="122"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="124"/>
-      <c r="C85" s="122"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="122"/>
-      <c r="F85" s="122"/>
-      <c r="G85" s="122"/>
-      <c r="H85" s="125"/>
-      <c r="I85" s="122"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="123"/>
+      <c r="B85" s="123"/>
+      <c r="C85" s="121"/>
+      <c r="D85" s="121"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
+      <c r="G85" s="121"/>
+      <c r="H85" s="124"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="121"/>
+      <c r="K85" s="122"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="124"/>
-      <c r="C86" s="122"/>
-      <c r="D86" s="122"/>
-      <c r="E86" s="122"/>
-      <c r="F86" s="122"/>
-      <c r="G86" s="122"/>
-      <c r="H86" s="125"/>
-      <c r="I86" s="122"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="123"/>
+      <c r="B86" s="123"/>
+      <c r="C86" s="121"/>
+      <c r="D86" s="121"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="124"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="121"/>
+      <c r="K86" s="122"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="124"/>
-      <c r="C87" s="122"/>
-      <c r="D87" s="122"/>
-      <c r="E87" s="122"/>
-      <c r="F87" s="122"/>
-      <c r="G87" s="122"/>
-      <c r="H87" s="125"/>
-      <c r="I87" s="122"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="123"/>
+      <c r="B87" s="123"/>
+      <c r="C87" s="121"/>
+      <c r="D87" s="121"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
+      <c r="G87" s="121"/>
+      <c r="H87" s="124"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="121"/>
+      <c r="K87" s="122"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="124"/>
-      <c r="C88" s="122"/>
-      <c r="D88" s="122"/>
-      <c r="E88" s="122"/>
-      <c r="F88" s="122"/>
-      <c r="G88" s="122"/>
-      <c r="H88" s="125"/>
-      <c r="I88" s="122"/>
-      <c r="J88" s="122"/>
-      <c r="K88" s="123"/>
+      <c r="B88" s="123"/>
+      <c r="C88" s="121"/>
+      <c r="D88" s="121"/>
+      <c r="E88" s="121"/>
+      <c r="F88" s="121"/>
+      <c r="G88" s="121"/>
+      <c r="H88" s="124"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="121"/>
+      <c r="K88" s="122"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="124"/>
-      <c r="C89" s="122"/>
-      <c r="D89" s="122"/>
-      <c r="E89" s="122"/>
-      <c r="F89" s="122"/>
-      <c r="G89" s="122"/>
-      <c r="H89" s="125"/>
-      <c r="I89" s="122"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="123"/>
+      <c r="B89" s="123"/>
+      <c r="C89" s="121"/>
+      <c r="D89" s="121"/>
+      <c r="E89" s="121"/>
+      <c r="F89" s="121"/>
+      <c r="G89" s="121"/>
+      <c r="H89" s="124"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="121"/>
+      <c r="K89" s="122"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="124"/>
-      <c r="C90" s="122"/>
-      <c r="D90" s="122"/>
-      <c r="E90" s="122"/>
-      <c r="F90" s="122"/>
-      <c r="G90" s="122"/>
-      <c r="H90" s="125"/>
-      <c r="I90" s="122"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="123"/>
+      <c r="B90" s="123"/>
+      <c r="C90" s="121"/>
+      <c r="D90" s="121"/>
+      <c r="E90" s="121"/>
+      <c r="F90" s="121"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="124"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="121"/>
+      <c r="K90" s="122"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="124"/>
-      <c r="C91" s="122"/>
-      <c r="D91" s="122"/>
-      <c r="E91" s="122"/>
-      <c r="F91" s="122"/>
-      <c r="G91" s="122"/>
-      <c r="H91" s="125"/>
-      <c r="I91" s="122"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="123"/>
+      <c r="B91" s="123"/>
+      <c r="C91" s="121"/>
+      <c r="D91" s="121"/>
+      <c r="E91" s="121"/>
+      <c r="F91" s="121"/>
+      <c r="G91" s="121"/>
+      <c r="H91" s="124"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="121"/>
+      <c r="K91" s="122"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="124"/>
-      <c r="C92" s="122"/>
-      <c r="D92" s="122"/>
-      <c r="E92" s="122"/>
-      <c r="F92" s="122"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="125"/>
-      <c r="I92" s="122"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="123"/>
+      <c r="B92" s="123"/>
+      <c r="C92" s="121"/>
+      <c r="D92" s="121"/>
+      <c r="E92" s="121"/>
+      <c r="F92" s="121"/>
+      <c r="G92" s="121"/>
+      <c r="H92" s="124"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="121"/>
+      <c r="K92" s="122"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="124"/>
-      <c r="C93" s="122"/>
-      <c r="D93" s="122"/>
-      <c r="E93" s="122"/>
-      <c r="F93" s="122"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="125"/>
-      <c r="I93" s="122"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="123"/>
+      <c r="B93" s="123"/>
+      <c r="C93" s="121"/>
+      <c r="D93" s="121"/>
+      <c r="E93" s="121"/>
+      <c r="F93" s="121"/>
+      <c r="G93" s="121"/>
+      <c r="H93" s="124"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="121"/>
+      <c r="K93" s="122"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="124"/>
-      <c r="C94" s="122"/>
-      <c r="D94" s="122"/>
-      <c r="E94" s="122"/>
-      <c r="F94" s="122"/>
-      <c r="G94" s="122"/>
-      <c r="H94" s="125"/>
-      <c r="I94" s="122"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="123"/>
+      <c r="B94" s="123"/>
+      <c r="C94" s="121"/>
+      <c r="D94" s="121"/>
+      <c r="E94" s="121"/>
+      <c r="F94" s="121"/>
+      <c r="G94" s="121"/>
+      <c r="H94" s="124"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="121"/>
+      <c r="K94" s="122"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="124"/>
-      <c r="C95" s="122"/>
-      <c r="D95" s="122"/>
-      <c r="E95" s="122"/>
-      <c r="F95" s="122"/>
-      <c r="G95" s="122"/>
-      <c r="H95" s="125"/>
-      <c r="I95" s="122"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="123"/>
+      <c r="B95" s="123"/>
+      <c r="C95" s="121"/>
+      <c r="D95" s="121"/>
+      <c r="E95" s="121"/>
+      <c r="F95" s="121"/>
+      <c r="G95" s="121"/>
+      <c r="H95" s="124"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="121"/>
+      <c r="K95" s="122"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="124"/>
-      <c r="C96" s="122"/>
-      <c r="D96" s="122"/>
-      <c r="E96" s="122"/>
-      <c r="F96" s="122"/>
-      <c r="G96" s="122"/>
-      <c r="H96" s="125"/>
-      <c r="I96" s="122"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="123"/>
+      <c r="B96" s="123"/>
+      <c r="C96" s="121"/>
+      <c r="D96" s="121"/>
+      <c r="E96" s="121"/>
+      <c r="F96" s="121"/>
+      <c r="G96" s="121"/>
+      <c r="H96" s="124"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="121"/>
+      <c r="K96" s="122"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="124"/>
-      <c r="C97" s="122"/>
-      <c r="D97" s="122"/>
-      <c r="E97" s="122"/>
-      <c r="F97" s="122"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="125"/>
-      <c r="I97" s="122"/>
-      <c r="J97" s="122"/>
-      <c r="K97" s="123"/>
+      <c r="B97" s="123"/>
+      <c r="C97" s="121"/>
+      <c r="D97" s="121"/>
+      <c r="E97" s="121"/>
+      <c r="F97" s="121"/>
+      <c r="G97" s="121"/>
+      <c r="H97" s="124"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="121"/>
+      <c r="K97" s="122"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="124"/>
-      <c r="C98" s="122"/>
-      <c r="D98" s="122"/>
-      <c r="E98" s="122"/>
-      <c r="F98" s="122"/>
-      <c r="G98" s="122"/>
-      <c r="H98" s="125"/>
-      <c r="I98" s="122"/>
-      <c r="J98" s="122"/>
-      <c r="K98" s="123"/>
+      <c r="B98" s="123"/>
+      <c r="C98" s="121"/>
+      <c r="D98" s="121"/>
+      <c r="E98" s="121"/>
+      <c r="F98" s="121"/>
+      <c r="G98" s="121"/>
+      <c r="H98" s="124"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="121"/>
+      <c r="K98" s="122"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="124"/>
-      <c r="C99" s="122"/>
-      <c r="D99" s="122"/>
-      <c r="E99" s="122"/>
-      <c r="F99" s="122"/>
-      <c r="G99" s="122"/>
-      <c r="H99" s="125"/>
-      <c r="I99" s="122"/>
-      <c r="J99" s="122"/>
-      <c r="K99" s="123"/>
+      <c r="B99" s="123"/>
+      <c r="C99" s="121"/>
+      <c r="D99" s="121"/>
+      <c r="E99" s="121"/>
+      <c r="F99" s="121"/>
+      <c r="G99" s="121"/>
+      <c r="H99" s="124"/>
+      <c r="I99" s="121"/>
+      <c r="J99" s="121"/>
+      <c r="K99" s="122"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="124"/>
-      <c r="C100" s="122"/>
-      <c r="D100" s="122"/>
-      <c r="E100" s="122"/>
-      <c r="F100" s="122"/>
-      <c r="G100" s="122"/>
-      <c r="H100" s="125"/>
-      <c r="I100" s="122"/>
-      <c r="J100" s="122"/>
-      <c r="K100" s="123"/>
+      <c r="B100" s="123"/>
+      <c r="C100" s="121"/>
+      <c r="D100" s="121"/>
+      <c r="E100" s="121"/>
+      <c r="F100" s="121"/>
+      <c r="G100" s="121"/>
+      <c r="H100" s="124"/>
+      <c r="I100" s="121"/>
+      <c r="J100" s="121"/>
+      <c r="K100" s="122"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="124"/>
-      <c r="C101" s="122"/>
-      <c r="D101" s="122"/>
-      <c r="E101" s="122"/>
-      <c r="F101" s="122"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="125"/>
-      <c r="I101" s="122"/>
-      <c r="J101" s="122"/>
-      <c r="K101" s="123"/>
+      <c r="B101" s="123"/>
+      <c r="C101" s="121"/>
+      <c r="D101" s="121"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
+      <c r="G101" s="121"/>
+      <c r="H101" s="124"/>
+      <c r="I101" s="121"/>
+      <c r="J101" s="121"/>
+      <c r="K101" s="122"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="124"/>
-      <c r="C102" s="122"/>
-      <c r="D102" s="122"/>
-      <c r="E102" s="122"/>
-      <c r="F102" s="122"/>
-      <c r="G102" s="122"/>
-      <c r="H102" s="125"/>
-      <c r="I102" s="122"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="123"/>
+      <c r="B102" s="123"/>
+      <c r="C102" s="121"/>
+      <c r="D102" s="121"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
+      <c r="G102" s="121"/>
+      <c r="H102" s="124"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="121"/>
+      <c r="K102" s="122"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="124"/>
-      <c r="C103" s="122"/>
-      <c r="D103" s="122"/>
-      <c r="E103" s="122"/>
-      <c r="F103" s="122"/>
-      <c r="G103" s="122"/>
-      <c r="H103" s="125"/>
-      <c r="I103" s="122"/>
-      <c r="J103" s="122"/>
-      <c r="K103" s="123"/>
+      <c r="B103" s="123"/>
+      <c r="C103" s="121"/>
+      <c r="D103" s="121"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
+      <c r="G103" s="121"/>
+      <c r="H103" s="124"/>
+      <c r="I103" s="121"/>
+      <c r="J103" s="121"/>
+      <c r="K103" s="122"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="124"/>
-      <c r="C104" s="122"/>
-      <c r="D104" s="122"/>
-      <c r="E104" s="122"/>
-      <c r="F104" s="122"/>
-      <c r="G104" s="122"/>
-      <c r="H104" s="125"/>
-      <c r="I104" s="122"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="123"/>
+      <c r="B104" s="123"/>
+      <c r="C104" s="121"/>
+      <c r="D104" s="121"/>
+      <c r="E104" s="121"/>
+      <c r="F104" s="121"/>
+      <c r="G104" s="121"/>
+      <c r="H104" s="124"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="121"/>
+      <c r="K104" s="122"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="124"/>
-      <c r="C105" s="122"/>
-      <c r="D105" s="122"/>
-      <c r="E105" s="122"/>
-      <c r="F105" s="122"/>
-      <c r="G105" s="122"/>
-      <c r="H105" s="125"/>
-      <c r="I105" s="122"/>
-      <c r="J105" s="122"/>
-      <c r="K105" s="123"/>
+      <c r="B105" s="123"/>
+      <c r="C105" s="121"/>
+      <c r="D105" s="121"/>
+      <c r="E105" s="121"/>
+      <c r="F105" s="121"/>
+      <c r="G105" s="121"/>
+      <c r="H105" s="124"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="121"/>
+      <c r="K105" s="122"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="124"/>
-      <c r="C106" s="122"/>
-      <c r="D106" s="122"/>
-      <c r="E106" s="122"/>
-      <c r="F106" s="122"/>
-      <c r="G106" s="122"/>
-      <c r="H106" s="125"/>
-      <c r="I106" s="122"/>
-      <c r="J106" s="122"/>
-      <c r="K106" s="123"/>
+      <c r="B106" s="123"/>
+      <c r="C106" s="121"/>
+      <c r="D106" s="121"/>
+      <c r="E106" s="121"/>
+      <c r="F106" s="121"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="124"/>
+      <c r="I106" s="121"/>
+      <c r="J106" s="121"/>
+      <c r="K106" s="122"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="124"/>
-      <c r="C107" s="122"/>
-      <c r="D107" s="122"/>
-      <c r="E107" s="122"/>
-      <c r="F107" s="122"/>
-      <c r="G107" s="122"/>
-      <c r="H107" s="125"/>
-      <c r="I107" s="122"/>
-      <c r="J107" s="122"/>
-      <c r="K107" s="123"/>
+      <c r="B107" s="123"/>
+      <c r="C107" s="121"/>
+      <c r="D107" s="121"/>
+      <c r="E107" s="121"/>
+      <c r="F107" s="121"/>
+      <c r="G107" s="121"/>
+      <c r="H107" s="124"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="121"/>
+      <c r="K107" s="122"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="124"/>
-      <c r="C108" s="122"/>
-      <c r="D108" s="122"/>
-      <c r="E108" s="122"/>
-      <c r="F108" s="122"/>
-      <c r="G108" s="122"/>
-      <c r="H108" s="125"/>
-      <c r="I108" s="122"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="123"/>
+      <c r="B108" s="123"/>
+      <c r="C108" s="121"/>
+      <c r="D108" s="121"/>
+      <c r="E108" s="121"/>
+      <c r="F108" s="121"/>
+      <c r="G108" s="121"/>
+      <c r="H108" s="124"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="121"/>
+      <c r="K108" s="122"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="124"/>
-      <c r="C109" s="122"/>
-      <c r="D109" s="122"/>
-      <c r="E109" s="122"/>
-      <c r="F109" s="122"/>
-      <c r="G109" s="122"/>
-      <c r="H109" s="125"/>
-      <c r="I109" s="122"/>
-      <c r="J109" s="122"/>
-      <c r="K109" s="123"/>
+      <c r="B109" s="123"/>
+      <c r="C109" s="121"/>
+      <c r="D109" s="121"/>
+      <c r="E109" s="121"/>
+      <c r="F109" s="121"/>
+      <c r="G109" s="121"/>
+      <c r="H109" s="124"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="121"/>
+      <c r="K109" s="122"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="124"/>
-      <c r="C110" s="122"/>
-      <c r="D110" s="122"/>
-      <c r="E110" s="122"/>
-      <c r="F110" s="122"/>
-      <c r="G110" s="122"/>
-      <c r="H110" s="125"/>
-      <c r="I110" s="122"/>
-      <c r="J110" s="122"/>
-      <c r="K110" s="123"/>
+      <c r="B110" s="123"/>
+      <c r="C110" s="121"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
+      <c r="G110" s="121"/>
+      <c r="H110" s="124"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="121"/>
+      <c r="K110" s="122"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="124"/>
-      <c r="C111" s="122"/>
-      <c r="D111" s="122"/>
-      <c r="E111" s="122"/>
-      <c r="F111" s="122"/>
-      <c r="G111" s="122"/>
-      <c r="H111" s="125"/>
-      <c r="I111" s="122"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="123"/>
+      <c r="B111" s="123"/>
+      <c r="C111" s="121"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
+      <c r="G111" s="121"/>
+      <c r="H111" s="124"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="121"/>
+      <c r="K111" s="122"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="124"/>
-      <c r="C112" s="122"/>
-      <c r="D112" s="122"/>
-      <c r="E112" s="122"/>
-      <c r="F112" s="122"/>
-      <c r="G112" s="122"/>
-      <c r="H112" s="125"/>
-      <c r="I112" s="122"/>
-      <c r="J112" s="122"/>
-      <c r="K112" s="123"/>
+      <c r="B112" s="123"/>
+      <c r="C112" s="121"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
+      <c r="G112" s="121"/>
+      <c r="H112" s="124"/>
+      <c r="I112" s="121"/>
+      <c r="J112" s="121"/>
+      <c r="K112" s="122"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="124"/>
-      <c r="C113" s="122"/>
-      <c r="D113" s="122"/>
-      <c r="E113" s="122"/>
-      <c r="F113" s="122"/>
-      <c r="G113" s="122"/>
-      <c r="H113" s="125"/>
-      <c r="I113" s="122"/>
-      <c r="J113" s="122"/>
-      <c r="K113" s="123"/>
+      <c r="B113" s="123"/>
+      <c r="C113" s="121"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
+      <c r="G113" s="121"/>
+      <c r="H113" s="124"/>
+      <c r="I113" s="121"/>
+      <c r="J113" s="121"/>
+      <c r="K113" s="122"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="124"/>
-      <c r="C114" s="122"/>
-      <c r="D114" s="122"/>
-      <c r="E114" s="122"/>
-      <c r="F114" s="122"/>
-      <c r="G114" s="122"/>
-      <c r="H114" s="125"/>
-      <c r="I114" s="122"/>
-      <c r="J114" s="122"/>
-      <c r="K114" s="123"/>
+      <c r="B114" s="123"/>
+      <c r="C114" s="121"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
+      <c r="G114" s="121"/>
+      <c r="H114" s="124"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="121"/>
+      <c r="K114" s="122"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="124"/>
-      <c r="C115" s="122"/>
-      <c r="D115" s="122"/>
-      <c r="E115" s="122"/>
-      <c r="F115" s="122"/>
-      <c r="G115" s="122"/>
-      <c r="H115" s="125"/>
-      <c r="I115" s="122"/>
-      <c r="J115" s="122"/>
-      <c r="K115" s="123"/>
+      <c r="B115" s="123"/>
+      <c r="C115" s="121"/>
+      <c r="D115" s="121"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
+      <c r="G115" s="121"/>
+      <c r="H115" s="124"/>
+      <c r="I115" s="121"/>
+      <c r="J115" s="121"/>
+      <c r="K115" s="122"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="124"/>
-      <c r="C116" s="122"/>
-      <c r="D116" s="122"/>
-      <c r="E116" s="122"/>
-      <c r="F116" s="122"/>
-      <c r="G116" s="122"/>
-      <c r="H116" s="125"/>
-      <c r="I116" s="122"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="123"/>
+      <c r="B116" s="123"/>
+      <c r="C116" s="121"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
+      <c r="G116" s="121"/>
+      <c r="H116" s="124"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="121"/>
+      <c r="K116" s="122"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="124"/>
-      <c r="C117" s="122"/>
-      <c r="D117" s="122"/>
-      <c r="E117" s="122"/>
-      <c r="F117" s="122"/>
-      <c r="G117" s="122"/>
-      <c r="H117" s="125"/>
-      <c r="I117" s="122"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="123"/>
+      <c r="B117" s="123"/>
+      <c r="C117" s="121"/>
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
+      <c r="G117" s="121"/>
+      <c r="H117" s="124"/>
+      <c r="I117" s="121"/>
+      <c r="J117" s="121"/>
+      <c r="K117" s="122"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="124"/>
-      <c r="C118" s="122"/>
-      <c r="D118" s="122"/>
-      <c r="E118" s="122"/>
-      <c r="F118" s="122"/>
-      <c r="G118" s="122"/>
-      <c r="H118" s="125"/>
-      <c r="I118" s="122"/>
-      <c r="J118" s="122"/>
-      <c r="K118" s="123"/>
+      <c r="B118" s="123"/>
+      <c r="C118" s="121"/>
+      <c r="D118" s="121"/>
+      <c r="E118" s="121"/>
+      <c r="F118" s="121"/>
+      <c r="G118" s="121"/>
+      <c r="H118" s="124"/>
+      <c r="I118" s="121"/>
+      <c r="J118" s="121"/>
+      <c r="K118" s="122"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="124"/>
-      <c r="C119" s="122"/>
-      <c r="D119" s="122"/>
-      <c r="E119" s="122"/>
-      <c r="F119" s="122"/>
-      <c r="G119" s="122"/>
-      <c r="H119" s="125"/>
-      <c r="I119" s="122"/>
-      <c r="J119" s="122"/>
-      <c r="K119" s="123"/>
+      <c r="B119" s="123"/>
+      <c r="C119" s="121"/>
+      <c r="D119" s="121"/>
+      <c r="E119" s="121"/>
+      <c r="F119" s="121"/>
+      <c r="G119" s="121"/>
+      <c r="H119" s="124"/>
+      <c r="I119" s="121"/>
+      <c r="J119" s="121"/>
+      <c r="K119" s="122"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="124"/>
-      <c r="C120" s="122"/>
-      <c r="D120" s="122"/>
-      <c r="E120" s="122"/>
-      <c r="F120" s="122"/>
-      <c r="G120" s="122"/>
-      <c r="H120" s="125"/>
-      <c r="I120" s="122"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="123"/>
+      <c r="B120" s="123"/>
+      <c r="C120" s="121"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
+      <c r="G120" s="121"/>
+      <c r="H120" s="124"/>
+      <c r="I120" s="121"/>
+      <c r="J120" s="121"/>
+      <c r="K120" s="122"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="124"/>
-      <c r="C121" s="122"/>
-      <c r="D121" s="122"/>
-      <c r="E121" s="122"/>
-      <c r="F121" s="122"/>
-      <c r="G121" s="122"/>
-      <c r="H121" s="125"/>
-      <c r="I121" s="122"/>
-      <c r="J121" s="122"/>
-      <c r="K121" s="123"/>
+      <c r="B121" s="123"/>
+      <c r="C121" s="121"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
+      <c r="G121" s="121"/>
+      <c r="H121" s="124"/>
+      <c r="I121" s="121"/>
+      <c r="J121" s="121"/>
+      <c r="K121" s="122"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="124"/>
-      <c r="C122" s="122"/>
-      <c r="D122" s="122"/>
-      <c r="E122" s="122"/>
-      <c r="F122" s="122"/>
-      <c r="G122" s="122"/>
-      <c r="H122" s="125"/>
-      <c r="I122" s="122"/>
-      <c r="J122" s="122"/>
-      <c r="K122" s="123"/>
+      <c r="B122" s="123"/>
+      <c r="C122" s="121"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
+      <c r="G122" s="121"/>
+      <c r="H122" s="124"/>
+      <c r="I122" s="121"/>
+      <c r="J122" s="121"/>
+      <c r="K122" s="122"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="124"/>
-      <c r="C123" s="122"/>
-      <c r="D123" s="122"/>
-      <c r="E123" s="122"/>
-      <c r="F123" s="122"/>
-      <c r="G123" s="122"/>
-      <c r="H123" s="125"/>
-      <c r="I123" s="122"/>
-      <c r="J123" s="122"/>
-      <c r="K123" s="123"/>
+      <c r="B123" s="123"/>
+      <c r="C123" s="121"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
+      <c r="G123" s="121"/>
+      <c r="H123" s="124"/>
+      <c r="I123" s="121"/>
+      <c r="J123" s="121"/>
+      <c r="K123" s="122"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="124"/>
-      <c r="C124" s="122"/>
-      <c r="D124" s="122"/>
-      <c r="E124" s="122"/>
-      <c r="F124" s="122"/>
-      <c r="G124" s="122"/>
-      <c r="H124" s="125"/>
-      <c r="I124" s="122"/>
-      <c r="J124" s="122"/>
-      <c r="K124" s="123"/>
+      <c r="B124" s="123"/>
+      <c r="C124" s="121"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
+      <c r="G124" s="121"/>
+      <c r="H124" s="124"/>
+      <c r="I124" s="121"/>
+      <c r="J124" s="121"/>
+      <c r="K124" s="122"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="124"/>
-      <c r="C125" s="122"/>
-      <c r="D125" s="122"/>
-      <c r="E125" s="122"/>
-      <c r="F125" s="122"/>
-      <c r="G125" s="122"/>
-      <c r="H125" s="125"/>
-      <c r="I125" s="122"/>
-      <c r="J125" s="122"/>
-      <c r="K125" s="123"/>
+      <c r="B125" s="123"/>
+      <c r="C125" s="121"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
+      <c r="G125" s="121"/>
+      <c r="H125" s="124"/>
+      <c r="I125" s="121"/>
+      <c r="J125" s="121"/>
+      <c r="K125" s="122"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="124"/>
-      <c r="C126" s="122"/>
-      <c r="D126" s="122"/>
-      <c r="E126" s="122"/>
-      <c r="F126" s="122"/>
-      <c r="G126" s="122"/>
-      <c r="H126" s="125"/>
-      <c r="I126" s="122"/>
-      <c r="J126" s="122"/>
-      <c r="K126" s="123"/>
+      <c r="B126" s="123"/>
+      <c r="C126" s="121"/>
+      <c r="D126" s="121"/>
+      <c r="E126" s="121"/>
+      <c r="F126" s="121"/>
+      <c r="G126" s="121"/>
+      <c r="H126" s="124"/>
+      <c r="I126" s="121"/>
+      <c r="J126" s="121"/>
+      <c r="K126" s="122"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="124"/>
-      <c r="C127" s="122"/>
-      <c r="D127" s="122"/>
-      <c r="E127" s="122"/>
-      <c r="F127" s="122"/>
-      <c r="G127" s="122"/>
-      <c r="H127" s="125"/>
-      <c r="I127" s="122"/>
-      <c r="J127" s="122"/>
-      <c r="K127" s="123"/>
+      <c r="B127" s="123"/>
+      <c r="C127" s="121"/>
+      <c r="D127" s="121"/>
+      <c r="E127" s="121"/>
+      <c r="F127" s="121"/>
+      <c r="G127" s="121"/>
+      <c r="H127" s="124"/>
+      <c r="I127" s="121"/>
+      <c r="J127" s="121"/>
+      <c r="K127" s="122"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="124"/>
-      <c r="C128" s="122"/>
-      <c r="D128" s="122"/>
-      <c r="E128" s="122"/>
-      <c r="F128" s="122"/>
-      <c r="G128" s="122"/>
-      <c r="H128" s="125"/>
-      <c r="I128" s="122"/>
-      <c r="J128" s="122"/>
-      <c r="K128" s="123"/>
+      <c r="B128" s="123"/>
+      <c r="C128" s="121"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
+      <c r="G128" s="121"/>
+      <c r="H128" s="124"/>
+      <c r="I128" s="121"/>
+      <c r="J128" s="121"/>
+      <c r="K128" s="122"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="124"/>
-      <c r="C129" s="122"/>
-      <c r="D129" s="122"/>
-      <c r="E129" s="122"/>
-      <c r="F129" s="122"/>
-      <c r="G129" s="122"/>
-      <c r="H129" s="125"/>
-      <c r="I129" s="122"/>
-      <c r="J129" s="122"/>
-      <c r="K129" s="123"/>
+      <c r="B129" s="123"/>
+      <c r="C129" s="121"/>
+      <c r="D129" s="121"/>
+      <c r="E129" s="121"/>
+      <c r="F129" s="121"/>
+      <c r="G129" s="121"/>
+      <c r="H129" s="124"/>
+      <c r="I129" s="121"/>
+      <c r="J129" s="121"/>
+      <c r="K129" s="122"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="124"/>
-      <c r="C130" s="122"/>
-      <c r="D130" s="122"/>
-      <c r="E130" s="122"/>
-      <c r="F130" s="122"/>
-      <c r="G130" s="122"/>
-      <c r="H130" s="125"/>
-      <c r="I130" s="122"/>
-      <c r="J130" s="122"/>
-      <c r="K130" s="123"/>
+      <c r="B130" s="123"/>
+      <c r="C130" s="121"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
+      <c r="G130" s="121"/>
+      <c r="H130" s="124"/>
+      <c r="I130" s="121"/>
+      <c r="J130" s="121"/>
+      <c r="K130" s="122"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="124"/>
-      <c r="C131" s="122"/>
-      <c r="D131" s="122"/>
-      <c r="E131" s="122"/>
-      <c r="F131" s="122"/>
-      <c r="G131" s="122"/>
-      <c r="H131" s="125"/>
-      <c r="I131" s="122"/>
-      <c r="J131" s="122"/>
-      <c r="K131" s="123"/>
+      <c r="B131" s="123"/>
+      <c r="C131" s="121"/>
+      <c r="D131" s="121"/>
+      <c r="E131" s="121"/>
+      <c r="F131" s="121"/>
+      <c r="G131" s="121"/>
+      <c r="H131" s="124"/>
+      <c r="I131" s="121"/>
+      <c r="J131" s="121"/>
+      <c r="K131" s="122"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="124"/>
-      <c r="C132" s="122"/>
-      <c r="D132" s="122"/>
-      <c r="E132" s="122"/>
-      <c r="F132" s="122"/>
-      <c r="G132" s="122"/>
-      <c r="H132" s="125"/>
-      <c r="I132" s="122"/>
-      <c r="J132" s="122"/>
-      <c r="K132" s="123"/>
+      <c r="B132" s="123"/>
+      <c r="C132" s="121"/>
+      <c r="D132" s="121"/>
+      <c r="E132" s="121"/>
+      <c r="F132" s="121"/>
+      <c r="G132" s="121"/>
+      <c r="H132" s="124"/>
+      <c r="I132" s="121"/>
+      <c r="J132" s="121"/>
+      <c r="K132" s="122"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="124"/>
-      <c r="C133" s="122"/>
-      <c r="D133" s="122"/>
-      <c r="E133" s="122"/>
-      <c r="F133" s="122"/>
-      <c r="G133" s="122"/>
-      <c r="H133" s="125"/>
-      <c r="I133" s="122"/>
-      <c r="J133" s="122"/>
-      <c r="K133" s="123"/>
+      <c r="B133" s="123"/>
+      <c r="C133" s="121"/>
+      <c r="D133" s="121"/>
+      <c r="E133" s="121"/>
+      <c r="F133" s="121"/>
+      <c r="G133" s="121"/>
+      <c r="H133" s="124"/>
+      <c r="I133" s="121"/>
+      <c r="J133" s="121"/>
+      <c r="K133" s="122"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="124"/>
-      <c r="C134" s="122"/>
-      <c r="D134" s="122"/>
-      <c r="E134" s="122"/>
-      <c r="F134" s="122"/>
-      <c r="G134" s="122"/>
-      <c r="H134" s="125"/>
-      <c r="I134" s="122"/>
-      <c r="J134" s="122"/>
-      <c r="K134" s="123"/>
+      <c r="B134" s="123"/>
+      <c r="C134" s="121"/>
+      <c r="D134" s="121"/>
+      <c r="E134" s="121"/>
+      <c r="F134" s="121"/>
+      <c r="G134" s="121"/>
+      <c r="H134" s="124"/>
+      <c r="I134" s="121"/>
+      <c r="J134" s="121"/>
+      <c r="K134" s="122"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="124"/>
-      <c r="C135" s="122"/>
-      <c r="D135" s="122"/>
-      <c r="E135" s="122"/>
-      <c r="F135" s="122"/>
-      <c r="G135" s="122"/>
-      <c r="H135" s="125"/>
-      <c r="I135" s="122"/>
-      <c r="J135" s="122"/>
-      <c r="K135" s="123"/>
+      <c r="B135" s="123"/>
+      <c r="C135" s="121"/>
+      <c r="D135" s="121"/>
+      <c r="E135" s="121"/>
+      <c r="F135" s="121"/>
+      <c r="G135" s="121"/>
+      <c r="H135" s="124"/>
+      <c r="I135" s="121"/>
+      <c r="J135" s="121"/>
+      <c r="K135" s="122"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="124"/>
-      <c r="C136" s="122"/>
-      <c r="D136" s="122"/>
-      <c r="E136" s="122"/>
-      <c r="F136" s="122"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="125"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
-      <c r="K136" s="123"/>
+      <c r="B136" s="123"/>
+      <c r="C136" s="121"/>
+      <c r="D136" s="121"/>
+      <c r="E136" s="121"/>
+      <c r="F136" s="121"/>
+      <c r="G136" s="121"/>
+      <c r="H136" s="124"/>
+      <c r="I136" s="121"/>
+      <c r="J136" s="121"/>
+      <c r="K136" s="122"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="124"/>
-      <c r="C137" s="122"/>
-      <c r="D137" s="122"/>
-      <c r="E137" s="122"/>
-      <c r="F137" s="122"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="125"/>
-      <c r="I137" s="122"/>
-      <c r="J137" s="122"/>
-      <c r="K137" s="123"/>
+      <c r="B137" s="123"/>
+      <c r="C137" s="121"/>
+      <c r="D137" s="121"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="121"/>
+      <c r="G137" s="121"/>
+      <c r="H137" s="124"/>
+      <c r="I137" s="121"/>
+      <c r="J137" s="121"/>
+      <c r="K137" s="122"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="124"/>
-      <c r="C138" s="122"/>
-      <c r="D138" s="122"/>
-      <c r="E138" s="122"/>
-      <c r="F138" s="122"/>
-      <c r="G138" s="122"/>
-      <c r="H138" s="125"/>
-      <c r="I138" s="122"/>
-      <c r="J138" s="122"/>
-      <c r="K138" s="123"/>
+      <c r="B138" s="123"/>
+      <c r="C138" s="121"/>
+      <c r="D138" s="121"/>
+      <c r="E138" s="121"/>
+      <c r="F138" s="121"/>
+      <c r="G138" s="121"/>
+      <c r="H138" s="124"/>
+      <c r="I138" s="121"/>
+      <c r="J138" s="121"/>
+      <c r="K138" s="122"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="124"/>
-      <c r="C139" s="122"/>
-      <c r="D139" s="122"/>
-      <c r="E139" s="122"/>
-      <c r="F139" s="122"/>
-      <c r="G139" s="122"/>
-      <c r="H139" s="125"/>
-      <c r="I139" s="122"/>
-      <c r="J139" s="122"/>
-      <c r="K139" s="123"/>
+      <c r="B139" s="123"/>
+      <c r="C139" s="121"/>
+      <c r="D139" s="121"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="121"/>
+      <c r="G139" s="121"/>
+      <c r="H139" s="124"/>
+      <c r="I139" s="121"/>
+      <c r="J139" s="121"/>
+      <c r="K139" s="122"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="124"/>
-      <c r="C140" s="122"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="122"/>
-      <c r="F140" s="122"/>
-      <c r="G140" s="122"/>
-      <c r="H140" s="125"/>
-      <c r="I140" s="122"/>
-      <c r="J140" s="122"/>
-      <c r="K140" s="123"/>
+      <c r="B140" s="123"/>
+      <c r="C140" s="121"/>
+      <c r="D140" s="121"/>
+      <c r="E140" s="121"/>
+      <c r="F140" s="121"/>
+      <c r="G140" s="121"/>
+      <c r="H140" s="124"/>
+      <c r="I140" s="121"/>
+      <c r="J140" s="121"/>
+      <c r="K140" s="122"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="124"/>
-      <c r="C141" s="122"/>
-      <c r="D141" s="122"/>
-      <c r="E141" s="122"/>
-      <c r="F141" s="122"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="125"/>
-      <c r="I141" s="122"/>
-      <c r="J141" s="122"/>
-      <c r="K141" s="123"/>
+      <c r="B141" s="123"/>
+      <c r="C141" s="121"/>
+      <c r="D141" s="121"/>
+      <c r="E141" s="121"/>
+      <c r="F141" s="121"/>
+      <c r="G141" s="121"/>
+      <c r="H141" s="124"/>
+      <c r="I141" s="121"/>
+      <c r="J141" s="121"/>
+      <c r="K141" s="122"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="124"/>
-      <c r="C142" s="122"/>
-      <c r="D142" s="122"/>
-      <c r="E142" s="122"/>
-      <c r="F142" s="122"/>
-      <c r="G142" s="122"/>
-      <c r="H142" s="125"/>
-      <c r="I142" s="122"/>
-      <c r="J142" s="122"/>
-      <c r="K142" s="123"/>
+      <c r="B142" s="123"/>
+      <c r="C142" s="121"/>
+      <c r="D142" s="121"/>
+      <c r="E142" s="121"/>
+      <c r="F142" s="121"/>
+      <c r="G142" s="121"/>
+      <c r="H142" s="124"/>
+      <c r="I142" s="121"/>
+      <c r="J142" s="121"/>
+      <c r="K142" s="122"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="124"/>
-      <c r="C143" s="122"/>
-      <c r="D143" s="122"/>
-      <c r="E143" s="122"/>
-      <c r="F143" s="122"/>
-      <c r="G143" s="122"/>
-      <c r="H143" s="125"/>
-      <c r="I143" s="122"/>
-      <c r="J143" s="122"/>
-      <c r="K143" s="123"/>
+      <c r="B143" s="123"/>
+      <c r="C143" s="121"/>
+      <c r="D143" s="121"/>
+      <c r="E143" s="121"/>
+      <c r="F143" s="121"/>
+      <c r="G143" s="121"/>
+      <c r="H143" s="124"/>
+      <c r="I143" s="121"/>
+      <c r="J143" s="121"/>
+      <c r="K143" s="122"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="124"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="122"/>
-      <c r="E144" s="122"/>
-      <c r="F144" s="122"/>
-      <c r="G144" s="122"/>
-      <c r="H144" s="125"/>
-      <c r="I144" s="122"/>
-      <c r="J144" s="122"/>
-      <c r="K144" s="123"/>
+      <c r="B144" s="123"/>
+      <c r="C144" s="121"/>
+      <c r="D144" s="121"/>
+      <c r="E144" s="121"/>
+      <c r="F144" s="121"/>
+      <c r="G144" s="121"/>
+      <c r="H144" s="124"/>
+      <c r="I144" s="121"/>
+      <c r="J144" s="121"/>
+      <c r="K144" s="122"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="124"/>
-      <c r="C145" s="122"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="122"/>
-      <c r="G145" s="122"/>
-      <c r="H145" s="125"/>
-      <c r="I145" s="122"/>
-      <c r="J145" s="122"/>
-      <c r="K145" s="123"/>
+      <c r="B145" s="123"/>
+      <c r="C145" s="121"/>
+      <c r="D145" s="121"/>
+      <c r="E145" s="121"/>
+      <c r="F145" s="121"/>
+      <c r="G145" s="121"/>
+      <c r="H145" s="124"/>
+      <c r="I145" s="121"/>
+      <c r="J145" s="121"/>
+      <c r="K145" s="122"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="124"/>
-      <c r="C146" s="122"/>
-      <c r="D146" s="122"/>
-      <c r="E146" s="122"/>
-      <c r="F146" s="122"/>
-      <c r="G146" s="122"/>
-      <c r="H146" s="125"/>
-      <c r="I146" s="122"/>
-      <c r="J146" s="122"/>
-      <c r="K146" s="123"/>
+      <c r="B146" s="123"/>
+      <c r="C146" s="121"/>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
+      <c r="G146" s="121"/>
+      <c r="H146" s="124"/>
+      <c r="I146" s="121"/>
+      <c r="J146" s="121"/>
+      <c r="K146" s="122"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="124"/>
-      <c r="C147" s="122"/>
-      <c r="D147" s="122"/>
-      <c r="E147" s="122"/>
-      <c r="F147" s="122"/>
-      <c r="G147" s="122"/>
-      <c r="H147" s="125"/>
-      <c r="I147" s="122"/>
-      <c r="J147" s="122"/>
-      <c r="K147" s="123"/>
+      <c r="B147" s="123"/>
+      <c r="C147" s="121"/>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
+      <c r="G147" s="121"/>
+      <c r="H147" s="124"/>
+      <c r="I147" s="121"/>
+      <c r="J147" s="121"/>
+      <c r="K147" s="122"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="124"/>
-      <c r="C148" s="122"/>
-      <c r="D148" s="122"/>
-      <c r="E148" s="122"/>
-      <c r="F148" s="122"/>
-      <c r="G148" s="122"/>
-      <c r="H148" s="125"/>
-      <c r="I148" s="122"/>
-      <c r="J148" s="122"/>
-      <c r="K148" s="123"/>
+      <c r="B148" s="123"/>
+      <c r="C148" s="121"/>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
+      <c r="G148" s="121"/>
+      <c r="H148" s="124"/>
+      <c r="I148" s="121"/>
+      <c r="J148" s="121"/>
+      <c r="K148" s="122"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="124"/>
-      <c r="C149" s="122"/>
-      <c r="D149" s="122"/>
-      <c r="E149" s="122"/>
-      <c r="F149" s="122"/>
-      <c r="G149" s="122"/>
-      <c r="H149" s="125"/>
-      <c r="I149" s="122"/>
-      <c r="J149" s="122"/>
-      <c r="K149" s="123"/>
+      <c r="B149" s="123"/>
+      <c r="C149" s="121"/>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
+      <c r="G149" s="121"/>
+      <c r="H149" s="124"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="121"/>
+      <c r="K149" s="122"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="124"/>
-      <c r="C150" s="122"/>
-      <c r="D150" s="122"/>
-      <c r="E150" s="122"/>
-      <c r="F150" s="122"/>
-      <c r="G150" s="122"/>
-      <c r="H150" s="125"/>
-      <c r="I150" s="122"/>
-      <c r="J150" s="122"/>
-      <c r="K150" s="123"/>
+      <c r="B150" s="123"/>
+      <c r="C150" s="121"/>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
+      <c r="G150" s="121"/>
+      <c r="H150" s="124"/>
+      <c r="I150" s="121"/>
+      <c r="J150" s="121"/>
+      <c r="K150" s="122"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="124"/>
-      <c r="C151" s="122"/>
-      <c r="D151" s="122"/>
-      <c r="E151" s="122"/>
-      <c r="F151" s="122"/>
-      <c r="G151" s="122"/>
-      <c r="H151" s="125"/>
-      <c r="I151" s="122"/>
-      <c r="J151" s="122"/>
-      <c r="K151" s="123"/>
+      <c r="B151" s="123"/>
+      <c r="C151" s="121"/>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
+      <c r="G151" s="121"/>
+      <c r="H151" s="124"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="121"/>
+      <c r="K151" s="122"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="124"/>
-      <c r="C152" s="122"/>
-      <c r="D152" s="122"/>
-      <c r="E152" s="122"/>
-      <c r="F152" s="122"/>
-      <c r="G152" s="122"/>
-      <c r="H152" s="125"/>
-      <c r="I152" s="122"/>
-      <c r="J152" s="122"/>
-      <c r="K152" s="123"/>
+      <c r="B152" s="123"/>
+      <c r="C152" s="121"/>
+      <c r="D152" s="121"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="121"/>
+      <c r="G152" s="121"/>
+      <c r="H152" s="124"/>
+      <c r="I152" s="121"/>
+      <c r="J152" s="121"/>
+      <c r="K152" s="122"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="124"/>
-      <c r="C153" s="122"/>
-      <c r="D153" s="122"/>
-      <c r="E153" s="122"/>
-      <c r="F153" s="122"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="125"/>
-      <c r="I153" s="122"/>
-      <c r="J153" s="122"/>
-      <c r="K153" s="123"/>
+      <c r="B153" s="123"/>
+      <c r="C153" s="121"/>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+      <c r="G153" s="121"/>
+      <c r="H153" s="124"/>
+      <c r="I153" s="121"/>
+      <c r="J153" s="121"/>
+      <c r="K153" s="122"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="124"/>
-      <c r="C154" s="122"/>
-      <c r="D154" s="122"/>
-      <c r="E154" s="122"/>
-      <c r="F154" s="122"/>
-      <c r="G154" s="122"/>
-      <c r="H154" s="125"/>
-      <c r="I154" s="122"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="123"/>
+      <c r="B154" s="123"/>
+      <c r="C154" s="121"/>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+      <c r="G154" s="121"/>
+      <c r="H154" s="124"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="121"/>
+      <c r="K154" s="122"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="124"/>
-      <c r="C155" s="122"/>
-      <c r="D155" s="122"/>
-      <c r="E155" s="122"/>
-      <c r="F155" s="122"/>
-      <c r="G155" s="122"/>
-      <c r="H155" s="125"/>
-      <c r="I155" s="122"/>
-      <c r="J155" s="122"/>
-      <c r="K155" s="123"/>
+      <c r="B155" s="123"/>
+      <c r="C155" s="121"/>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+      <c r="G155" s="121"/>
+      <c r="H155" s="124"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="121"/>
+      <c r="K155" s="122"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="124"/>
-      <c r="C156" s="122"/>
-      <c r="D156" s="122"/>
-      <c r="E156" s="122"/>
-      <c r="F156" s="122"/>
-      <c r="G156" s="122"/>
-      <c r="H156" s="125"/>
-      <c r="I156" s="122"/>
-      <c r="J156" s="122"/>
-      <c r="K156" s="123"/>
+      <c r="B156" s="123"/>
+      <c r="C156" s="121"/>
+      <c r="D156" s="121"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="121"/>
+      <c r="G156" s="121"/>
+      <c r="H156" s="124"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="121"/>
+      <c r="K156" s="122"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="124"/>
-      <c r="C157" s="122"/>
-      <c r="D157" s="122"/>
-      <c r="E157" s="122"/>
-      <c r="F157" s="122"/>
-      <c r="G157" s="122"/>
-      <c r="H157" s="125"/>
-      <c r="I157" s="122"/>
-      <c r="J157" s="122"/>
-      <c r="K157" s="123"/>
+      <c r="B157" s="123"/>
+      <c r="C157" s="121"/>
+      <c r="D157" s="121"/>
+      <c r="E157" s="121"/>
+      <c r="F157" s="121"/>
+      <c r="G157" s="121"/>
+      <c r="H157" s="124"/>
+      <c r="I157" s="121"/>
+      <c r="J157" s="121"/>
+      <c r="K157" s="122"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="124"/>
-      <c r="C158" s="122"/>
-      <c r="D158" s="122"/>
-      <c r="E158" s="122"/>
-      <c r="F158" s="122"/>
-      <c r="G158" s="122"/>
-      <c r="H158" s="125"/>
-      <c r="I158" s="122"/>
-      <c r="J158" s="122"/>
-      <c r="K158" s="123"/>
+      <c r="B158" s="123"/>
+      <c r="C158" s="121"/>
+      <c r="D158" s="121"/>
+      <c r="E158" s="121"/>
+      <c r="F158" s="121"/>
+      <c r="G158" s="121"/>
+      <c r="H158" s="124"/>
+      <c r="I158" s="121"/>
+      <c r="J158" s="121"/>
+      <c r="K158" s="122"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="124"/>
-      <c r="C159" s="122"/>
-      <c r="D159" s="122"/>
-      <c r="E159" s="122"/>
-      <c r="F159" s="122"/>
-      <c r="G159" s="122"/>
-      <c r="H159" s="125"/>
-      <c r="I159" s="122"/>
-      <c r="J159" s="122"/>
-      <c r="K159" s="123"/>
+      <c r="B159" s="123"/>
+      <c r="C159" s="121"/>
+      <c r="D159" s="121"/>
+      <c r="E159" s="121"/>
+      <c r="F159" s="121"/>
+      <c r="G159" s="121"/>
+      <c r="H159" s="124"/>
+      <c r="I159" s="121"/>
+      <c r="J159" s="121"/>
+      <c r="K159" s="122"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="124"/>
-      <c r="C160" s="122"/>
-      <c r="D160" s="122"/>
-      <c r="E160" s="122"/>
-      <c r="F160" s="122"/>
-      <c r="G160" s="122"/>
-      <c r="H160" s="125"/>
-      <c r="I160" s="122"/>
-      <c r="J160" s="122"/>
-      <c r="K160" s="123"/>
+      <c r="B160" s="123"/>
+      <c r="C160" s="121"/>
+      <c r="D160" s="121"/>
+      <c r="E160" s="121"/>
+      <c r="F160" s="121"/>
+      <c r="G160" s="121"/>
+      <c r="H160" s="124"/>
+      <c r="I160" s="121"/>
+      <c r="J160" s="121"/>
+      <c r="K160" s="122"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="124"/>
-      <c r="C161" s="122"/>
-      <c r="D161" s="122"/>
-      <c r="E161" s="122"/>
-      <c r="F161" s="122"/>
-      <c r="G161" s="122"/>
-      <c r="H161" s="125"/>
-      <c r="I161" s="122"/>
-      <c r="J161" s="122"/>
-      <c r="K161" s="123"/>
+      <c r="B161" s="123"/>
+      <c r="C161" s="121"/>
+      <c r="D161" s="121"/>
+      <c r="E161" s="121"/>
+      <c r="F161" s="121"/>
+      <c r="G161" s="121"/>
+      <c r="H161" s="124"/>
+      <c r="I161" s="121"/>
+      <c r="J161" s="121"/>
+      <c r="K161" s="122"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="124"/>
-      <c r="C162" s="122"/>
-      <c r="D162" s="122"/>
-      <c r="E162" s="122"/>
-      <c r="F162" s="122"/>
-      <c r="G162" s="122"/>
-      <c r="H162" s="125"/>
-      <c r="I162" s="122"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="123"/>
+      <c r="B162" s="123"/>
+      <c r="C162" s="121"/>
+      <c r="D162" s="121"/>
+      <c r="E162" s="121"/>
+      <c r="F162" s="121"/>
+      <c r="G162" s="121"/>
+      <c r="H162" s="124"/>
+      <c r="I162" s="121"/>
+      <c r="J162" s="121"/>
+      <c r="K162" s="122"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="124"/>
-      <c r="C163" s="122"/>
-      <c r="D163" s="122"/>
-      <c r="E163" s="122"/>
-      <c r="F163" s="122"/>
-      <c r="G163" s="122"/>
-      <c r="H163" s="125"/>
-      <c r="I163" s="122"/>
-      <c r="J163" s="122"/>
-      <c r="K163" s="123"/>
+      <c r="B163" s="123"/>
+      <c r="C163" s="121"/>
+      <c r="D163" s="121"/>
+      <c r="E163" s="121"/>
+      <c r="F163" s="121"/>
+      <c r="G163" s="121"/>
+      <c r="H163" s="124"/>
+      <c r="I163" s="121"/>
+      <c r="J163" s="121"/>
+      <c r="K163" s="122"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="124"/>
-      <c r="C164" s="122"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="122"/>
-      <c r="G164" s="122"/>
-      <c r="H164" s="125"/>
-      <c r="I164" s="122"/>
-      <c r="J164" s="122"/>
-      <c r="K164" s="123"/>
+      <c r="B164" s="123"/>
+      <c r="C164" s="121"/>
+      <c r="D164" s="121"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="G164" s="121"/>
+      <c r="H164" s="124"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="121"/>
+      <c r="K164" s="122"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="124"/>
-      <c r="C165" s="122"/>
-      <c r="D165" s="122"/>
-      <c r="E165" s="122"/>
-      <c r="F165" s="122"/>
-      <c r="G165" s="122"/>
-      <c r="H165" s="125"/>
-      <c r="I165" s="122"/>
-      <c r="J165" s="122"/>
-      <c r="K165" s="123"/>
+      <c r="B165" s="123"/>
+      <c r="C165" s="121"/>
+      <c r="D165" s="121"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="121"/>
+      <c r="G165" s="121"/>
+      <c r="H165" s="124"/>
+      <c r="I165" s="121"/>
+      <c r="J165" s="121"/>
+      <c r="K165" s="122"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="124"/>
-      <c r="C166" s="122"/>
-      <c r="D166" s="122"/>
-      <c r="E166" s="122"/>
-      <c r="F166" s="122"/>
-      <c r="G166" s="122"/>
-      <c r="H166" s="125"/>
-      <c r="I166" s="122"/>
-      <c r="J166" s="122"/>
-      <c r="K166" s="123"/>
+      <c r="B166" s="123"/>
+      <c r="C166" s="121"/>
+      <c r="D166" s="121"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
+      <c r="G166" s="121"/>
+      <c r="H166" s="124"/>
+      <c r="I166" s="121"/>
+      <c r="J166" s="121"/>
+      <c r="K166" s="122"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D85A5C52-BB57-8E4C-B7F2-9DADCED80327}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D0E3E-EEFE-4A46-9B31-B6D4DEDEFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1140" windowWidth="30240" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="27660" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
   <si>
     <t>Source</t>
   </si>
@@ -83,9 +83,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>households_supplied_per_unit</t>
-  </si>
-  <si>
     <t>yes=1, no=0</t>
   </si>
   <si>
@@ -137,25 +134,13 @@
     <t>free_co2_factor</t>
   </si>
   <si>
-    <t>forecasting_error</t>
-  </si>
-  <si>
     <t>land_use_per_unit</t>
   </si>
   <si>
     <t>takes_part_in_ets</t>
   </si>
   <si>
-    <t>part_load_efficiency_penalty</t>
-  </si>
-  <si>
-    <t>part_load_operating_point</t>
-  </si>
-  <si>
     <t>electricity_output_capacity</t>
-  </si>
-  <si>
-    <t>heat_output_capacity</t>
   </si>
   <si>
     <t>initial_investment</t>
@@ -392,6 +377,15 @@
   <si>
     <t>Based on this it is assumed that both input and output are equal to 1400 MW.</t>
   </si>
+  <si>
+    <t>euro/MWh</t>
+  </si>
+  <si>
+    <t>max_consumption_price</t>
+  </si>
+  <si>
+    <t>marginal_costs</t>
+  </si>
 </sst>
 </file>
 
@@ -402,12 +396,19 @@
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -910,586 +911,586 @@
   </borders>
   <cellStyleXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="17" fontId="22" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="274">
@@ -2240,7 +2241,7 @@
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
       <c r="B2" s="19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="19"/>
     </row>
@@ -2252,28 +2253,28 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="139" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2289,7 +2290,7 @@
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
       <c r="B9" s="49" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C9" s="50"/>
       <c r="D9" s="66"/>
@@ -2303,10 +2304,10 @@
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
       <c r="B11" s="51" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C11" s="53" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D11" s="67"/>
     </row>
@@ -2314,7 +2315,7 @@
       <c r="A12" s="1"/>
       <c r="B12" s="51"/>
       <c r="C12" s="12" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D12" s="67"/>
     </row>
@@ -2322,7 +2323,7 @@
       <c r="A13" s="1"/>
       <c r="B13" s="51"/>
       <c r="C13" s="54" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="67"/>
     </row>
@@ -2330,7 +2331,7 @@
       <c r="A14" s="1"/>
       <c r="B14" s="51"/>
       <c r="C14" s="52" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D14" s="67"/>
     </row>
@@ -2343,10 +2344,10 @@
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
       <c r="B16" s="51" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C16" s="55" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D16" s="67"/>
     </row>
@@ -2354,7 +2355,7 @@
       <c r="A17" s="1"/>
       <c r="B17" s="51"/>
       <c r="C17" s="56" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D17" s="67"/>
     </row>
@@ -2362,7 +2363,7 @@
       <c r="A18" s="1"/>
       <c r="B18" s="51"/>
       <c r="C18" s="57" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D18" s="67"/>
     </row>
@@ -2370,7 +2371,7 @@
       <c r="A19" s="1"/>
       <c r="B19" s="51"/>
       <c r="C19" s="58" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D19" s="67"/>
     </row>
@@ -2378,7 +2379,7 @@
       <c r="A20" s="1"/>
       <c r="B20" s="59"/>
       <c r="C20" s="60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D20" s="67"/>
     </row>
@@ -2386,7 +2387,7 @@
       <c r="A21" s="1"/>
       <c r="B21" s="59"/>
       <c r="C21" s="61" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D21" s="67"/>
     </row>
@@ -2394,14 +2395,14 @@
       <c r="A22" s="1"/>
       <c r="B22" s="59"/>
       <c r="C22" s="62" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D22" s="67"/>
     </row>
     <row r="23" spans="1:4">
       <c r="B23" s="59"/>
       <c r="C23" s="63" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D23" s="67"/>
     </row>
@@ -2421,10 +2422,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K39"/>
+  <dimension ref="B1:K36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
@@ -2449,28 +2450,28 @@
       <c r="G1" s="79"/>
     </row>
     <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="150" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="151"/>
-      <c r="D2" s="151"/>
-      <c r="E2" s="152"/>
+      <c r="B2" s="155" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="157"/>
       <c r="F2" s="79"/>
       <c r="G2" s="79"/>
     </row>
     <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="153"/>
-      <c r="C3" s="154"/>
-      <c r="D3" s="154"/>
-      <c r="E3" s="155"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="160"/>
       <c r="F3" s="79"/>
       <c r="G3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="156"/>
-      <c r="C4" s="157"/>
-      <c r="D4" s="157"/>
-      <c r="E4" s="158"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="162"/>
+      <c r="D4" s="162"/>
+      <c r="E4" s="163"/>
       <c r="F4" s="79"/>
       <c r="G4" s="79"/>
     </row>
@@ -2491,17 +2492,17 @@
     <row r="7" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1">
       <c r="B7" s="83"/>
       <c r="C7" s="84" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="85" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="84" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="84"/>
       <c r="G7" s="84" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H7" s="84"/>
       <c r="I7" s="84" t="s">
@@ -2523,7 +2524,7 @@
     <row r="9" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B9" s="88"/>
       <c r="C9" s="89" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="D9" s="90"/>
       <c r="E9" s="89"/>
@@ -2536,10 +2537,10 @@
     <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B10" s="88"/>
       <c r="C10" s="101" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E10" s="130">
         <f>'Research data'!G6</f>
@@ -2548,17 +2549,17 @@
       <c r="F10" s="103"/>
       <c r="G10" s="104"/>
       <c r="I10" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J10" s="91"/>
     </row>
     <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B11" s="88"/>
       <c r="C11" s="101" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E11" s="130">
         <f>'Research data'!G7</f>
@@ -2567,14 +2568,14 @@
       <c r="F11" s="103"/>
       <c r="G11" s="104"/>
       <c r="I11" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J11" s="91"/>
     </row>
     <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B12" s="88"/>
       <c r="C12" s="133" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D12" s="105" t="s">
         <v>4</v>
@@ -2584,21 +2585,21 @@
         <v>0.8</v>
       </c>
       <c r="F12" s="103"/>
-      <c r="G12" s="159" t="s">
-        <v>97</v>
+      <c r="G12" s="150" t="s">
+        <v>92</v>
       </c>
       <c r="I12" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J12" s="91"/>
     </row>
     <row r="13" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B13" s="88"/>
       <c r="C13" s="101" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E13" s="130">
         <f>'Research data'!G10</f>
@@ -2607,17 +2608,17 @@
       <c r="F13" s="103"/>
       <c r="G13" s="104"/>
       <c r="I13" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J13" s="91"/>
     </row>
     <row r="14" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
       <c r="B14" s="88"/>
-      <c r="C14" s="159" t="s">
-        <v>98</v>
+      <c r="C14" s="150" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E14" s="130">
         <f>'Research data'!G9</f>
@@ -2625,15 +2626,15 @@
       </c>
       <c r="F14" s="103"/>
       <c r="G14" s="104"/>
-      <c r="I14" s="163" t="s">
-        <v>103</v>
+      <c r="I14" s="154" t="s">
+        <v>98</v>
       </c>
       <c r="J14" s="91"/>
     </row>
     <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B15" s="92"/>
       <c r="C15" s="103" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="105" t="s">
         <v>4</v>
@@ -2645,15 +2646,15 @@
       <c r="F15" s="103"/>
       <c r="G15" s="103"/>
       <c r="I15" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J15" s="93"/>
       <c r="K15" s="79"/>
     </row>
     <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
       <c r="B16" s="92"/>
-      <c r="C16" s="103" t="s">
-        <v>25</v>
+      <c r="C16" s="107" t="s">
+        <v>62</v>
       </c>
       <c r="D16" s="105" t="s">
         <v>4</v>
@@ -2664,75 +2665,59 @@
       <c r="F16" s="103"/>
       <c r="G16" s="103"/>
       <c r="I16" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J16" s="93"/>
       <c r="K16" s="79"/>
     </row>
-    <row r="17" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="17" spans="2:10" ht="16" customHeight="1">
       <c r="B17" s="92"/>
-      <c r="C17" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="106">
-        <v>0</v>
-      </c>
-      <c r="F17" s="103"/>
-      <c r="G17" s="103"/>
-      <c r="I17" s="137" t="s">
-        <v>81</v>
-      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="96"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="I17" s="79"/>
       <c r="J17" s="93"/>
-      <c r="K17" s="79"/>
-    </row>
-    <row r="18" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B18" s="92"/>
-      <c r="C18" s="103" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" s="106">
-        <v>0</v>
-      </c>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="I18" s="137" t="s">
-        <v>81</v>
-      </c>
+      <c r="C18" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" s="95"/>
+      <c r="E18" s="96"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+      <c r="I18" s="79"/>
       <c r="J18" s="93"/>
-      <c r="K18" s="79"/>
-    </row>
-    <row r="19" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B19" s="92"/>
       <c r="C19" s="103" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="105" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E19" s="106">
-        <v>0</v>
+        <f>'Research data'!G14</f>
+        <v>1785000000</v>
       </c>
       <c r="F19" s="103"/>
       <c r="G19" s="103"/>
       <c r="I19" s="137" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="J19" s="93"/>
-      <c r="K19" s="79"/>
-    </row>
-    <row r="20" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B20" s="92"/>
       <c r="C20" s="103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" s="105" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="E20" s="106">
         <v>0</v>
@@ -2740,18 +2725,17 @@
       <c r="F20" s="103"/>
       <c r="G20" s="103"/>
       <c r="I20" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J20" s="93"/>
-      <c r="K20" s="79"/>
-    </row>
-    <row r="21" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B21" s="92"/>
       <c r="C21" s="103" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="D21" s="105" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="E21" s="106">
         <v>0</v>
@@ -2759,94 +2743,108 @@
       <c r="F21" s="103"/>
       <c r="G21" s="103"/>
       <c r="I21" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J21" s="93"/>
     </row>
-    <row r="22" spans="2:11" ht="16" customHeight="1">
+    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B22" s="92"/>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="79"/>
-      <c r="I22" s="79"/>
+      <c r="C22" s="103" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="106">
+        <v>0</v>
+      </c>
+      <c r="F22" s="103"/>
+      <c r="G22" s="103"/>
+      <c r="I22" s="137" t="s">
+        <v>76</v>
+      </c>
       <c r="J22" s="93"/>
     </row>
-    <row r="23" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B23" s="92"/>
-      <c r="C23" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="95"/>
-      <c r="E23" s="96"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="79"/>
-      <c r="I23" s="79"/>
+      <c r="C23" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="105" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="108">
+        <f>'Research data'!G15</f>
+        <v>19800000</v>
+      </c>
+      <c r="F23" s="103"/>
+      <c r="G23" s="103"/>
+      <c r="I23" s="137" t="s">
+        <v>84</v>
+      </c>
       <c r="J23" s="93"/>
     </row>
-    <row r="24" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B24" s="92"/>
       <c r="C24" s="103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="106">
-        <f>'Research data'!G14</f>
-        <v>1785000000</v>
+        <v>36</v>
+      </c>
+      <c r="E24" s="102">
+        <v>0</v>
       </c>
       <c r="F24" s="103"/>
       <c r="G24" s="103"/>
       <c r="I24" s="137" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="J24" s="93"/>
     </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B25" s="92"/>
       <c r="C25" s="103" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="106">
+        <v>36</v>
+      </c>
+      <c r="E25" s="109">
         <v>0</v>
       </c>
       <c r="F25" s="103"/>
       <c r="G25" s="103"/>
       <c r="I25" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J25" s="93"/>
     </row>
-    <row r="26" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B26" s="92"/>
       <c r="C26" s="103" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D26" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="E26" s="106">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="E26" s="102">
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F26" s="103"/>
       <c r="G26" s="103"/>
-      <c r="I26" s="137" t="s">
-        <v>81</v>
+      <c r="I26" s="149" t="s">
+        <v>91</v>
       </c>
       <c r="J26" s="93"/>
     </row>
-    <row r="27" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B27" s="92"/>
       <c r="C27" s="103" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D27" s="105" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E27" s="106">
         <v>0</v>
@@ -2854,90 +2852,76 @@
       <c r="F27" s="103"/>
       <c r="G27" s="103"/>
       <c r="I27" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J27" s="93"/>
     </row>
-    <row r="28" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B28" s="92"/>
       <c r="C28" s="103" t="s">
-        <v>35</v>
+        <v>102</v>
       </c>
       <c r="D28" s="105" t="s">
-        <v>42</v>
-      </c>
-      <c r="E28" s="108">
-        <f>'Research data'!G15</f>
-        <v>19800000</v>
+        <v>101</v>
+      </c>
+      <c r="E28" s="106">
+        <v>4.3</v>
       </c>
       <c r="F28" s="103"/>
       <c r="G28" s="103"/>
       <c r="I28" s="137" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J28" s="93"/>
     </row>
-    <row r="29" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B29" s="92"/>
       <c r="C29" s="103" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="D29" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="102">
-        <v>0</v>
+        <v>101</v>
+      </c>
+      <c r="E29" s="106">
+        <f>E28/E12</f>
+        <v>5.3749999999999991</v>
       </c>
       <c r="F29" s="103"/>
       <c r="G29" s="103"/>
       <c r="I29" s="137" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="J29" s="93"/>
     </row>
-    <row r="30" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="30" spans="2:10" ht="16" customHeight="1">
       <c r="B30" s="92"/>
-      <c r="C30" s="103" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="105" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="109">
-        <v>0</v>
-      </c>
-      <c r="F30" s="103"/>
-      <c r="G30" s="103"/>
-      <c r="I30" s="137" t="s">
-        <v>81</v>
-      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="95"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="79"/>
+      <c r="I30" s="79"/>
       <c r="J30" s="93"/>
     </row>
-    <row r="31" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B31" s="92"/>
-      <c r="C31" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="D31" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E31" s="102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F31" s="103"/>
-      <c r="G31" s="103"/>
-      <c r="I31" s="149" t="s">
-        <v>96</v>
-      </c>
+      <c r="C31" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="95"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="79"/>
+      <c r="I31" s="79"/>
       <c r="J31" s="93"/>
     </row>
-    <row r="32" spans="2:11" ht="16" customHeight="1" thickBot="1">
+    <row r="32" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B32" s="92"/>
       <c r="C32" s="103" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D32" s="105" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E32" s="106">
         <v>0</v>
@@ -2945,39 +2929,55 @@
       <c r="F32" s="103"/>
       <c r="G32" s="103"/>
       <c r="I32" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J32" s="93"/>
     </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1">
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B33" s="92"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="95"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="79"/>
-      <c r="I33" s="79"/>
+      <c r="C33" s="103" t="s">
+        <v>33</v>
+      </c>
+      <c r="D33" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="108">
+        <f>'Research data'!G18</f>
+        <v>5</v>
+      </c>
+      <c r="F33" s="103"/>
+      <c r="G33" s="103"/>
+      <c r="I33" s="137" t="s">
+        <v>84</v>
+      </c>
       <c r="J33" s="93"/>
     </row>
     <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B34" s="92"/>
-      <c r="C34" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="95"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="79"/>
-      <c r="I34" s="79"/>
+      <c r="C34" s="103" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="106">
+        <f>'Research data'!G19</f>
+        <v>50</v>
+      </c>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="I34" s="137" t="s">
+        <v>84</v>
+      </c>
       <c r="J34" s="93"/>
     </row>
     <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
       <c r="B35" s="92"/>
       <c r="C35" s="103" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D35" s="105" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="106">
         <v>0</v>
@@ -2985,76 +2985,20 @@
       <c r="F35" s="103"/>
       <c r="G35" s="103"/>
       <c r="I35" s="137" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="J35" s="93"/>
     </row>
     <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="92"/>
-      <c r="C36" s="103" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E36" s="108">
-        <f>'Research data'!G18</f>
-        <v>5</v>
-      </c>
-      <c r="F36" s="103"/>
-      <c r="G36" s="103"/>
-      <c r="I36" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="93"/>
-    </row>
-    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B37" s="92"/>
-      <c r="C37" s="103" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E37" s="106">
-        <f>'Research data'!G19</f>
-        <v>50</v>
-      </c>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="I37" s="137" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="93"/>
-    </row>
-    <row r="38" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B38" s="92"/>
-      <c r="C38" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="106">
-        <v>0</v>
-      </c>
-      <c r="F38" s="103"/>
-      <c r="G38" s="103"/>
-      <c r="I38" s="137" t="s">
-        <v>81</v>
-      </c>
-      <c r="J38" s="93"/>
-    </row>
-    <row r="39" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B39" s="98"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
-      <c r="E39" s="99"/>
-      <c r="F39" s="99"/>
-      <c r="G39" s="99"/>
-      <c r="H39" s="99"/>
-      <c r="I39" s="99"/>
-      <c r="J39" s="100"/>
+      <c r="B36" s="98"/>
+      <c r="C36" s="99"/>
+      <c r="D36" s="99"/>
+      <c r="E36" s="99"/>
+      <c r="F36" s="99"/>
+      <c r="G36" s="99"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="99"/>
+      <c r="J36" s="100"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3109,21 +3053,21 @@
     <row r="3" spans="2:12" s="15" customFormat="1">
       <c r="B3" s="14"/>
       <c r="C3" s="65" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="65" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G3" s="65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="H3" s="65"/>
       <c r="I3" s="65"/>
       <c r="J3" s="35"/>
       <c r="K3" s="65" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L3" s="72"/>
     </row>
@@ -3143,7 +3087,7 @@
     <row r="5" spans="2:12" ht="17" thickBot="1">
       <c r="B5" s="41"/>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
@@ -3158,12 +3102,12 @@
     <row r="6" spans="2:12" ht="17" thickBot="1">
       <c r="B6" s="41"/>
       <c r="C6" s="128" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D6" s="44"/>
       <c r="E6" s="44"/>
       <c r="F6" s="129" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G6" s="146">
         <v>8400</v>
@@ -3172,19 +3116,19 @@
       <c r="I6" s="45"/>
       <c r="J6" s="43"/>
       <c r="K6" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L6" s="73"/>
     </row>
     <row r="7" spans="2:12" ht="17" thickBot="1">
       <c r="B7" s="41"/>
       <c r="C7" s="128" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D7" s="44"/>
       <c r="E7" s="44"/>
       <c r="F7" s="129" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="146">
         <v>0</v>
@@ -3193,14 +3137,14 @@
       <c r="I7" s="45"/>
       <c r="J7" s="43"/>
       <c r="K7" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L7" s="73"/>
     </row>
     <row r="8" spans="2:12" ht="17" thickBot="1">
       <c r="B8" s="41"/>
       <c r="C8" s="142" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" s="44"/>
       <c r="E8" s="44"/>
@@ -3212,40 +3156,40 @@
       <c r="I8" s="45"/>
       <c r="J8" s="43"/>
       <c r="K8" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L8" s="73"/>
     </row>
     <row r="9" spans="2:12" ht="17" thickBot="1">
       <c r="B9" s="41"/>
       <c r="C9" s="128" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="44"/>
       <c r="F9" s="129" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="160">
+        <v>39</v>
+      </c>
+      <c r="G9" s="151">
         <v>1400</v>
       </c>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="43"/>
-      <c r="K9" s="161" t="s">
-        <v>103</v>
+      <c r="K9" s="152" t="s">
+        <v>98</v>
       </c>
       <c r="L9" s="73"/>
     </row>
     <row r="10" spans="2:12" ht="17" thickBot="1">
       <c r="B10" s="41"/>
       <c r="C10" s="128" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="44"/>
       <c r="F10" s="129" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" s="146">
         <v>1400</v>
@@ -3254,14 +3198,14 @@
       <c r="I10" s="45"/>
       <c r="J10" s="43"/>
       <c r="K10" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L10" s="73"/>
     </row>
     <row r="11" spans="2:12" ht="17" thickBot="1">
       <c r="B11" s="41"/>
       <c r="C11" s="128" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -3275,7 +3219,7 @@
       <c r="I11" s="45"/>
       <c r="J11" s="43"/>
       <c r="K11" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L11" s="73"/>
     </row>
@@ -3295,7 +3239,7 @@
     <row r="13" spans="2:12" ht="17" thickBot="1">
       <c r="B13" s="41"/>
       <c r="C13" s="11" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11"/>
@@ -3310,12 +3254,12 @@
     <row r="14" spans="2:12" ht="17" thickBot="1">
       <c r="B14" s="41"/>
       <c r="C14" s="128" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
       <c r="F14" s="129" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G14" s="146">
         <v>1785000000</v>
@@ -3324,19 +3268,19 @@
       <c r="I14" s="45"/>
       <c r="J14" s="43"/>
       <c r="K14" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L14" s="73"/>
     </row>
     <row r="15" spans="2:12" ht="17" thickBot="1">
       <c r="B15" s="41"/>
       <c r="C15" s="142" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
       <c r="F15" s="143" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="G15" s="146">
         <v>19800000</v>
@@ -3345,7 +3289,7 @@
       <c r="I15" s="45"/>
       <c r="J15" s="43"/>
       <c r="K15" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L15" s="73"/>
     </row>
@@ -3380,7 +3324,7 @@
     <row r="18" spans="2:12" ht="17" thickBot="1">
       <c r="B18" s="41"/>
       <c r="C18" s="128" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D18" s="44" t="s">
         <v>3</v>
@@ -3389,7 +3333,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="143" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G18" s="146">
         <v>5</v>
@@ -3398,14 +3342,14 @@
       <c r="I18" s="45"/>
       <c r="J18" s="43"/>
       <c r="K18" s="141" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="L18" s="73"/>
     </row>
     <row r="19" spans="2:12" ht="17" thickBot="1">
       <c r="B19" s="41"/>
       <c r="C19" s="142" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D19" s="44" t="s">
         <v>1</v>
@@ -3414,7 +3358,7 @@
         <v>5</v>
       </c>
       <c r="F19" s="143" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G19" s="146">
         <v>50</v>
@@ -3423,7 +3367,7 @@
       <c r="I19" s="45"/>
       <c r="J19" s="43"/>
       <c r="K19" s="141" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L19" s="73"/>
     </row>
@@ -3487,7 +3431,7 @@
     <row r="3" spans="2:11">
       <c r="B3" s="27"/>
       <c r="C3" s="28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" s="28"/>
       <c r="E3" s="28"/>
@@ -3513,29 +3457,29 @@
     <row r="5" spans="2:11">
       <c r="B5" s="32"/>
       <c r="C5" s="33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="33" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G5" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="33" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="I5" s="33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="J5" s="34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K5" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3546,13 +3490,13 @@
     </row>
     <row r="8" spans="2:11">
       <c r="C8" s="138" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="F8" s="138" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G8" s="140">
         <v>43344</v>
@@ -3564,23 +3508,23 @@
         <v>43709</v>
       </c>
       <c r="J8" s="23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="C9" s="22" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="C10" s="22" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G10" s="127">
         <v>43336</v>
@@ -3592,7 +3536,7 @@
         <v>44144</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3646,20 +3590,20 @@
         <v>0</v>
       </c>
       <c r="D4" s="117" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E4" s="117" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G4" s="117"/>
       <c r="H4" s="118"/>
       <c r="I4" s="117"/>
       <c r="J4" s="117"/>
       <c r="K4" s="119" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3676,26 +3620,26 @@
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="D6" s="162" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="162">
+      <c r="C6" s="153" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="153" t="s">
+        <v>73</v>
+      </c>
+      <c r="E6" s="153">
         <v>1400</v>
       </c>
-      <c r="F6" s="162" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="162" t="s">
-        <v>104</v>
+      <c r="F6" s="153" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="153" t="s">
+        <v>99</v>
       </c>
       <c r="H6" s="120"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
       <c r="K6" s="122" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3704,8 +3648,8 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="162" t="s">
-        <v>105</v>
+      <c r="G7" s="153" t="s">
+        <v>100</v>
       </c>
       <c r="H7" s="120"/>
       <c r="I7" s="12"/>

--- a/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_hv_opac_electricity.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10514"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Code/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mathijsbijkerk/Projects/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990D0E3E-EEFE-4A46-9B31-B6D4DEDEFA47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8734138-CF82-EB40-BF7A-9D8C8BE1B96E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="27660" windowHeight="16020" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8920" yWindow="-33340" windowWidth="30080" windowHeight="16100" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
   <si>
     <t>Source</t>
   </si>
@@ -71,9 +71,6 @@
     <t>%</t>
   </si>
   <si>
-    <t>km2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
   </si>
   <si>
     <t>free_co2_factor</t>
-  </si>
-  <si>
-    <t>land_use_per_unit</t>
   </si>
   <si>
     <t>takes_part_in_ets</t>
@@ -348,9 +342,6 @@
     <t>Marlieke Verweij</t>
   </si>
   <si>
-    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
-  </si>
-  <si>
     <t>This is considered to be the roundtrip efficiency.</t>
   </si>
   <si>
@@ -385,6 +376,36 @@
   </si>
   <si>
     <t>marginal_costs</t>
+  </si>
+  <si>
+    <t>Quintel assumption: https://docs.energytransitionmodel.com/main/cost-wacc</t>
+  </si>
+  <si>
+    <t>Quintel assumption: CCS not applicable for this plant</t>
+  </si>
+  <si>
+    <t>fixed_costs_per_mw_input_capacity</t>
+  </si>
+  <si>
+    <t>euro/MW</t>
+  </si>
+  <si>
+    <t>storage.cost_per_mwh</t>
+  </si>
+  <si>
+    <t>Fixed costs per input capacity</t>
+  </si>
+  <si>
+    <t>Fixed costs per storage volume</t>
+  </si>
+  <si>
+    <t>EUR/MW</t>
+  </si>
+  <si>
+    <t>EUR/MWh</t>
+  </si>
+  <si>
+    <t>Quintel assumption: costs only scale with volume</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1206,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="154">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1199,29 +1220,28 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1230,14 +1250,12 @@
     <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="23" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="24" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="24" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1246,44 +1264,40 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1301,9 +1315,6 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1316,9 +1327,6 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1331,10 +1339,7 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1346,16 +1351,16 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1367,31 +1372,31 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1404,30 +1409,26 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1435,33 +1436,30 @@
     <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1477,7 +1475,7 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1492,6 +1490,19 @@
     <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="274">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1783,7 +1794,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2224,26 +2235,26 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="20" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="48.7109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="2.140625" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="10.7109375" style="13"/>
+    <col min="1" max="1" width="3.5" style="19" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48.6640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="2.1640625" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="10.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="18" customFormat="1">
-      <c r="A1" s="16"/>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
+    <row r="1" spans="1:4" s="17" customFormat="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:4" ht="21">
       <c r="A2" s="1"/>
-      <c r="B2" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="19"/>
+      <c r="B2" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="18"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1"/>
@@ -2253,28 +2264,28 @@
     <row r="4" spans="1:4">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="139" t="s">
-        <v>89</v>
+        <v>12</v>
+      </c>
+      <c r="C4" s="127" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2289,127 +2300,127 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1"/>
-      <c r="B9" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="50"/>
-      <c r="D9" s="66"/>
+      <c r="B9" s="44" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="61"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="67"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="62"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1"/>
-      <c r="B11" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="67"/>
+      <c r="B11" s="46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:4" ht="17" thickBot="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="67"/>
+        <v>42</v>
+      </c>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:4" ht="17" thickBot="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" s="67"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="1"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="67"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="67"/>
+      <c r="B15" s="46"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1"/>
-      <c r="B16" s="51" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="67"/>
+      <c r="B16" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="1"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="56" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="67"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="1"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="57" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="67"/>
+      <c r="B18" s="46"/>
+      <c r="C18" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="1"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="58" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="67"/>
+      <c r="B19" s="46"/>
+      <c r="C19" s="53" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="1"/>
-      <c r="B20" s="59"/>
-      <c r="C20" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="67"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="62"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1"/>
-      <c r="B21" s="59"/>
-      <c r="C21" s="61" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="67"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1"/>
-      <c r="B22" s="59"/>
-      <c r="C22" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="67"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="57" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="B23" s="59"/>
-      <c r="C23" s="63" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="67"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="62"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="B24" s="68"/>
-      <c r="C24" s="69"/>
-      <c r="D24" s="70"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="65"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2422,583 +2433,577 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K36"/>
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="78" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="78" customWidth="1"/>
-    <col min="3" max="3" width="46" style="78" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="78" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="78" customWidth="1"/>
-    <col min="6" max="6" width="4.42578125" style="78" customWidth="1"/>
-    <col min="7" max="7" width="45" style="78" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="46.140625" style="78" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="78" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="78"/>
+    <col min="1" max="1" width="3.33203125" style="73" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="73" customWidth="1"/>
+    <col min="3" max="3" width="46" style="73" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="73" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="73" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="73" customWidth="1"/>
+    <col min="7" max="7" width="45" style="73" customWidth="1"/>
+    <col min="8" max="8" width="5.1640625" style="73" customWidth="1"/>
+    <col min="9" max="9" width="46.1640625" style="73" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="73" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="73"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" customHeight="1">
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-    </row>
-    <row r="2" spans="2:11" ht="16" customHeight="1">
-      <c r="B2" s="155" t="s">
-        <v>78</v>
-      </c>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-    </row>
-    <row r="3" spans="2:11" ht="16" customHeight="1">
-      <c r="B3" s="158"/>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="160"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-    </row>
-    <row r="4" spans="2:11" ht="32" customHeight="1">
-      <c r="B4" s="161"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="163"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-    </row>
-    <row r="5" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="D5" s="79"/>
-    </row>
-    <row r="6" spans="2:11" ht="16" customHeight="1">
-      <c r="B6" s="80"/>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81"/>
-      <c r="E6" s="81"/>
-      <c r="F6" s="81"/>
-      <c r="G6" s="81"/>
-      <c r="H6" s="81"/>
-      <c r="I6" s="81"/>
-      <c r="J6" s="82"/>
-    </row>
-    <row r="7" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1">
-      <c r="B7" s="83"/>
-      <c r="C7" s="84" t="s">
+    <row r="2" spans="2:10" ht="16" customHeight="1">
+      <c r="B2" s="140" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="141"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="142"/>
+    </row>
+    <row r="3" spans="2:10" ht="16" customHeight="1">
+      <c r="B3" s="143"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="145"/>
+    </row>
+    <row r="4" spans="2:10" ht="32" customHeight="1">
+      <c r="B4" s="146"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="148"/>
+    </row>
+    <row r="5" spans="2:10" ht="16" customHeight="1" thickBot="1"/>
+    <row r="6" spans="2:10" ht="16" customHeight="1">
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
+    </row>
+    <row r="7" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1">
+      <c r="B7" s="77"/>
+      <c r="C7" s="60" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="78" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="60" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="79"/>
+    </row>
+    <row r="8" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1">
+      <c r="B8" s="81"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="82"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B9" s="81"/>
+      <c r="C9" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" s="82"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B10" s="81"/>
+      <c r="C10" s="93" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="119">
+        <f>'Research data'!E6</f>
+        <v>8400</v>
+      </c>
+      <c r="F10" s="95"/>
+      <c r="G10" s="96"/>
+      <c r="I10" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="83"/>
+    </row>
+    <row r="11" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B11" s="81"/>
+      <c r="C11" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="119">
+        <f>'Research data'!E7</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="95"/>
+      <c r="G11" s="96"/>
+      <c r="I11" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="83"/>
+    </row>
+    <row r="12" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B12" s="81"/>
+      <c r="C12" s="122" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="94">
+        <f>'Research data'!E11</f>
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="95"/>
+      <c r="G12" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="83"/>
+    </row>
+    <row r="13" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B13" s="81"/>
+      <c r="C13" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="119">
+        <f>'Research data'!E10</f>
+        <v>1400</v>
+      </c>
+      <c r="F13" s="95"/>
+      <c r="G13" s="96"/>
+      <c r="I13" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J13" s="83"/>
+    </row>
+    <row r="14" spans="2:10" s="80" customFormat="1" ht="16" customHeight="1" thickBot="1">
+      <c r="B14" s="81"/>
+      <c r="C14" s="136" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="119">
+        <f>'Research data'!E9</f>
+        <v>1400</v>
+      </c>
+      <c r="F14" s="95"/>
+      <c r="G14" s="96"/>
+      <c r="I14" s="139" t="s">
+        <v>95</v>
+      </c>
+      <c r="J14" s="83"/>
+    </row>
+    <row r="15" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B15" s="84"/>
+      <c r="C15" s="95" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="94">
+        <f>'Research data'!E8</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="I15" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J15" s="85"/>
+    </row>
+    <row r="16" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B16" s="84"/>
+      <c r="C16" s="99" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="98">
+        <v>0</v>
+      </c>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95"/>
+      <c r="I16" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="85"/>
+    </row>
+    <row r="17" spans="2:10" ht="16" customHeight="1">
+      <c r="B17" s="84"/>
+      <c r="C17" s="86"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="88"/>
+      <c r="J17" s="85"/>
+    </row>
+    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B18" s="84"/>
+      <c r="C18" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="87"/>
+      <c r="E18" s="88"/>
+      <c r="J18" s="85"/>
+    </row>
+    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B19" s="84"/>
+      <c r="C19" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="97" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="85" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="84" t="s">
+      <c r="E19" s="98">
+        <f>'Research data'!E14</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="I19" s="125" t="str">
+        <f>'Research data'!I14</f>
+        <v>Quintel assumption: costs only scale with volume</v>
+      </c>
+      <c r="J19" s="85"/>
+    </row>
+    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B20" s="84"/>
+      <c r="C20" s="150" t="s">
+        <v>103</v>
+      </c>
+      <c r="D20" s="97" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="98">
+        <f>'Research data'!E15</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="95"/>
+      <c r="G20" s="95"/>
+      <c r="I20" s="125" t="str">
+        <f>'Research data'!I15</f>
+        <v>Quintel assumption: costs only scale with volume</v>
+      </c>
+      <c r="J20" s="85"/>
+    </row>
+    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B21" s="84"/>
+      <c r="C21" s="150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D21" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="98">
+        <f>'Research data'!E16</f>
+        <v>212500</v>
+      </c>
+      <c r="F21" s="95"/>
+      <c r="G21" s="95"/>
+      <c r="I21" s="125" t="str">
+        <f>'Research data'!I16</f>
+        <v>Blue battery for green energy, Dr. J.M.H. Huynen</v>
+      </c>
+      <c r="J21" s="85"/>
+    </row>
+    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B22" s="84"/>
+      <c r="C22" s="95" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="98">
+        <v>0</v>
+      </c>
+      <c r="F22" s="95"/>
+      <c r="G22" s="95"/>
+      <c r="I22" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="85"/>
+    </row>
+    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B23" s="84"/>
+      <c r="C23" s="95" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" s="98">
+        <v>0</v>
+      </c>
+      <c r="F23" s="95"/>
+      <c r="G23" s="95"/>
+      <c r="I23" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J23" s="85"/>
+    </row>
+    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B24" s="84"/>
+      <c r="C24" s="95" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" s="98">
+        <v>0</v>
+      </c>
+      <c r="F24" s="95"/>
+      <c r="G24" s="95"/>
+      <c r="I24" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J24" s="85"/>
+    </row>
+    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B25" s="84"/>
+      <c r="C25" s="95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="100">
+        <f>'Research data'!E17</f>
+        <v>19800000</v>
+      </c>
+      <c r="F25" s="95"/>
+      <c r="G25" s="95"/>
+      <c r="I25" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J25" s="85"/>
+    </row>
+    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B26" s="84"/>
+      <c r="C26" s="95" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="94">
+        <v>0</v>
+      </c>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="I26" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="85"/>
+    </row>
+    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B27" s="84"/>
+      <c r="C27" s="95" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="101">
+        <v>0</v>
+      </c>
+      <c r="F27" s="95"/>
+      <c r="G27" s="95"/>
+      <c r="I27" s="149" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="85"/>
+    </row>
+    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B28" s="84"/>
+      <c r="C28" s="95" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="97" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="94">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="I28" s="135" t="s">
+        <v>101</v>
+      </c>
+      <c r="J28" s="85"/>
+    </row>
+    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B29" s="84"/>
+      <c r="C29" s="95" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="97" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="98">
+        <v>0</v>
+      </c>
+      <c r="F29" s="95"/>
+      <c r="G29" s="95"/>
+      <c r="I29" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J29" s="85"/>
+    </row>
+    <row r="30" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B30" s="84"/>
+      <c r="C30" s="95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D30" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" s="98">
+        <v>4.3</v>
+      </c>
+      <c r="F30" s="95"/>
+      <c r="G30" s="95"/>
+      <c r="I30" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J30" s="85"/>
+    </row>
+    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B31" s="84"/>
+      <c r="C31" s="95" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="98">
+        <f>E30/E12</f>
+        <v>5.3749999999999991</v>
+      </c>
+      <c r="F31" s="95"/>
+      <c r="G31" s="95"/>
+      <c r="I31" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="85"/>
+    </row>
+    <row r="32" spans="2:10" ht="16" customHeight="1">
+      <c r="B32" s="84"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="89"/>
+      <c r="J32" s="85"/>
+    </row>
+    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B33" s="84"/>
+      <c r="C33" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84" t="s">
+      <c r="D33" s="87"/>
+      <c r="E33" s="89"/>
+      <c r="J33" s="85"/>
+    </row>
+    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B34" s="84"/>
+      <c r="C34" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34" s="98">
+        <f>'Research data'!E20</f>
+        <v>5</v>
+      </c>
+      <c r="F34" s="95"/>
+      <c r="G34" s="95"/>
+      <c r="I34" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J34" s="85"/>
+    </row>
+    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B35" s="84"/>
+      <c r="C35" s="95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="98">
+        <f>'Research data'!E21</f>
+        <v>50</v>
+      </c>
+      <c r="F35" s="95"/>
+      <c r="G35" s="95"/>
+      <c r="I35" s="125" t="s">
+        <v>82</v>
+      </c>
+      <c r="J35" s="85"/>
+    </row>
+    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B36" s="84"/>
+      <c r="C36" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" s="97" t="s">
+        <v>3</v>
+      </c>
+      <c r="E36" s="98">
         <v>0</v>
       </c>
-      <c r="J7" s="86"/>
-    </row>
-    <row r="8" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1">
-      <c r="B8" s="88"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="89"/>
-      <c r="F8" s="89"/>
-      <c r="G8" s="89"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="89"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B9" s="88"/>
-      <c r="C9" s="89" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="90"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
-      <c r="J9" s="91"/>
-    </row>
-    <row r="10" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B10" s="88"/>
-      <c r="C10" s="101" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" s="105" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="130">
-        <f>'Research data'!G6</f>
-        <v>8400</v>
-      </c>
-      <c r="F10" s="103"/>
-      <c r="G10" s="104"/>
-      <c r="I10" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J10" s="91"/>
-    </row>
-    <row r="11" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B11" s="88"/>
-      <c r="C11" s="101" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="130">
-        <f>'Research data'!G7</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="103"/>
-      <c r="G11" s="104"/>
-      <c r="I11" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="91"/>
-    </row>
-    <row r="12" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B12" s="88"/>
-      <c r="C12" s="133" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="102">
-        <f>'Research data'!G11</f>
-        <v>0.8</v>
-      </c>
-      <c r="F12" s="103"/>
-      <c r="G12" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J12" s="91"/>
-    </row>
-    <row r="13" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B13" s="88"/>
-      <c r="C13" s="101" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="130">
-        <f>'Research data'!G10</f>
-        <v>1400</v>
-      </c>
-      <c r="F13" s="103"/>
-      <c r="G13" s="104"/>
-      <c r="I13" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="91"/>
-    </row>
-    <row r="14" spans="2:11" s="87" customFormat="1" ht="16" customHeight="1" thickBot="1">
-      <c r="B14" s="88"/>
-      <c r="C14" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="105" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" s="130">
-        <f>'Research data'!G9</f>
-        <v>1400</v>
-      </c>
-      <c r="F14" s="103"/>
-      <c r="G14" s="104"/>
-      <c r="I14" s="154" t="s">
-        <v>98</v>
-      </c>
-      <c r="J14" s="91"/>
-    </row>
-    <row r="15" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B15" s="92"/>
-      <c r="C15" s="103" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="102">
-        <f>'Research data'!G8</f>
-        <v>1</v>
-      </c>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103"/>
-      <c r="I15" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J15" s="93"/>
-      <c r="K15" s="79"/>
-    </row>
-    <row r="16" spans="2:11" ht="16" customHeight="1" thickBot="1">
-      <c r="B16" s="92"/>
-      <c r="C16" s="107" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="106">
-        <v>0</v>
-      </c>
-      <c r="F16" s="103"/>
-      <c r="G16" s="103"/>
-      <c r="I16" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="79"/>
-    </row>
-    <row r="17" spans="2:10" ht="16" customHeight="1">
-      <c r="B17" s="92"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="96"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="I17" s="79"/>
-      <c r="J17" s="93"/>
-    </row>
-    <row r="18" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B18" s="92"/>
-      <c r="C18" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="D18" s="95"/>
-      <c r="E18" s="96"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
-      <c r="I18" s="79"/>
-      <c r="J18" s="93"/>
-    </row>
-    <row r="19" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B19" s="92"/>
-      <c r="C19" s="103" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="106">
-        <f>'Research data'!G14</f>
-        <v>1785000000</v>
-      </c>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="I19" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J19" s="93"/>
-    </row>
-    <row r="20" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B20" s="92"/>
-      <c r="C20" s="103" t="s">
-        <v>28</v>
-      </c>
-      <c r="D20" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" s="106">
-        <v>0</v>
-      </c>
-      <c r="F20" s="103"/>
-      <c r="G20" s="103"/>
-      <c r="I20" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="93"/>
-    </row>
-    <row r="21" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B21" s="92"/>
-      <c r="C21" s="103" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="106">
-        <v>0</v>
-      </c>
-      <c r="F21" s="103"/>
-      <c r="G21" s="103"/>
-      <c r="I21" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="93"/>
-    </row>
-    <row r="22" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B22" s="92"/>
-      <c r="C22" s="103" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="105" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="106">
-        <v>0</v>
-      </c>
-      <c r="F22" s="103"/>
-      <c r="G22" s="103"/>
-      <c r="I22" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J22" s="93"/>
-    </row>
-    <row r="23" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B23" s="92"/>
-      <c r="C23" s="103" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="105" t="s">
-        <v>37</v>
-      </c>
-      <c r="E23" s="108">
-        <f>'Research data'!G15</f>
-        <v>19800000</v>
-      </c>
-      <c r="F23" s="103"/>
-      <c r="G23" s="103"/>
-      <c r="I23" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J23" s="93"/>
-    </row>
-    <row r="24" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B24" s="92"/>
-      <c r="C24" s="103" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="102">
-        <v>0</v>
-      </c>
-      <c r="F24" s="103"/>
-      <c r="G24" s="103"/>
-      <c r="I24" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J24" s="93"/>
-    </row>
-    <row r="25" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B25" s="92"/>
-      <c r="C25" s="103" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="105" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="109">
-        <v>0</v>
-      </c>
-      <c r="F25" s="103"/>
-      <c r="G25" s="103"/>
-      <c r="I25" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J25" s="93"/>
-    </row>
-    <row r="26" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B26" s="92"/>
-      <c r="C26" s="103" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="105" t="s">
-        <v>2</v>
-      </c>
-      <c r="E26" s="102">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F26" s="103"/>
-      <c r="G26" s="103"/>
-      <c r="I26" s="149" t="s">
-        <v>91</v>
-      </c>
-      <c r="J26" s="93"/>
-    </row>
-    <row r="27" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B27" s="92"/>
-      <c r="C27" s="103" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="105" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="106">
-        <v>0</v>
-      </c>
-      <c r="F27" s="103"/>
-      <c r="G27" s="103"/>
-      <c r="I27" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J27" s="93"/>
-    </row>
-    <row r="28" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B28" s="92"/>
-      <c r="C28" s="103" t="s">
-        <v>102</v>
-      </c>
-      <c r="D28" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="E28" s="106">
-        <v>4.3</v>
-      </c>
-      <c r="F28" s="103"/>
-      <c r="G28" s="103"/>
-      <c r="I28" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J28" s="93"/>
-    </row>
-    <row r="29" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B29" s="92"/>
-      <c r="C29" s="103" t="s">
-        <v>103</v>
-      </c>
-      <c r="D29" s="105" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="106">
-        <f>E28/E12</f>
-        <v>5.3749999999999991</v>
-      </c>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="I29" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J29" s="93"/>
-    </row>
-    <row r="30" spans="2:10" ht="16" customHeight="1">
-      <c r="B30" s="92"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="95"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="79"/>
-      <c r="I30" s="79"/>
-      <c r="J30" s="93"/>
-    </row>
-    <row r="31" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B31" s="92"/>
-      <c r="C31" s="89" t="s">
-        <v>6</v>
-      </c>
-      <c r="D31" s="95"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="79"/>
-      <c r="I31" s="79"/>
-      <c r="J31" s="93"/>
-    </row>
-    <row r="32" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B32" s="92"/>
-      <c r="C32" s="103" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="105" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="106">
-        <v>0</v>
-      </c>
-      <c r="F32" s="103"/>
-      <c r="G32" s="103"/>
-      <c r="I32" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J32" s="93"/>
-    </row>
-    <row r="33" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B33" s="92"/>
-      <c r="C33" s="103" t="s">
-        <v>33</v>
-      </c>
-      <c r="D33" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E33" s="108">
-        <f>'Research data'!G18</f>
-        <v>5</v>
-      </c>
-      <c r="F33" s="103"/>
-      <c r="G33" s="103"/>
-      <c r="I33" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J33" s="93"/>
-    </row>
-    <row r="34" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B34" s="92"/>
-      <c r="C34" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="105" t="s">
-        <v>1</v>
-      </c>
-      <c r="E34" s="106">
-        <f>'Research data'!G19</f>
-        <v>50</v>
-      </c>
-      <c r="F34" s="103"/>
-      <c r="G34" s="103"/>
-      <c r="I34" s="137" t="s">
-        <v>84</v>
-      </c>
-      <c r="J34" s="93"/>
-    </row>
-    <row r="35" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B35" s="92"/>
-      <c r="C35" s="103" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="105" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" s="106">
-        <v>0</v>
-      </c>
-      <c r="F35" s="103"/>
-      <c r="G35" s="103"/>
-      <c r="I35" s="137" t="s">
-        <v>76</v>
-      </c>
-      <c r="J35" s="93"/>
-    </row>
-    <row r="36" spans="2:10" ht="16" customHeight="1" thickBot="1">
-      <c r="B36" s="98"/>
-      <c r="C36" s="99"/>
-      <c r="D36" s="99"/>
-      <c r="E36" s="99"/>
-      <c r="F36" s="99"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="99"/>
-      <c r="J36" s="100"/>
+      <c r="F36" s="95"/>
+      <c r="G36" s="95"/>
+      <c r="I36" s="125" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="85"/>
+    </row>
+    <row r="37" spans="2:10" ht="16" customHeight="1" thickBot="1">
+      <c r="B37" s="90"/>
+      <c r="C37" s="91"/>
+      <c r="D37" s="91"/>
+      <c r="E37" s="91"/>
+      <c r="F37" s="91"/>
+      <c r="G37" s="91"/>
+      <c r="H37" s="91"/>
+      <c r="I37" s="91"/>
+      <c r="J37" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3014,375 +3019,364 @@
   <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="B1:L20"/>
+  <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="36" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="36" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" style="36" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="36" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="36" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" style="36" customWidth="1"/>
-    <col min="8" max="8" width="4" style="36" customWidth="1"/>
-    <col min="9" max="9" width="16" style="36" customWidth="1"/>
-    <col min="10" max="10" width="3" style="37" customWidth="1"/>
-    <col min="11" max="11" width="60" style="36" customWidth="1"/>
-    <col min="12" max="12" width="2.140625" style="36" customWidth="1"/>
-    <col min="13" max="16384" width="10.7109375" style="36"/>
+    <col min="1" max="2" width="3.5" style="33" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="33" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="4" style="33" customWidth="1"/>
+    <col min="7" max="7" width="16" style="33" customWidth="1"/>
+    <col min="8" max="8" width="3" style="34" customWidth="1"/>
+    <col min="9" max="9" width="60" style="33" customWidth="1"/>
+    <col min="10" max="10" width="2.1640625" style="33" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="17" thickBot="1"/>
-    <row r="2" spans="2:12">
-      <c r="B2" s="38"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="71"/>
-    </row>
-    <row r="3" spans="2:12" s="15" customFormat="1">
+    <row r="1" spans="2:10" ht="17" thickBot="1"/>
+    <row r="2" spans="2:10">
+      <c r="B2" s="35"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="66"/>
+    </row>
+    <row r="3" spans="2:10" s="12" customFormat="1">
       <c r="B3" s="14"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="60" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="65" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="35"/>
-      <c r="K3" s="65" t="s">
-        <v>60</v>
-      </c>
-      <c r="L3" s="72"/>
-    </row>
-    <row r="4" spans="2:12">
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="73"/>
-    </row>
-    <row r="5" spans="2:12" ht="17" thickBot="1">
-      <c r="B5" s="41"/>
-      <c r="C5" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="J3" s="67"/>
+    </row>
+    <row r="4" spans="2:10">
+      <c r="B4" s="38"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="68"/>
+    </row>
+    <row r="5" spans="2:10" ht="17" thickBot="1">
+      <c r="B5" s="38"/>
+      <c r="C5" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="73"/>
-    </row>
-    <row r="6" spans="2:12" ht="17" thickBot="1">
-      <c r="B6" s="41"/>
-      <c r="C6" s="128" t="s">
+      <c r="I5" s="153"/>
+      <c r="J5" s="68"/>
+    </row>
+    <row r="6" spans="2:10" ht="17" thickBot="1">
+      <c r="B6" s="38"/>
+      <c r="C6" s="117" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="118" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="132">
+        <v>8400</v>
+      </c>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" s="68"/>
+    </row>
+    <row r="7" spans="2:10" ht="17" thickBot="1">
+      <c r="B7" s="38"/>
+      <c r="C7" s="117" t="s">
         <v>69</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="129" t="s">
+      <c r="D7" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="132">
+        <v>0</v>
+      </c>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" s="68"/>
+    </row>
+    <row r="8" spans="2:10" ht="17" thickBot="1">
+      <c r="B8" s="38"/>
+      <c r="C8" s="129" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="118"/>
+      <c r="E8" s="132">
+        <v>1</v>
+      </c>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="68"/>
+    </row>
+    <row r="9" spans="2:10" ht="17" thickBot="1">
+      <c r="B9" s="38"/>
+      <c r="C9" s="117" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="137">
+        <v>1400</v>
+      </c>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="153" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="68"/>
+    </row>
+    <row r="10" spans="2:10" ht="17" thickBot="1">
+      <c r="B10" s="38"/>
+      <c r="C10" s="117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="118" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="132">
+        <v>1400</v>
+      </c>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J10" s="68"/>
+    </row>
+    <row r="11" spans="2:10" ht="17" thickBot="1">
+      <c r="B11" s="38"/>
+      <c r="C11" s="117" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="118" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" s="131">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J11" s="68"/>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="38"/>
+      <c r="C12" s="43"/>
+      <c r="E12" s="133"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="68"/>
+    </row>
+    <row r="13" spans="2:10" ht="17" thickBot="1">
+      <c r="B13" s="38"/>
+      <c r="C13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="68"/>
+    </row>
+    <row r="14" spans="2:10" ht="17" thickBot="1">
+      <c r="B14" s="38"/>
+      <c r="C14" s="117" t="s">
         <v>72</v>
       </c>
-      <c r="G6" s="146">
-        <v>8400</v>
-      </c>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="141" t="s">
+      <c r="D14" s="118" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" s="132">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="68"/>
+    </row>
+    <row r="15" spans="2:10" ht="17" thickBot="1">
+      <c r="B15" s="38"/>
+      <c r="C15" s="151" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="132">
+        <v>0</v>
+      </c>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="153" t="s">
+        <v>110</v>
+      </c>
+      <c r="J15" s="68"/>
+    </row>
+    <row r="16" spans="2:10" ht="17" thickBot="1">
+      <c r="B16" s="38"/>
+      <c r="C16" s="151" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="152" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="132">
+        <f>1785000000/E6</f>
+        <v>212500</v>
+      </c>
+      <c r="F16" s="41"/>
+      <c r="G16" s="41"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J16" s="68"/>
+    </row>
+    <row r="17" spans="2:10" ht="17" thickBot="1">
+      <c r="B17" s="38"/>
+      <c r="C17" s="129" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="130" t="s">
         <v>84</v>
       </c>
-      <c r="L6" s="73"/>
-    </row>
-    <row r="7" spans="2:12" ht="17" thickBot="1">
-      <c r="B7" s="41"/>
-      <c r="C7" s="128" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="146">
-        <v>0</v>
-      </c>
-      <c r="H7" s="45"/>
-      <c r="I7" s="45"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L7" s="73"/>
-    </row>
-    <row r="8" spans="2:12" ht="17" thickBot="1">
-      <c r="B8" s="41"/>
-      <c r="C8" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="146">
-        <v>1</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="43"/>
-      <c r="K8" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L8" s="73"/>
-    </row>
-    <row r="9" spans="2:12" ht="17" thickBot="1">
-      <c r="B9" s="41"/>
-      <c r="C9" s="128" t="s">
-        <v>73</v>
-      </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="G9" s="151">
-        <v>1400</v>
-      </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="45"/>
-      <c r="J9" s="43"/>
-      <c r="K9" s="152" t="s">
-        <v>98</v>
-      </c>
-      <c r="L9" s="73"/>
-    </row>
-    <row r="10" spans="2:12" ht="17" thickBot="1">
-      <c r="B10" s="41"/>
-      <c r="C10" s="128" t="s">
-        <v>70</v>
-      </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="129" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" s="146">
-        <v>1400</v>
-      </c>
-      <c r="H10" s="45"/>
-      <c r="I10" s="45"/>
-      <c r="J10" s="43"/>
-      <c r="K10" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L10" s="73"/>
-    </row>
-    <row r="11" spans="2:12" ht="17" thickBot="1">
-      <c r="B11" s="41"/>
-      <c r="C11" s="128" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="129" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11" s="145">
-        <v>0.8</v>
-      </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="73"/>
-    </row>
-    <row r="12" spans="2:12">
-      <c r="B12" s="41"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="46"/>
-      <c r="I12" s="46"/>
-      <c r="J12" s="46"/>
-      <c r="K12" s="141"/>
-      <c r="L12" s="73"/>
-    </row>
-    <row r="13" spans="2:12" ht="17" thickBot="1">
-      <c r="B13" s="41"/>
-      <c r="C13" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="141"/>
-      <c r="L13" s="73"/>
-    </row>
-    <row r="14" spans="2:12" ht="17" thickBot="1">
-      <c r="B14" s="41"/>
-      <c r="C14" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="129" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="146">
-        <v>1785000000</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L14" s="73"/>
-    </row>
-    <row r="15" spans="2:12" ht="17" thickBot="1">
-      <c r="B15" s="41"/>
-      <c r="C15" s="142" t="s">
+      <c r="E17" s="132">
+        <v>19800000</v>
+      </c>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="68"/>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="153"/>
+      <c r="J18" s="68"/>
+    </row>
+    <row r="19" spans="2:10" ht="17" thickBot="1">
+      <c r="B19" s="38"/>
+      <c r="C19" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="134"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="153"/>
+      <c r="J19" s="68"/>
+    </row>
+    <row r="20" spans="2:10" ht="17" thickBot="1">
+      <c r="B20" s="38"/>
+      <c r="C20" s="117" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="143" t="s">
-        <v>86</v>
-      </c>
-      <c r="G15" s="146">
-        <v>19800000</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="43"/>
-      <c r="K15" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L15" s="73"/>
-    </row>
-    <row r="16" spans="2:12">
-      <c r="B16" s="41"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="147"/>
-      <c r="H16" s="45"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="43"/>
-      <c r="K16" s="144"/>
-      <c r="L16" s="73"/>
-    </row>
-    <row r="17" spans="2:12" ht="17" thickBot="1">
-      <c r="B17" s="41"/>
-      <c r="C17" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="141"/>
-      <c r="L17" s="73"/>
-    </row>
-    <row r="18" spans="2:12" ht="17" thickBot="1">
-      <c r="B18" s="41"/>
-      <c r="C18" s="128" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="44">
-        <v>0</v>
-      </c>
-      <c r="F18" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="146">
+      <c r="E20" s="132">
         <v>5</v>
       </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="141" t="s">
-        <v>84</v>
-      </c>
-      <c r="L18" s="73"/>
-    </row>
-    <row r="19" spans="2:12" ht="17" thickBot="1">
-      <c r="B19" s="41"/>
-      <c r="C19" s="142" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="44" t="s">
-        <v>1</v>
-      </c>
-      <c r="E19" s="44">
-        <v>5</v>
-      </c>
-      <c r="F19" s="143" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="146">
+      <c r="F20" s="41"/>
+      <c r="G20" s="41"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="153" t="s">
+        <v>82</v>
+      </c>
+      <c r="J20" s="68"/>
+    </row>
+    <row r="21" spans="2:10" ht="17" thickBot="1">
+      <c r="B21" s="38"/>
+      <c r="C21" s="129" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="130" t="s">
+        <v>85</v>
+      </c>
+      <c r="E21" s="132">
         <v>50</v>
       </c>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="43"/>
-      <c r="K19" s="141" t="s">
-        <v>83</v>
-      </c>
-      <c r="L19" s="73"/>
-    </row>
-    <row r="20" spans="2:12" ht="17" thickBot="1">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="75"/>
-      <c r="L20" s="77"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="153" t="s">
+        <v>81</v>
+      </c>
+      <c r="J21" s="68"/>
+    </row>
+    <row r="22" spans="2:10" ht="17" thickBot="1">
+      <c r="B22" s="69"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="71"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="72"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3401,142 +3395,131 @@
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="22" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="22" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="22" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="22" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="22" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="22" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="22" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="23" customWidth="1"/>
-    <col min="11" max="11" width="66" style="22" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="22"/>
+    <col min="1" max="1" width="3.33203125" style="21" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="21" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="21" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="22" customWidth="1"/>
+    <col min="11" max="11" width="66" style="21" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="25"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="24"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="27"/>
-      <c r="C3" s="28" t="s">
+      <c r="B3" s="26"/>
+      <c r="C3" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="28"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="26"/>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="B5" s="29"/>
+      <c r="C5" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" s="27"/>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="30"/>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="B5" s="32"/>
-      <c r="C5" s="33" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="J5" s="34" t="s">
-        <v>64</v>
-      </c>
-      <c r="K5" s="33" t="s">
-        <v>11</v>
+      <c r="H5" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="30" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:11">
-      <c r="C7" s="138"/>
-      <c r="F7" s="138"/>
-      <c r="H7" s="126"/>
-      <c r="I7" s="127"/>
+      <c r="C7" s="126"/>
+      <c r="F7" s="126"/>
+      <c r="I7" s="116"/>
     </row>
     <row r="8" spans="2:11">
-      <c r="C8" s="138" t="s">
+      <c r="C8" s="126" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="22" t="s">
+      <c r="F8" s="126" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="128">
+        <v>43344</v>
+      </c>
+      <c r="H8" s="21">
+        <v>2018</v>
+      </c>
+      <c r="I8" s="116">
+        <v>43709</v>
+      </c>
+      <c r="J8" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="F8" s="138" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="140">
-        <v>43344</v>
-      </c>
-      <c r="H8" s="22">
+    </row>
+    <row r="10" spans="2:11">
+      <c r="C10" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="116">
+        <v>43336</v>
+      </c>
+      <c r="H10" s="21">
         <v>2018</v>
       </c>
-      <c r="I8" s="127">
-        <v>43709</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" s="22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="C10" s="22" t="s">
+      <c r="I10" s="116">
+        <v>44144</v>
+      </c>
+      <c r="K10" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" s="127">
-        <v>43336</v>
-      </c>
-      <c r="H10" s="22">
-        <v>2018</v>
-      </c>
-      <c r="I10" s="127">
-        <v>44144</v>
-      </c>
-      <c r="K10" s="22" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3556,54 +3539,54 @@
       <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="110" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" style="110" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="110" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="110" customWidth="1"/>
-    <col min="5" max="6" width="8.42578125" style="110" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="110"/>
-    <col min="8" max="8" width="10.7109375" style="111"/>
-    <col min="9" max="9" width="10.7109375" style="110"/>
-    <col min="10" max="10" width="35" style="110" customWidth="1"/>
-    <col min="11" max="11" width="63.28515625" style="110" customWidth="1"/>
-    <col min="12" max="16384" width="10.7109375" style="110"/>
+    <col min="1" max="1" width="3.5" style="102" customWidth="1"/>
+    <col min="2" max="2" width="4.1640625" style="102" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="102" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="102" customWidth="1"/>
+    <col min="5" max="6" width="8.5" style="102" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="102"/>
+    <col min="8" max="8" width="10.6640625" style="103"/>
+    <col min="9" max="9" width="10.6640625" style="102"/>
+    <col min="10" max="10" width="35" style="102" customWidth="1"/>
+    <col min="11" max="11" width="63.33203125" style="102" customWidth="1"/>
+    <col min="12" max="16384" width="10.6640625" style="102"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="17" thickBot="1"/>
     <row r="3" spans="2:11">
-      <c r="B3" s="112"/>
-      <c r="C3" s="113"/>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="113"/>
-      <c r="H3" s="114"/>
-      <c r="I3" s="113"/>
-      <c r="J3" s="113"/>
-      <c r="K3" s="115"/>
+      <c r="B3" s="104"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="106"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="107"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="116"/>
-      <c r="C4" s="117" t="s">
+      <c r="B4" s="108"/>
+      <c r="C4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="117" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="117" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="117" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="117"/>
-      <c r="H4" s="118"/>
-      <c r="I4" s="117"/>
-      <c r="J4" s="117"/>
-      <c r="K4" s="119" t="s">
-        <v>67</v>
+      <c r="D4" s="109" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="109" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="109" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="109"/>
+      <c r="H4" s="110"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="111" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:11">
@@ -3613,33 +3596,33 @@
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="120"/>
+      <c r="H5" s="112"/>
       <c r="I5" s="12"/>
       <c r="J5" s="12"/>
-      <c r="K5" s="72"/>
+      <c r="K5" s="67"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="14"/>
-      <c r="C6" s="153" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="153" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" s="153">
+      <c r="C6" s="138" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>71</v>
+      </c>
+      <c r="E6" s="138">
         <v>1400</v>
       </c>
-      <c r="F6" s="153" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="153" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="120"/>
+      <c r="F6" s="138" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="H6" s="112"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="122" t="s">
-        <v>97</v>
+      <c r="K6" s="113" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="2:11">
@@ -3648,37 +3631,31 @@
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
-      <c r="G7" s="153" t="s">
-        <v>100</v>
-      </c>
-      <c r="H7" s="120"/>
+      <c r="G7" s="138" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="112"/>
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
-      <c r="K7" s="72"/>
+      <c r="K7" s="67"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="14"/>
       <c r="C8" s="12"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="120"/>
+      <c r="H8" s="112"/>
       <c r="I8" s="12"/>
       <c r="J8" s="12"/>
-      <c r="K8" s="72"/>
+      <c r="K8" s="67"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="120"/>
+      <c r="H9" s="112"/>
       <c r="I9" s="12"/>
       <c r="J9" s="12"/>
-      <c r="K9" s="72"/>
+      <c r="K9" s="67"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="14"/>
@@ -3687,118 +3664,91 @@
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="120"/>
+      <c r="H10" s="112"/>
       <c r="I10" s="12"/>
       <c r="J10" s="12"/>
-      <c r="K10" s="72"/>
+      <c r="K10" s="67"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="14"/>
       <c r="C11" s="12"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="120"/>
+      <c r="H11" s="112"/>
       <c r="I11" s="12"/>
       <c r="J11" s="12"/>
-      <c r="K11" s="72"/>
+      <c r="K11" s="67"/>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="14"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="121"/>
-      <c r="F12" s="121"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="120"/>
+      <c r="H12" s="112"/>
       <c r="I12" s="12"/>
       <c r="J12" s="12"/>
-      <c r="K12" s="72"/>
+      <c r="K12" s="67"/>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="14"/>
       <c r="C13" s="12"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="121"/>
-      <c r="F13" s="121"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="120"/>
+      <c r="H13" s="112"/>
       <c r="I13" s="12"/>
       <c r="J13" s="12"/>
-      <c r="K13" s="72"/>
+      <c r="K13" s="67"/>
     </row>
     <row r="14" spans="2:11">
       <c r="B14" s="14"/>
       <c r="C14" s="12"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="121"/>
-      <c r="F14" s="121"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="120"/>
+      <c r="H14" s="112"/>
       <c r="I14" s="12"/>
       <c r="J14" s="12"/>
-      <c r="K14" s="72"/>
+      <c r="K14" s="67"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="14"/>
       <c r="C15" s="12"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="121"/>
-      <c r="F15" s="121"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="120"/>
+      <c r="H15" s="112"/>
       <c r="I15" s="12"/>
       <c r="J15" s="12"/>
-      <c r="K15" s="72"/>
+      <c r="K15" s="67"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="14"/>
       <c r="C16" s="12"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="121"/>
-      <c r="F16" s="121"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="120"/>
+      <c r="H16" s="112"/>
       <c r="I16" s="12"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="72"/>
+      <c r="K16" s="67"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="14"/>
       <c r="C17" s="12"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="121"/>
-      <c r="F17" s="121"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="120"/>
+      <c r="H17" s="112"/>
       <c r="I17" s="12"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="72"/>
+      <c r="K17" s="67"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="14"/>
       <c r="C18" s="12"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="121"/>
-      <c r="F18" s="121"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="120"/>
+      <c r="H18" s="112"/>
       <c r="I18" s="12"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="72"/>
+      <c r="K18" s="67"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="14"/>
       <c r="C19" s="12"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="121"/>
-      <c r="F19" s="121"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="120"/>
+      <c r="H19" s="112"/>
       <c r="I19" s="12"/>
       <c r="J19" s="12"/>
-      <c r="K19" s="72"/>
+      <c r="K19" s="67"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="14"/>
@@ -3807,10 +3757,10 @@
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="120"/>
+      <c r="H20" s="112"/>
       <c r="I20" s="12"/>
       <c r="J20" s="12"/>
-      <c r="K20" s="72"/>
+      <c r="K20" s="67"/>
     </row>
     <row r="21" spans="2:11">
       <c r="B21" s="14"/>
@@ -3819,22 +3769,19 @@
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="120"/>
+      <c r="H21" s="112"/>
       <c r="I21" s="12"/>
       <c r="J21" s="12"/>
-      <c r="K21" s="72"/>
+      <c r="K21" s="67"/>
     </row>
     <row r="22" spans="2:11">
-      <c r="B22" s="123"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="121"/>
+      <c r="B22" s="114"/>
       <c r="F22" s="12"/>
       <c r="G22" s="12"/>
-      <c r="H22" s="120"/>
+      <c r="H22" s="112"/>
       <c r="I22" s="12"/>
       <c r="J22" s="12"/>
-      <c r="K22" s="122"/>
+      <c r="K22" s="113"/>
     </row>
     <row r="23" spans="2:11">
       <c r="B23" s="14"/>
@@ -3843,10 +3790,10 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="12"/>
-      <c r="H23" s="120"/>
+      <c r="H23" s="112"/>
       <c r="I23" s="12"/>
       <c r="J23" s="12"/>
-      <c r="K23" s="136"/>
+      <c r="K23" s="124"/>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="14"/>
@@ -3855,10 +3802,10 @@
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
       <c r="G24" s="12"/>
-      <c r="H24" s="120"/>
+      <c r="H24" s="112"/>
       <c r="I24" s="12"/>
       <c r="J24" s="12"/>
-      <c r="K24" s="72"/>
+      <c r="K24" s="67"/>
     </row>
     <row r="25" spans="2:11">
       <c r="B25" s="14"/>
@@ -3867,10 +3814,10 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="12"/>
-      <c r="H25" s="120"/>
+      <c r="H25" s="112"/>
       <c r="I25" s="12"/>
       <c r="J25" s="12"/>
-      <c r="K25" s="72"/>
+      <c r="K25" s="67"/>
     </row>
     <row r="26" spans="2:11">
       <c r="B26" s="14"/>
@@ -3879,10 +3826,10 @@
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
       <c r="G26" s="12"/>
-      <c r="H26" s="120"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
-      <c r="K26" s="72"/>
+      <c r="K26" s="67"/>
     </row>
     <row r="27" spans="2:11">
       <c r="B27" s="14"/>
@@ -3891,10 +3838,10 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="12"/>
-      <c r="H27" s="120"/>
+      <c r="H27" s="112"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
-      <c r="K27" s="72"/>
+      <c r="K27" s="67"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="14"/>
@@ -3903,10 +3850,10 @@
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
       <c r="G28" s="12"/>
-      <c r="H28" s="120"/>
+      <c r="H28" s="112"/>
       <c r="I28" s="12"/>
       <c r="J28" s="12"/>
-      <c r="K28" s="72"/>
+      <c r="K28" s="67"/>
     </row>
     <row r="29" spans="2:11">
       <c r="B29" s="14"/>
@@ -3915,10 +3862,10 @@
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
       <c r="G29" s="12"/>
-      <c r="H29" s="120"/>
+      <c r="H29" s="112"/>
       <c r="I29" s="12"/>
       <c r="J29" s="12"/>
-      <c r="K29" s="72"/>
+      <c r="K29" s="67"/>
     </row>
     <row r="30" spans="2:11">
       <c r="B30" s="14"/>
@@ -3927,10 +3874,10 @@
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
       <c r="G30" s="12"/>
-      <c r="H30" s="120"/>
+      <c r="H30" s="112"/>
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
-      <c r="K30" s="72"/>
+      <c r="K30" s="67"/>
     </row>
     <row r="31" spans="2:11">
       <c r="B31" s="14"/>
@@ -3939,22 +3886,19 @@
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
       <c r="G31" s="12"/>
-      <c r="H31" s="120"/>
+      <c r="H31" s="112"/>
       <c r="I31" s="12"/>
       <c r="J31" s="12"/>
-      <c r="K31" s="72"/>
+      <c r="K31" s="67"/>
     </row>
     <row r="32" spans="2:11">
       <c r="B32" s="14"/>
       <c r="C32" s="12"/>
-      <c r="D32" s="121"/>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
       <c r="G32" s="12"/>
-      <c r="H32" s="120"/>
+      <c r="H32" s="112"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
-      <c r="K32" s="72"/>
+      <c r="K32" s="67"/>
     </row>
     <row r="33" spans="2:11">
       <c r="B33" s="14"/>
@@ -3963,10 +3907,10 @@
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
       <c r="G33" s="12"/>
-      <c r="H33" s="120"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
-      <c r="K33" s="72"/>
+      <c r="K33" s="67"/>
     </row>
     <row r="34" spans="2:11">
       <c r="B34" s="14"/>
@@ -3975,10 +3919,10 @@
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
       <c r="G34" s="12"/>
-      <c r="H34" s="120"/>
+      <c r="H34" s="112"/>
       <c r="I34" s="12"/>
       <c r="J34" s="12"/>
-      <c r="K34" s="72"/>
+      <c r="K34" s="67"/>
     </row>
     <row r="35" spans="2:11">
       <c r="B35" s="14"/>
@@ -3987,10 +3931,10 @@
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
       <c r="G35" s="12"/>
-      <c r="H35" s="120"/>
+      <c r="H35" s="112"/>
       <c r="I35" s="12"/>
       <c r="J35" s="12"/>
-      <c r="K35" s="72"/>
+      <c r="K35" s="67"/>
     </row>
     <row r="36" spans="2:11">
       <c r="B36" s="14"/>
@@ -3999,10 +3943,10 @@
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
       <c r="G36" s="12"/>
-      <c r="H36" s="120"/>
+      <c r="H36" s="112"/>
       <c r="I36" s="12"/>
       <c r="J36" s="12"/>
-      <c r="K36" s="72"/>
+      <c r="K36" s="67"/>
     </row>
     <row r="37" spans="2:11">
       <c r="B37" s="14"/>
@@ -4011,22 +3955,21 @@
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
       <c r="G37" s="12"/>
-      <c r="H37" s="120"/>
+      <c r="H37" s="112"/>
       <c r="I37" s="12"/>
       <c r="J37" s="12"/>
-      <c r="K37" s="72"/>
+      <c r="K37" s="67"/>
     </row>
     <row r="38" spans="2:11">
       <c r="B38" s="14"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="121"/>
       <c r="F38" s="12"/>
       <c r="G38" s="12"/>
-      <c r="H38" s="120"/>
+      <c r="H38" s="112"/>
       <c r="I38" s="12"/>
       <c r="J38" s="12"/>
-      <c r="K38" s="72"/>
+      <c r="K38" s="67"/>
     </row>
     <row r="39" spans="2:11">
       <c r="B39" s="14"/>
@@ -4034,22 +3977,20 @@
       <c r="D39" s="12"/>
       <c r="F39" s="12"/>
       <c r="G39" s="12"/>
-      <c r="H39" s="120"/>
+      <c r="H39" s="112"/>
       <c r="I39" s="12"/>
       <c r="J39" s="12"/>
-      <c r="K39" s="72"/>
+      <c r="K39" s="67"/>
     </row>
     <row r="40" spans="2:11">
       <c r="B40" s="14"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
-      <c r="E40" s="121"/>
-      <c r="F40" s="121"/>
       <c r="G40" s="12"/>
-      <c r="H40" s="120"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="12"/>
       <c r="J40" s="12"/>
-      <c r="K40" s="72"/>
+      <c r="K40" s="67"/>
     </row>
     <row r="41" spans="2:11">
       <c r="B41" s="14"/>
@@ -4058,10 +3999,10 @@
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
       <c r="G41" s="12"/>
-      <c r="H41" s="120"/>
+      <c r="H41" s="112"/>
       <c r="I41" s="12"/>
       <c r="J41" s="12"/>
-      <c r="K41" s="72"/>
+      <c r="K41" s="67"/>
     </row>
     <row r="42" spans="2:11">
       <c r="B42" s="14"/>
@@ -4070,10 +4011,10 @@
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
       <c r="G42" s="12"/>
-      <c r="H42" s="120"/>
+      <c r="H42" s="112"/>
       <c r="I42" s="12"/>
       <c r="J42" s="12"/>
-      <c r="K42" s="72"/>
+      <c r="K42" s="67"/>
     </row>
     <row r="43" spans="2:11">
       <c r="B43" s="14"/>
@@ -4082,10 +4023,10 @@
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
       <c r="G43" s="12"/>
-      <c r="H43" s="120"/>
+      <c r="H43" s="112"/>
       <c r="I43" s="12"/>
       <c r="J43" s="12"/>
-      <c r="K43" s="72"/>
+      <c r="K43" s="67"/>
     </row>
     <row r="44" spans="2:11">
       <c r="B44" s="14"/>
@@ -4094,10 +4035,10 @@
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
       <c r="G44" s="12"/>
-      <c r="H44" s="120"/>
+      <c r="H44" s="112"/>
       <c r="I44" s="12"/>
       <c r="J44" s="12"/>
-      <c r="K44" s="72"/>
+      <c r="K44" s="67"/>
     </row>
     <row r="45" spans="2:11">
       <c r="B45" s="14"/>
@@ -4106,10 +4047,10 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="12"/>
-      <c r="H45" s="120"/>
+      <c r="H45" s="112"/>
       <c r="I45" s="12"/>
       <c r="J45" s="12"/>
-      <c r="K45" s="72"/>
+      <c r="K45" s="67"/>
     </row>
     <row r="46" spans="2:11">
       <c r="B46" s="14"/>
@@ -4118,10 +4059,10 @@
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
       <c r="G46" s="12"/>
-      <c r="H46" s="120"/>
+      <c r="H46" s="112"/>
       <c r="I46" s="12"/>
       <c r="J46" s="12"/>
-      <c r="K46" s="72"/>
+      <c r="K46" s="67"/>
     </row>
     <row r="47" spans="2:11">
       <c r="B47" s="14"/>
@@ -4130,10 +4071,10 @@
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
       <c r="G47" s="12"/>
-      <c r="H47" s="120"/>
+      <c r="H47" s="112"/>
       <c r="I47" s="12"/>
       <c r="J47" s="12"/>
-      <c r="K47" s="72"/>
+      <c r="K47" s="67"/>
     </row>
     <row r="48" spans="2:11">
       <c r="B48" s="14"/>
@@ -4142,22 +4083,20 @@
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
       <c r="G48" s="12"/>
-      <c r="H48" s="120"/>
+      <c r="H48" s="112"/>
       <c r="I48" s="12"/>
       <c r="J48" s="12"/>
-      <c r="K48" s="72"/>
+      <c r="K48" s="67"/>
     </row>
     <row r="49" spans="2:11">
       <c r="B49" s="14"/>
       <c r="C49" s="12"/>
-      <c r="D49" s="121"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="121"/>
+      <c r="E49" s="103"/>
       <c r="G49" s="12"/>
-      <c r="H49" s="120"/>
+      <c r="H49" s="112"/>
       <c r="I49" s="12"/>
       <c r="J49" s="12"/>
-      <c r="K49" s="72"/>
+      <c r="K49" s="67"/>
     </row>
     <row r="50" spans="2:11">
       <c r="B50" s="14"/>
@@ -4166,1368 +4105,482 @@
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
       <c r="G50" s="12"/>
-      <c r="H50" s="120"/>
+      <c r="H50" s="112"/>
       <c r="I50" s="12"/>
       <c r="J50" s="12"/>
-      <c r="K50" s="72"/>
+      <c r="K50" s="67"/>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="123"/>
-      <c r="C51" s="121"/>
-      <c r="D51" s="121"/>
-      <c r="E51" s="121"/>
-      <c r="F51" s="121"/>
-      <c r="G51" s="121"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="121"/>
-      <c r="K51" s="122"/>
+      <c r="B51" s="114"/>
+      <c r="K51" s="113"/>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="123"/>
-      <c r="G52" s="121"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="121"/>
-      <c r="K52" s="122"/>
+      <c r="B52" s="114"/>
+      <c r="K52" s="113"/>
     </row>
     <row r="53" spans="2:11">
-      <c r="B53" s="123"/>
-      <c r="C53" s="121"/>
-      <c r="D53" s="121"/>
-      <c r="E53" s="121"/>
-      <c r="F53" s="121"/>
-      <c r="G53" s="121"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="121"/>
-      <c r="K53" s="122"/>
+      <c r="B53" s="114"/>
+      <c r="K53" s="113"/>
     </row>
     <row r="54" spans="2:11">
-      <c r="B54" s="123"/>
-      <c r="C54" s="121"/>
-      <c r="D54" s="121"/>
-      <c r="E54" s="121"/>
-      <c r="F54" s="121"/>
-      <c r="G54" s="121"/>
-      <c r="H54" s="124"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="121"/>
-      <c r="K54" s="122"/>
+      <c r="B54" s="114"/>
+      <c r="K54" s="113"/>
     </row>
     <row r="55" spans="2:11">
-      <c r="B55" s="123"/>
-      <c r="C55" s="121"/>
-      <c r="D55" s="121"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="121"/>
-      <c r="H55" s="124"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="121"/>
-      <c r="K55" s="122"/>
+      <c r="B55" s="114"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="K55" s="113"/>
     </row>
     <row r="56" spans="2:11">
-      <c r="B56" s="123"/>
-      <c r="C56" s="121"/>
-      <c r="G56" s="121"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="121"/>
-      <c r="K56" s="122"/>
+      <c r="B56" s="114"/>
+      <c r="K56" s="113"/>
     </row>
     <row r="57" spans="2:11">
-      <c r="B57" s="123"/>
-      <c r="C57" s="121"/>
-      <c r="D57" s="121"/>
-      <c r="E57" s="121"/>
-      <c r="F57" s="121"/>
-      <c r="G57" s="121"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="121"/>
-      <c r="K57" s="122"/>
+      <c r="B57" s="114"/>
+      <c r="K57" s="113"/>
     </row>
     <row r="58" spans="2:11">
-      <c r="B58" s="123"/>
-      <c r="C58" s="121"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="121"/>
-      <c r="K58" s="122"/>
+      <c r="B58" s="114"/>
+      <c r="K58" s="113"/>
     </row>
     <row r="59" spans="2:11">
-      <c r="B59" s="123"/>
-      <c r="C59" s="121"/>
-      <c r="D59" s="121"/>
-      <c r="E59" s="121"/>
-      <c r="F59" s="121"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="124"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="121"/>
-      <c r="K59" s="122"/>
+      <c r="B59" s="114"/>
+      <c r="K59" s="113"/>
     </row>
     <row r="60" spans="2:11">
-      <c r="B60" s="123"/>
-      <c r="C60" s="121"/>
-      <c r="D60" s="121"/>
-      <c r="E60" s="121"/>
-      <c r="F60" s="121"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="124"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="121"/>
-      <c r="K60" s="122"/>
+      <c r="B60" s="114"/>
+      <c r="K60" s="113"/>
     </row>
     <row r="61" spans="2:11">
-      <c r="B61" s="123"/>
-      <c r="C61" s="121"/>
-      <c r="D61" s="121"/>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="124"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="122"/>
+      <c r="B61" s="114"/>
+      <c r="K61" s="113"/>
     </row>
     <row r="62" spans="2:11">
-      <c r="B62" s="123"/>
-      <c r="C62" s="121"/>
-      <c r="D62" s="121"/>
-      <c r="E62" s="121"/>
-      <c r="F62" s="121"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="124"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="121"/>
+      <c r="B62" s="114"/>
     </row>
     <row r="63" spans="2:11">
-      <c r="B63" s="123"/>
-      <c r="C63" s="121"/>
-      <c r="D63" s="121"/>
-      <c r="E63" s="121"/>
-      <c r="F63" s="121"/>
-      <c r="G63" s="121"/>
-      <c r="H63" s="124"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="121"/>
-      <c r="K63" s="122"/>
+      <c r="B63" s="114"/>
+      <c r="K63" s="113"/>
     </row>
     <row r="64" spans="2:11">
-      <c r="B64" s="123"/>
-      <c r="C64" s="121"/>
-      <c r="D64" s="121"/>
-      <c r="E64" s="121"/>
-      <c r="F64" s="121"/>
-      <c r="G64" s="121"/>
-      <c r="H64" s="124"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="121"/>
-      <c r="K64" s="122"/>
+      <c r="B64" s="114"/>
+      <c r="K64" s="113"/>
     </row>
     <row r="65" spans="2:11">
-      <c r="B65" s="123"/>
-      <c r="C65" s="121"/>
-      <c r="D65" s="121"/>
-      <c r="E65" s="121"/>
-      <c r="F65" s="121"/>
-      <c r="G65" s="121"/>
-      <c r="H65" s="124"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="121"/>
-      <c r="K65" s="122"/>
+      <c r="B65" s="114"/>
+      <c r="K65" s="113"/>
     </row>
     <row r="66" spans="2:11">
-      <c r="B66" s="123"/>
-      <c r="C66" s="121"/>
-      <c r="D66" s="135"/>
-      <c r="E66" s="121"/>
-      <c r="F66" s="121"/>
-      <c r="G66" s="121"/>
-      <c r="H66" s="124"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="121"/>
-      <c r="K66" s="122"/>
+      <c r="B66" s="114"/>
+      <c r="D66" s="123"/>
+      <c r="K66" s="113"/>
     </row>
     <row r="67" spans="2:11">
-      <c r="B67" s="123"/>
-      <c r="C67" s="121"/>
-      <c r="D67" s="135"/>
-      <c r="E67" s="121"/>
-      <c r="F67" s="121"/>
-      <c r="G67" s="121"/>
-      <c r="H67" s="124"/>
-      <c r="I67" s="121"/>
-      <c r="J67" s="121"/>
-      <c r="K67" s="122"/>
+      <c r="B67" s="114"/>
+      <c r="D67" s="123"/>
+      <c r="K67" s="113"/>
     </row>
     <row r="68" spans="2:11">
-      <c r="B68" s="123"/>
-      <c r="C68" s="121"/>
-      <c r="D68" s="135"/>
-      <c r="E68" s="121"/>
-      <c r="F68" s="135"/>
-      <c r="G68" s="121"/>
-      <c r="H68" s="124"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="121"/>
-      <c r="K68" s="122"/>
+      <c r="B68" s="114"/>
+      <c r="D68" s="123"/>
+      <c r="F68" s="123"/>
+      <c r="K68" s="113"/>
     </row>
     <row r="69" spans="2:11">
-      <c r="B69" s="123"/>
-      <c r="C69" s="121"/>
-      <c r="G69" s="121"/>
-      <c r="H69" s="124"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="121"/>
-      <c r="K69" s="122"/>
+      <c r="B69" s="114"/>
+      <c r="K69" s="113"/>
     </row>
     <row r="70" spans="2:11">
-      <c r="B70" s="123"/>
-      <c r="C70" s="121"/>
-      <c r="G70" s="121"/>
-      <c r="H70" s="124"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="121"/>
-      <c r="K70" s="122"/>
+      <c r="B70" s="114"/>
+      <c r="K70" s="113"/>
     </row>
     <row r="71" spans="2:11">
-      <c r="B71" s="123"/>
-      <c r="C71" s="121"/>
-      <c r="G71" s="121"/>
-      <c r="H71" s="124"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="121"/>
-      <c r="K71" s="122"/>
+      <c r="B71" s="114"/>
+      <c r="K71" s="113"/>
     </row>
     <row r="72" spans="2:11">
-      <c r="B72" s="123"/>
-      <c r="C72" s="121"/>
-      <c r="G72" s="121"/>
-      <c r="H72" s="124"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="121"/>
-      <c r="K72" s="122"/>
+      <c r="B72" s="114"/>
+      <c r="K72" s="113"/>
     </row>
     <row r="73" spans="2:11">
-      <c r="B73" s="123"/>
-      <c r="C73" s="121"/>
-      <c r="G73" s="121"/>
-      <c r="H73" s="124"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="121"/>
-      <c r="K73" s="132"/>
+      <c r="B73" s="114"/>
+      <c r="K73" s="121"/>
     </row>
     <row r="74" spans="2:11">
-      <c r="B74" s="123"/>
-      <c r="C74" s="121"/>
-      <c r="D74" s="121"/>
-      <c r="E74" s="121"/>
-      <c r="F74" s="121"/>
-      <c r="G74" s="121"/>
-      <c r="H74" s="124"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="121"/>
-      <c r="K74" s="122"/>
+      <c r="B74" s="114"/>
+      <c r="K74" s="113"/>
     </row>
     <row r="75" spans="2:11">
-      <c r="B75" s="123"/>
-      <c r="C75" s="121"/>
-      <c r="D75" s="121"/>
-      <c r="E75" s="121"/>
-      <c r="F75" s="121"/>
-      <c r="G75" s="121"/>
-      <c r="H75" s="124"/>
-      <c r="I75" s="121"/>
-      <c r="J75" s="121"/>
-      <c r="K75" s="122"/>
+      <c r="B75" s="114"/>
+      <c r="K75" s="113"/>
     </row>
     <row r="76" spans="2:11">
-      <c r="B76" s="123"/>
-      <c r="C76" s="121"/>
-      <c r="D76" s="121"/>
-      <c r="E76" s="121"/>
-      <c r="F76" s="121"/>
-      <c r="G76" s="121"/>
-      <c r="H76" s="124"/>
-      <c r="I76" s="121"/>
-      <c r="J76" s="121"/>
-      <c r="K76" s="122"/>
+      <c r="B76" s="114"/>
+      <c r="K76" s="113"/>
     </row>
     <row r="77" spans="2:11">
-      <c r="B77" s="123"/>
-      <c r="C77" s="121"/>
-      <c r="D77" s="121"/>
-      <c r="E77" s="121"/>
-      <c r="F77" s="121"/>
-      <c r="G77" s="121"/>
-      <c r="H77" s="124"/>
-      <c r="I77" s="121"/>
-      <c r="J77" s="121"/>
-      <c r="K77" s="122"/>
+      <c r="B77" s="114"/>
+      <c r="K77" s="113"/>
     </row>
     <row r="78" spans="2:11">
-      <c r="B78" s="123"/>
-      <c r="C78" s="121"/>
-      <c r="G78" s="121"/>
-      <c r="H78" s="124"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="121"/>
-      <c r="K78" s="122"/>
+      <c r="B78" s="114"/>
+      <c r="K78" s="113"/>
     </row>
     <row r="79" spans="2:11">
-      <c r="B79" s="123"/>
-      <c r="C79" s="121"/>
-      <c r="G79" s="121"/>
-      <c r="H79" s="124"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="121"/>
-      <c r="K79" s="122"/>
+      <c r="B79" s="114"/>
+      <c r="K79" s="113"/>
     </row>
     <row r="80" spans="2:11">
-      <c r="B80" s="123"/>
-      <c r="C80" s="121"/>
-      <c r="D80" s="134"/>
-      <c r="G80" s="121"/>
-      <c r="H80" s="124"/>
-      <c r="I80" s="121"/>
-      <c r="J80" s="121"/>
-      <c r="K80" s="122"/>
+      <c r="B80" s="114"/>
+      <c r="D80" s="123"/>
+      <c r="K80" s="113"/>
     </row>
     <row r="81" spans="2:11">
-      <c r="B81" s="123"/>
-      <c r="C81" s="121"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="121"/>
-      <c r="F81" s="131"/>
-      <c r="G81" s="121"/>
-      <c r="H81" s="124"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="121"/>
-      <c r="K81" s="122"/>
+      <c r="B81" s="114"/>
+      <c r="F81" s="120"/>
+      <c r="K81" s="113"/>
     </row>
     <row r="82" spans="2:11">
-      <c r="B82" s="123"/>
-      <c r="C82" s="121"/>
-      <c r="D82" s="121"/>
-      <c r="E82" s="121"/>
-      <c r="F82" s="131"/>
-      <c r="G82" s="121"/>
-      <c r="H82" s="124"/>
-      <c r="I82" s="121"/>
-      <c r="J82" s="121"/>
-      <c r="K82" s="122"/>
+      <c r="B82" s="114"/>
+      <c r="F82" s="120"/>
+      <c r="K82" s="113"/>
     </row>
     <row r="83" spans="2:11">
-      <c r="B83" s="123"/>
-      <c r="C83" s="121"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="121"/>
-      <c r="F83" s="121"/>
-      <c r="G83" s="121"/>
-      <c r="H83" s="124"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="121"/>
-      <c r="K83" s="122"/>
+      <c r="B83" s="114"/>
+      <c r="K83" s="113"/>
     </row>
     <row r="84" spans="2:11">
-      <c r="B84" s="123"/>
-      <c r="C84" s="121"/>
-      <c r="D84" s="121"/>
-      <c r="E84" s="121"/>
-      <c r="F84" s="121"/>
-      <c r="G84" s="121"/>
-      <c r="H84" s="124"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="121"/>
-      <c r="K84" s="122"/>
+      <c r="B84" s="114"/>
+      <c r="K84" s="113"/>
     </row>
     <row r="85" spans="2:11">
-      <c r="B85" s="123"/>
-      <c r="C85" s="121"/>
-      <c r="D85" s="121"/>
-      <c r="E85" s="121"/>
-      <c r="F85" s="121"/>
-      <c r="G85" s="121"/>
-      <c r="H85" s="124"/>
-      <c r="I85" s="121"/>
-      <c r="J85" s="121"/>
-      <c r="K85" s="122"/>
+      <c r="B85" s="114"/>
+      <c r="K85" s="113"/>
     </row>
     <row r="86" spans="2:11">
-      <c r="B86" s="123"/>
-      <c r="C86" s="121"/>
-      <c r="D86" s="121"/>
-      <c r="E86" s="121"/>
-      <c r="F86" s="121"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="124"/>
-      <c r="I86" s="121"/>
-      <c r="J86" s="121"/>
-      <c r="K86" s="122"/>
+      <c r="B86" s="114"/>
+      <c r="K86" s="113"/>
     </row>
     <row r="87" spans="2:11">
-      <c r="B87" s="123"/>
-      <c r="C87" s="121"/>
-      <c r="D87" s="121"/>
-      <c r="E87" s="121"/>
-      <c r="F87" s="121"/>
-      <c r="G87" s="121"/>
-      <c r="H87" s="124"/>
-      <c r="I87" s="121"/>
-      <c r="J87" s="121"/>
-      <c r="K87" s="122"/>
+      <c r="B87" s="114"/>
+      <c r="K87" s="113"/>
     </row>
     <row r="88" spans="2:11">
-      <c r="B88" s="123"/>
-      <c r="C88" s="121"/>
-      <c r="D88" s="121"/>
-      <c r="E88" s="121"/>
-      <c r="F88" s="121"/>
-      <c r="G88" s="121"/>
-      <c r="H88" s="124"/>
-      <c r="I88" s="121"/>
-      <c r="J88" s="121"/>
-      <c r="K88" s="122"/>
+      <c r="B88" s="114"/>
+      <c r="K88" s="113"/>
     </row>
     <row r="89" spans="2:11">
-      <c r="B89" s="123"/>
-      <c r="C89" s="121"/>
-      <c r="D89" s="121"/>
-      <c r="E89" s="121"/>
-      <c r="F89" s="121"/>
-      <c r="G89" s="121"/>
-      <c r="H89" s="124"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="121"/>
-      <c r="K89" s="122"/>
+      <c r="B89" s="114"/>
+      <c r="K89" s="113"/>
     </row>
     <row r="90" spans="2:11">
-      <c r="B90" s="123"/>
-      <c r="C90" s="121"/>
-      <c r="D90" s="121"/>
-      <c r="E90" s="121"/>
-      <c r="F90" s="121"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="124"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="121"/>
-      <c r="K90" s="122"/>
+      <c r="B90" s="114"/>
+      <c r="K90" s="113"/>
     </row>
     <row r="91" spans="2:11">
-      <c r="B91" s="123"/>
-      <c r="C91" s="121"/>
-      <c r="D91" s="121"/>
-      <c r="E91" s="121"/>
-      <c r="F91" s="121"/>
-      <c r="G91" s="121"/>
-      <c r="H91" s="124"/>
-      <c r="I91" s="121"/>
-      <c r="J91" s="121"/>
-      <c r="K91" s="122"/>
+      <c r="B91" s="114"/>
+      <c r="K91" s="113"/>
     </row>
     <row r="92" spans="2:11">
-      <c r="B92" s="123"/>
-      <c r="C92" s="121"/>
-      <c r="D92" s="121"/>
-      <c r="E92" s="121"/>
-      <c r="F92" s="121"/>
-      <c r="G92" s="121"/>
-      <c r="H92" s="124"/>
-      <c r="I92" s="121"/>
-      <c r="J92" s="121"/>
-      <c r="K92" s="122"/>
+      <c r="B92" s="114"/>
+      <c r="K92" s="113"/>
     </row>
     <row r="93" spans="2:11">
-      <c r="B93" s="123"/>
-      <c r="C93" s="121"/>
-      <c r="D93" s="121"/>
-      <c r="E93" s="121"/>
-      <c r="F93" s="121"/>
-      <c r="G93" s="121"/>
-      <c r="H93" s="124"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="121"/>
-      <c r="K93" s="122"/>
+      <c r="B93" s="114"/>
+      <c r="K93" s="113"/>
     </row>
     <row r="94" spans="2:11">
-      <c r="B94" s="123"/>
-      <c r="C94" s="121"/>
-      <c r="D94" s="121"/>
-      <c r="E94" s="121"/>
-      <c r="F94" s="121"/>
-      <c r="G94" s="121"/>
-      <c r="H94" s="124"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="121"/>
-      <c r="K94" s="122"/>
+      <c r="B94" s="114"/>
+      <c r="K94" s="113"/>
     </row>
     <row r="95" spans="2:11">
-      <c r="B95" s="123"/>
-      <c r="C95" s="121"/>
-      <c r="D95" s="121"/>
-      <c r="E95" s="121"/>
-      <c r="F95" s="121"/>
-      <c r="G95" s="121"/>
-      <c r="H95" s="124"/>
-      <c r="I95" s="121"/>
-      <c r="J95" s="121"/>
-      <c r="K95" s="122"/>
+      <c r="B95" s="114"/>
+      <c r="K95" s="113"/>
     </row>
     <row r="96" spans="2:11">
-      <c r="B96" s="123"/>
-      <c r="C96" s="121"/>
-      <c r="D96" s="121"/>
-      <c r="E96" s="121"/>
-      <c r="F96" s="121"/>
-      <c r="G96" s="121"/>
-      <c r="H96" s="124"/>
-      <c r="I96" s="121"/>
-      <c r="J96" s="121"/>
-      <c r="K96" s="122"/>
+      <c r="B96" s="114"/>
+      <c r="K96" s="113"/>
     </row>
     <row r="97" spans="2:11">
-      <c r="B97" s="123"/>
-      <c r="C97" s="121"/>
-      <c r="D97" s="121"/>
-      <c r="E97" s="121"/>
-      <c r="F97" s="121"/>
-      <c r="G97" s="121"/>
-      <c r="H97" s="124"/>
-      <c r="I97" s="121"/>
-      <c r="J97" s="121"/>
-      <c r="K97" s="122"/>
+      <c r="B97" s="114"/>
+      <c r="K97" s="113"/>
     </row>
     <row r="98" spans="2:11">
-      <c r="B98" s="123"/>
-      <c r="C98" s="121"/>
-      <c r="D98" s="121"/>
-      <c r="E98" s="121"/>
-      <c r="F98" s="121"/>
-      <c r="G98" s="121"/>
-      <c r="H98" s="124"/>
-      <c r="I98" s="121"/>
-      <c r="J98" s="121"/>
-      <c r="K98" s="122"/>
+      <c r="B98" s="114"/>
+      <c r="K98" s="113"/>
     </row>
     <row r="99" spans="2:11">
-      <c r="B99" s="123"/>
-      <c r="C99" s="121"/>
-      <c r="D99" s="121"/>
-      <c r="E99" s="121"/>
-      <c r="F99" s="121"/>
-      <c r="G99" s="121"/>
-      <c r="H99" s="124"/>
-      <c r="I99" s="121"/>
-      <c r="J99" s="121"/>
-      <c r="K99" s="122"/>
+      <c r="B99" s="114"/>
+      <c r="K99" s="113"/>
     </row>
     <row r="100" spans="2:11">
-      <c r="B100" s="123"/>
-      <c r="C100" s="121"/>
-      <c r="D100" s="121"/>
-      <c r="E100" s="121"/>
-      <c r="F100" s="121"/>
-      <c r="G100" s="121"/>
-      <c r="H100" s="124"/>
-      <c r="I100" s="121"/>
-      <c r="J100" s="121"/>
-      <c r="K100" s="122"/>
+      <c r="B100" s="114"/>
+      <c r="K100" s="113"/>
     </row>
     <row r="101" spans="2:11">
-      <c r="B101" s="123"/>
-      <c r="C101" s="121"/>
-      <c r="D101" s="121"/>
-      <c r="E101" s="121"/>
-      <c r="F101" s="121"/>
-      <c r="G101" s="121"/>
-      <c r="H101" s="124"/>
-      <c r="I101" s="121"/>
-      <c r="J101" s="121"/>
-      <c r="K101" s="122"/>
+      <c r="B101" s="114"/>
+      <c r="K101" s="113"/>
     </row>
     <row r="102" spans="2:11">
-      <c r="B102" s="123"/>
-      <c r="C102" s="121"/>
-      <c r="D102" s="121"/>
-      <c r="E102" s="121"/>
-      <c r="F102" s="121"/>
-      <c r="G102" s="121"/>
-      <c r="H102" s="124"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="121"/>
-      <c r="K102" s="122"/>
+      <c r="B102" s="114"/>
+      <c r="K102" s="113"/>
     </row>
     <row r="103" spans="2:11">
-      <c r="B103" s="123"/>
-      <c r="C103" s="121"/>
-      <c r="D103" s="121"/>
-      <c r="E103" s="121"/>
-      <c r="F103" s="121"/>
-      <c r="G103" s="121"/>
-      <c r="H103" s="124"/>
-      <c r="I103" s="121"/>
-      <c r="J103" s="121"/>
-      <c r="K103" s="122"/>
+      <c r="B103" s="114"/>
+      <c r="K103" s="113"/>
     </row>
     <row r="104" spans="2:11">
-      <c r="B104" s="123"/>
-      <c r="C104" s="121"/>
-      <c r="D104" s="121"/>
-      <c r="E104" s="121"/>
-      <c r="F104" s="121"/>
-      <c r="G104" s="121"/>
-      <c r="H104" s="124"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="121"/>
-      <c r="K104" s="122"/>
+      <c r="B104" s="114"/>
+      <c r="K104" s="113"/>
     </row>
     <row r="105" spans="2:11">
-      <c r="B105" s="123"/>
-      <c r="C105" s="121"/>
-      <c r="D105" s="121"/>
-      <c r="E105" s="121"/>
-      <c r="F105" s="121"/>
-      <c r="G105" s="121"/>
-      <c r="H105" s="124"/>
-      <c r="I105" s="121"/>
-      <c r="J105" s="121"/>
-      <c r="K105" s="122"/>
+      <c r="B105" s="114"/>
+      <c r="K105" s="113"/>
     </row>
     <row r="106" spans="2:11">
-      <c r="B106" s="123"/>
-      <c r="C106" s="121"/>
-      <c r="D106" s="121"/>
-      <c r="E106" s="121"/>
-      <c r="F106" s="121"/>
-      <c r="G106" s="121"/>
-      <c r="H106" s="124"/>
-      <c r="I106" s="121"/>
-      <c r="J106" s="121"/>
-      <c r="K106" s="122"/>
+      <c r="B106" s="114"/>
+      <c r="K106" s="113"/>
     </row>
     <row r="107" spans="2:11">
-      <c r="B107" s="123"/>
-      <c r="C107" s="121"/>
-      <c r="D107" s="121"/>
-      <c r="E107" s="121"/>
-      <c r="F107" s="121"/>
-      <c r="G107" s="121"/>
-      <c r="H107" s="124"/>
-      <c r="I107" s="121"/>
-      <c r="J107" s="121"/>
-      <c r="K107" s="122"/>
+      <c r="B107" s="114"/>
+      <c r="K107" s="113"/>
     </row>
     <row r="108" spans="2:11">
-      <c r="B108" s="123"/>
-      <c r="C108" s="121"/>
-      <c r="D108" s="121"/>
-      <c r="E108" s="121"/>
-      <c r="F108" s="121"/>
-      <c r="G108" s="121"/>
-      <c r="H108" s="124"/>
-      <c r="I108" s="121"/>
-      <c r="J108" s="121"/>
-      <c r="K108" s="122"/>
+      <c r="B108" s="114"/>
+      <c r="K108" s="113"/>
     </row>
     <row r="109" spans="2:11">
-      <c r="B109" s="123"/>
-      <c r="C109" s="121"/>
-      <c r="D109" s="121"/>
-      <c r="E109" s="121"/>
-      <c r="F109" s="121"/>
-      <c r="G109" s="121"/>
-      <c r="H109" s="124"/>
-      <c r="I109" s="121"/>
-      <c r="J109" s="121"/>
-      <c r="K109" s="122"/>
+      <c r="B109" s="114"/>
+      <c r="K109" s="113"/>
     </row>
     <row r="110" spans="2:11">
-      <c r="B110" s="123"/>
-      <c r="C110" s="121"/>
-      <c r="D110" s="121"/>
-      <c r="E110" s="121"/>
-      <c r="F110" s="121"/>
-      <c r="G110" s="121"/>
-      <c r="H110" s="124"/>
-      <c r="I110" s="121"/>
-      <c r="J110" s="121"/>
-      <c r="K110" s="122"/>
+      <c r="B110" s="114"/>
+      <c r="K110" s="113"/>
     </row>
     <row r="111" spans="2:11">
-      <c r="B111" s="123"/>
-      <c r="C111" s="121"/>
-      <c r="D111" s="121"/>
-      <c r="E111" s="121"/>
-      <c r="F111" s="121"/>
-      <c r="G111" s="121"/>
-      <c r="H111" s="124"/>
-      <c r="I111" s="121"/>
-      <c r="J111" s="121"/>
-      <c r="K111" s="122"/>
+      <c r="B111" s="114"/>
+      <c r="K111" s="113"/>
     </row>
     <row r="112" spans="2:11">
-      <c r="B112" s="123"/>
-      <c r="C112" s="121"/>
-      <c r="D112" s="121"/>
-      <c r="E112" s="121"/>
-      <c r="F112" s="121"/>
-      <c r="G112" s="121"/>
-      <c r="H112" s="124"/>
-      <c r="I112" s="121"/>
-      <c r="J112" s="121"/>
-      <c r="K112" s="122"/>
+      <c r="B112" s="114"/>
+      <c r="K112" s="113"/>
     </row>
     <row r="113" spans="2:11">
-      <c r="B113" s="123"/>
-      <c r="C113" s="121"/>
-      <c r="D113" s="121"/>
-      <c r="E113" s="121"/>
-      <c r="F113" s="121"/>
-      <c r="G113" s="121"/>
-      <c r="H113" s="124"/>
-      <c r="I113" s="121"/>
-      <c r="J113" s="121"/>
-      <c r="K113" s="122"/>
+      <c r="B113" s="114"/>
+      <c r="K113" s="113"/>
     </row>
     <row r="114" spans="2:11">
-      <c r="B114" s="123"/>
-      <c r="C114" s="121"/>
-      <c r="D114" s="121"/>
-      <c r="E114" s="121"/>
-      <c r="F114" s="121"/>
-      <c r="G114" s="121"/>
-      <c r="H114" s="124"/>
-      <c r="I114" s="121"/>
-      <c r="J114" s="121"/>
-      <c r="K114" s="122"/>
+      <c r="B114" s="114"/>
+      <c r="K114" s="113"/>
     </row>
     <row r="115" spans="2:11">
-      <c r="B115" s="123"/>
-      <c r="C115" s="121"/>
-      <c r="D115" s="121"/>
-      <c r="E115" s="121"/>
-      <c r="F115" s="121"/>
-      <c r="G115" s="121"/>
-      <c r="H115" s="124"/>
-      <c r="I115" s="121"/>
-      <c r="J115" s="121"/>
-      <c r="K115" s="122"/>
+      <c r="B115" s="114"/>
+      <c r="K115" s="113"/>
     </row>
     <row r="116" spans="2:11">
-      <c r="B116" s="123"/>
-      <c r="C116" s="121"/>
-      <c r="D116" s="121"/>
-      <c r="E116" s="121"/>
-      <c r="F116" s="121"/>
-      <c r="G116" s="121"/>
-      <c r="H116" s="124"/>
-      <c r="I116" s="121"/>
-      <c r="J116" s="121"/>
-      <c r="K116" s="122"/>
+      <c r="B116" s="114"/>
+      <c r="K116" s="113"/>
     </row>
     <row r="117" spans="2:11">
-      <c r="B117" s="123"/>
-      <c r="C117" s="121"/>
-      <c r="D117" s="121"/>
-      <c r="E117" s="121"/>
-      <c r="F117" s="121"/>
-      <c r="G117" s="121"/>
-      <c r="H117" s="124"/>
-      <c r="I117" s="121"/>
-      <c r="J117" s="121"/>
-      <c r="K117" s="122"/>
+      <c r="B117" s="114"/>
+      <c r="K117" s="113"/>
     </row>
     <row r="118" spans="2:11">
-      <c r="B118" s="123"/>
-      <c r="C118" s="121"/>
-      <c r="D118" s="121"/>
-      <c r="E118" s="121"/>
-      <c r="F118" s="121"/>
-      <c r="G118" s="121"/>
-      <c r="H118" s="124"/>
-      <c r="I118" s="121"/>
-      <c r="J118" s="121"/>
-      <c r="K118" s="122"/>
+      <c r="B118" s="114"/>
+      <c r="K118" s="113"/>
     </row>
     <row r="119" spans="2:11">
-      <c r="B119" s="123"/>
-      <c r="C119" s="121"/>
-      <c r="D119" s="121"/>
-      <c r="E119" s="121"/>
-      <c r="F119" s="121"/>
-      <c r="G119" s="121"/>
-      <c r="H119" s="124"/>
-      <c r="I119" s="121"/>
-      <c r="J119" s="121"/>
-      <c r="K119" s="122"/>
+      <c r="B119" s="114"/>
+      <c r="K119" s="113"/>
     </row>
     <row r="120" spans="2:11">
-      <c r="B120" s="123"/>
-      <c r="C120" s="121"/>
-      <c r="D120" s="121"/>
-      <c r="E120" s="121"/>
-      <c r="F120" s="121"/>
-      <c r="G120" s="121"/>
-      <c r="H120" s="124"/>
-      <c r="I120" s="121"/>
-      <c r="J120" s="121"/>
-      <c r="K120" s="122"/>
+      <c r="B120" s="114"/>
+      <c r="K120" s="113"/>
     </row>
     <row r="121" spans="2:11">
-      <c r="B121" s="123"/>
-      <c r="C121" s="121"/>
-      <c r="D121" s="121"/>
-      <c r="E121" s="121"/>
-      <c r="F121" s="121"/>
-      <c r="G121" s="121"/>
-      <c r="H121" s="124"/>
-      <c r="I121" s="121"/>
-      <c r="J121" s="121"/>
-      <c r="K121" s="122"/>
+      <c r="B121" s="114"/>
+      <c r="K121" s="113"/>
     </row>
     <row r="122" spans="2:11">
-      <c r="B122" s="123"/>
-      <c r="C122" s="121"/>
-      <c r="D122" s="121"/>
-      <c r="E122" s="121"/>
-      <c r="F122" s="121"/>
-      <c r="G122" s="121"/>
-      <c r="H122" s="124"/>
-      <c r="I122" s="121"/>
-      <c r="J122" s="121"/>
-      <c r="K122" s="122"/>
+      <c r="B122" s="114"/>
+      <c r="K122" s="113"/>
     </row>
     <row r="123" spans="2:11">
-      <c r="B123" s="123"/>
-      <c r="C123" s="121"/>
-      <c r="D123" s="121"/>
-      <c r="E123" s="121"/>
-      <c r="F123" s="121"/>
-      <c r="G123" s="121"/>
-      <c r="H123" s="124"/>
-      <c r="I123" s="121"/>
-      <c r="J123" s="121"/>
-      <c r="K123" s="122"/>
+      <c r="B123" s="114"/>
+      <c r="K123" s="113"/>
     </row>
     <row r="124" spans="2:11">
-      <c r="B124" s="123"/>
-      <c r="C124" s="121"/>
-      <c r="D124" s="121"/>
-      <c r="E124" s="121"/>
-      <c r="F124" s="121"/>
-      <c r="G124" s="121"/>
-      <c r="H124" s="124"/>
-      <c r="I124" s="121"/>
-      <c r="J124" s="121"/>
-      <c r="K124" s="122"/>
+      <c r="B124" s="114"/>
+      <c r="K124" s="113"/>
     </row>
     <row r="125" spans="2:11">
-      <c r="B125" s="123"/>
-      <c r="C125" s="121"/>
-      <c r="D125" s="121"/>
-      <c r="E125" s="121"/>
-      <c r="F125" s="121"/>
-      <c r="G125" s="121"/>
-      <c r="H125" s="124"/>
-      <c r="I125" s="121"/>
-      <c r="J125" s="121"/>
-      <c r="K125" s="122"/>
+      <c r="B125" s="114"/>
+      <c r="K125" s="113"/>
     </row>
     <row r="126" spans="2:11">
-      <c r="B126" s="123"/>
-      <c r="C126" s="121"/>
-      <c r="D126" s="121"/>
-      <c r="E126" s="121"/>
-      <c r="F126" s="121"/>
-      <c r="G126" s="121"/>
-      <c r="H126" s="124"/>
-      <c r="I126" s="121"/>
-      <c r="J126" s="121"/>
-      <c r="K126" s="122"/>
+      <c r="B126" s="114"/>
+      <c r="K126" s="113"/>
     </row>
     <row r="127" spans="2:11">
-      <c r="B127" s="123"/>
-      <c r="C127" s="121"/>
-      <c r="D127" s="121"/>
-      <c r="E127" s="121"/>
-      <c r="F127" s="121"/>
-      <c r="G127" s="121"/>
-      <c r="H127" s="124"/>
-      <c r="I127" s="121"/>
-      <c r="J127" s="121"/>
-      <c r="K127" s="122"/>
+      <c r="B127" s="114"/>
+      <c r="K127" s="113"/>
     </row>
     <row r="128" spans="2:11">
-      <c r="B128" s="123"/>
-      <c r="C128" s="121"/>
-      <c r="D128" s="121"/>
-      <c r="E128" s="121"/>
-      <c r="F128" s="121"/>
-      <c r="G128" s="121"/>
-      <c r="H128" s="124"/>
-      <c r="I128" s="121"/>
-      <c r="J128" s="121"/>
-      <c r="K128" s="122"/>
+      <c r="B128" s="114"/>
+      <c r="K128" s="113"/>
     </row>
     <row r="129" spans="2:11">
-      <c r="B129" s="123"/>
-      <c r="C129" s="121"/>
-      <c r="D129" s="121"/>
-      <c r="E129" s="121"/>
-      <c r="F129" s="121"/>
-      <c r="G129" s="121"/>
-      <c r="H129" s="124"/>
-      <c r="I129" s="121"/>
-      <c r="J129" s="121"/>
-      <c r="K129" s="122"/>
+      <c r="B129" s="114"/>
+      <c r="K129" s="113"/>
     </row>
     <row r="130" spans="2:11">
-      <c r="B130" s="123"/>
-      <c r="C130" s="121"/>
-      <c r="D130" s="121"/>
-      <c r="E130" s="121"/>
-      <c r="F130" s="121"/>
-      <c r="G130" s="121"/>
-      <c r="H130" s="124"/>
-      <c r="I130" s="121"/>
-      <c r="J130" s="121"/>
-      <c r="K130" s="122"/>
+      <c r="B130" s="114"/>
+      <c r="K130" s="113"/>
     </row>
     <row r="131" spans="2:11">
-      <c r="B131" s="123"/>
-      <c r="C131" s="121"/>
-      <c r="D131" s="121"/>
-      <c r="E131" s="121"/>
-      <c r="F131" s="121"/>
-      <c r="G131" s="121"/>
-      <c r="H131" s="124"/>
-      <c r="I131" s="121"/>
-      <c r="J131" s="121"/>
-      <c r="K131" s="122"/>
+      <c r="B131" s="114"/>
+      <c r="K131" s="113"/>
     </row>
     <row r="132" spans="2:11">
-      <c r="B132" s="123"/>
-      <c r="C132" s="121"/>
-      <c r="D132" s="121"/>
-      <c r="E132" s="121"/>
-      <c r="F132" s="121"/>
-      <c r="G132" s="121"/>
-      <c r="H132" s="124"/>
-      <c r="I132" s="121"/>
-      <c r="J132" s="121"/>
-      <c r="K132" s="122"/>
+      <c r="B132" s="114"/>
+      <c r="K132" s="113"/>
     </row>
     <row r="133" spans="2:11">
-      <c r="B133" s="123"/>
-      <c r="C133" s="121"/>
-      <c r="D133" s="121"/>
-      <c r="E133" s="121"/>
-      <c r="F133" s="121"/>
-      <c r="G133" s="121"/>
-      <c r="H133" s="124"/>
-      <c r="I133" s="121"/>
-      <c r="J133" s="121"/>
-      <c r="K133" s="122"/>
+      <c r="B133" s="114"/>
+      <c r="K133" s="113"/>
     </row>
     <row r="134" spans="2:11">
-      <c r="B134" s="123"/>
-      <c r="C134" s="121"/>
-      <c r="D134" s="121"/>
-      <c r="E134" s="121"/>
-      <c r="F134" s="121"/>
-      <c r="G134" s="121"/>
-      <c r="H134" s="124"/>
-      <c r="I134" s="121"/>
-      <c r="J134" s="121"/>
-      <c r="K134" s="122"/>
+      <c r="B134" s="114"/>
+      <c r="K134" s="113"/>
     </row>
     <row r="135" spans="2:11">
-      <c r="B135" s="123"/>
-      <c r="C135" s="121"/>
-      <c r="D135" s="121"/>
-      <c r="E135" s="121"/>
-      <c r="F135" s="121"/>
-      <c r="G135" s="121"/>
-      <c r="H135" s="124"/>
-      <c r="I135" s="121"/>
-      <c r="J135" s="121"/>
-      <c r="K135" s="122"/>
+      <c r="B135" s="114"/>
+      <c r="K135" s="113"/>
     </row>
     <row r="136" spans="2:11">
-      <c r="B136" s="123"/>
-      <c r="C136" s="121"/>
-      <c r="D136" s="121"/>
-      <c r="E136" s="121"/>
-      <c r="F136" s="121"/>
-      <c r="G136" s="121"/>
-      <c r="H136" s="124"/>
-      <c r="I136" s="121"/>
-      <c r="J136" s="121"/>
-      <c r="K136" s="122"/>
+      <c r="B136" s="114"/>
+      <c r="K136" s="113"/>
     </row>
     <row r="137" spans="2:11">
-      <c r="B137" s="123"/>
-      <c r="C137" s="121"/>
-      <c r="D137" s="121"/>
-      <c r="E137" s="121"/>
-      <c r="F137" s="121"/>
-      <c r="G137" s="121"/>
-      <c r="H137" s="124"/>
-      <c r="I137" s="121"/>
-      <c r="J137" s="121"/>
-      <c r="K137" s="122"/>
+      <c r="B137" s="114"/>
+      <c r="K137" s="113"/>
     </row>
     <row r="138" spans="2:11">
-      <c r="B138" s="123"/>
-      <c r="C138" s="121"/>
-      <c r="D138" s="121"/>
-      <c r="E138" s="121"/>
-      <c r="F138" s="121"/>
-      <c r="G138" s="121"/>
-      <c r="H138" s="124"/>
-      <c r="I138" s="121"/>
-      <c r="J138" s="121"/>
-      <c r="K138" s="122"/>
+      <c r="B138" s="114"/>
+      <c r="K138" s="113"/>
     </row>
     <row r="139" spans="2:11">
-      <c r="B139" s="123"/>
-      <c r="C139" s="121"/>
-      <c r="D139" s="121"/>
-      <c r="E139" s="121"/>
-      <c r="F139" s="121"/>
-      <c r="G139" s="121"/>
-      <c r="H139" s="124"/>
-      <c r="I139" s="121"/>
-      <c r="J139" s="121"/>
-      <c r="K139" s="122"/>
+      <c r="B139" s="114"/>
+      <c r="K139" s="113"/>
     </row>
     <row r="140" spans="2:11">
-      <c r="B140" s="123"/>
-      <c r="C140" s="121"/>
-      <c r="D140" s="121"/>
-      <c r="E140" s="121"/>
-      <c r="F140" s="121"/>
-      <c r="G140" s="121"/>
-      <c r="H140" s="124"/>
-      <c r="I140" s="121"/>
-      <c r="J140" s="121"/>
-      <c r="K140" s="122"/>
+      <c r="B140" s="114"/>
+      <c r="K140" s="113"/>
     </row>
     <row r="141" spans="2:11">
-      <c r="B141" s="123"/>
-      <c r="C141" s="121"/>
-      <c r="D141" s="121"/>
-      <c r="E141" s="121"/>
-      <c r="F141" s="121"/>
-      <c r="G141" s="121"/>
-      <c r="H141" s="124"/>
-      <c r="I141" s="121"/>
-      <c r="J141" s="121"/>
-      <c r="K141" s="122"/>
+      <c r="B141" s="114"/>
+      <c r="K141" s="113"/>
     </row>
     <row r="142" spans="2:11">
-      <c r="B142" s="123"/>
-      <c r="C142" s="121"/>
-      <c r="D142" s="121"/>
-      <c r="E142" s="121"/>
-      <c r="F142" s="121"/>
-      <c r="G142" s="121"/>
-      <c r="H142" s="124"/>
-      <c r="I142" s="121"/>
-      <c r="J142" s="121"/>
-      <c r="K142" s="122"/>
+      <c r="B142" s="114"/>
+      <c r="K142" s="113"/>
     </row>
     <row r="143" spans="2:11">
-      <c r="B143" s="123"/>
-      <c r="C143" s="121"/>
-      <c r="D143" s="121"/>
-      <c r="E143" s="121"/>
-      <c r="F143" s="121"/>
-      <c r="G143" s="121"/>
-      <c r="H143" s="124"/>
-      <c r="I143" s="121"/>
-      <c r="J143" s="121"/>
-      <c r="K143" s="122"/>
+      <c r="B143" s="114"/>
+      <c r="K143" s="113"/>
     </row>
     <row r="144" spans="2:11">
-      <c r="B144" s="123"/>
-      <c r="C144" s="121"/>
-      <c r="D144" s="121"/>
-      <c r="E144" s="121"/>
-      <c r="F144" s="121"/>
-      <c r="G144" s="121"/>
-      <c r="H144" s="124"/>
-      <c r="I144" s="121"/>
-      <c r="J144" s="121"/>
-      <c r="K144" s="122"/>
+      <c r="B144" s="114"/>
+      <c r="K144" s="113"/>
     </row>
     <row r="145" spans="2:11">
-      <c r="B145" s="123"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="121"/>
-      <c r="E145" s="121"/>
-      <c r="F145" s="121"/>
-      <c r="G145" s="121"/>
-      <c r="H145" s="124"/>
-      <c r="I145" s="121"/>
-      <c r="J145" s="121"/>
-      <c r="K145" s="122"/>
+      <c r="B145" s="114"/>
+      <c r="K145" s="113"/>
     </row>
     <row r="146" spans="2:11">
-      <c r="B146" s="123"/>
-      <c r="C146" s="121"/>
-      <c r="D146" s="121"/>
-      <c r="E146" s="121"/>
-      <c r="F146" s="121"/>
-      <c r="G146" s="121"/>
-      <c r="H146" s="124"/>
-      <c r="I146" s="121"/>
-      <c r="J146" s="121"/>
-      <c r="K146" s="122"/>
+      <c r="B146" s="114"/>
+      <c r="K146" s="113"/>
     </row>
     <row r="147" spans="2:11">
-      <c r="B147" s="123"/>
-      <c r="C147" s="121"/>
-      <c r="D147" s="121"/>
-      <c r="E147" s="121"/>
-      <c r="F147" s="121"/>
-      <c r="G147" s="121"/>
-      <c r="H147" s="124"/>
-      <c r="I147" s="121"/>
-      <c r="J147" s="121"/>
-      <c r="K147" s="122"/>
+      <c r="B147" s="114"/>
+      <c r="K147" s="113"/>
     </row>
     <row r="148" spans="2:11">
-      <c r="B148" s="123"/>
-      <c r="C148" s="121"/>
-      <c r="D148" s="121"/>
-      <c r="E148" s="121"/>
-      <c r="F148" s="121"/>
-      <c r="G148" s="121"/>
-      <c r="H148" s="124"/>
-      <c r="I148" s="121"/>
-      <c r="J148" s="121"/>
-      <c r="K148" s="122"/>
+      <c r="B148" s="114"/>
+      <c r="K148" s="113"/>
     </row>
     <row r="149" spans="2:11">
-      <c r="B149" s="123"/>
-      <c r="C149" s="121"/>
-      <c r="D149" s="121"/>
-      <c r="E149" s="121"/>
-      <c r="F149" s="121"/>
-      <c r="G149" s="121"/>
-      <c r="H149" s="124"/>
-      <c r="I149" s="121"/>
-      <c r="J149" s="121"/>
-      <c r="K149" s="122"/>
+      <c r="B149" s="114"/>
+      <c r="K149" s="113"/>
     </row>
     <row r="150" spans="2:11">
-      <c r="B150" s="123"/>
-      <c r="C150" s="121"/>
-      <c r="D150" s="121"/>
-      <c r="E150" s="121"/>
-      <c r="F150" s="121"/>
-      <c r="G150" s="121"/>
-      <c r="H150" s="124"/>
-      <c r="I150" s="121"/>
-      <c r="J150" s="121"/>
-      <c r="K150" s="122"/>
+      <c r="B150" s="114"/>
+      <c r="K150" s="113"/>
     </row>
     <row r="151" spans="2:11">
-      <c r="B151" s="123"/>
-      <c r="C151" s="121"/>
-      <c r="D151" s="121"/>
-      <c r="E151" s="121"/>
-      <c r="F151" s="121"/>
-      <c r="G151" s="121"/>
-      <c r="H151" s="124"/>
-      <c r="I151" s="121"/>
-      <c r="J151" s="121"/>
-      <c r="K151" s="122"/>
+      <c r="B151" s="114"/>
+      <c r="K151" s="113"/>
     </row>
     <row r="152" spans="2:11">
-      <c r="B152" s="123"/>
-      <c r="C152" s="121"/>
-      <c r="D152" s="121"/>
-      <c r="E152" s="121"/>
-      <c r="F152" s="121"/>
-      <c r="G152" s="121"/>
-      <c r="H152" s="124"/>
-      <c r="I152" s="121"/>
-      <c r="J152" s="121"/>
-      <c r="K152" s="122"/>
+      <c r="B152" s="114"/>
+      <c r="K152" s="113"/>
     </row>
     <row r="153" spans="2:11">
-      <c r="B153" s="123"/>
-      <c r="C153" s="121"/>
-      <c r="D153" s="121"/>
-      <c r="E153" s="121"/>
-      <c r="F153" s="121"/>
-      <c r="G153" s="121"/>
-      <c r="H153" s="124"/>
-      <c r="I153" s="121"/>
-      <c r="J153" s="121"/>
-      <c r="K153" s="122"/>
+      <c r="B153" s="114"/>
+      <c r="K153" s="113"/>
     </row>
     <row r="154" spans="2:11">
-      <c r="B154" s="123"/>
-      <c r="C154" s="121"/>
-      <c r="D154" s="121"/>
-      <c r="E154" s="121"/>
-      <c r="F154" s="121"/>
-      <c r="G154" s="121"/>
-      <c r="H154" s="124"/>
-      <c r="I154" s="121"/>
-      <c r="J154" s="121"/>
-      <c r="K154" s="122"/>
+      <c r="B154" s="114"/>
+      <c r="K154" s="113"/>
     </row>
     <row r="155" spans="2:11">
-      <c r="B155" s="123"/>
-      <c r="C155" s="121"/>
-      <c r="D155" s="121"/>
-      <c r="E155" s="121"/>
-      <c r="F155" s="121"/>
-      <c r="G155" s="121"/>
-      <c r="H155" s="124"/>
-      <c r="I155" s="121"/>
-      <c r="J155" s="121"/>
-      <c r="K155" s="122"/>
+      <c r="B155" s="114"/>
+      <c r="K155" s="113"/>
     </row>
     <row r="156" spans="2:11">
-      <c r="B156" s="123"/>
-      <c r="C156" s="121"/>
-      <c r="D156" s="121"/>
-      <c r="E156" s="121"/>
-      <c r="F156" s="121"/>
-      <c r="G156" s="121"/>
-      <c r="H156" s="124"/>
-      <c r="I156" s="121"/>
-      <c r="J156" s="121"/>
-      <c r="K156" s="122"/>
+      <c r="B156" s="114"/>
+      <c r="K156" s="113"/>
     </row>
     <row r="157" spans="2:11">
-      <c r="B157" s="123"/>
-      <c r="C157" s="121"/>
-      <c r="D157" s="121"/>
-      <c r="E157" s="121"/>
-      <c r="F157" s="121"/>
-      <c r="G157" s="121"/>
-      <c r="H157" s="124"/>
-      <c r="I157" s="121"/>
-      <c r="J157" s="121"/>
-      <c r="K157" s="122"/>
+      <c r="B157" s="114"/>
+      <c r="K157" s="113"/>
     </row>
     <row r="158" spans="2:11">
-      <c r="B158" s="123"/>
-      <c r="C158" s="121"/>
-      <c r="D158" s="121"/>
-      <c r="E158" s="121"/>
-      <c r="F158" s="121"/>
-      <c r="G158" s="121"/>
-      <c r="H158" s="124"/>
-      <c r="I158" s="121"/>
-      <c r="J158" s="121"/>
-      <c r="K158" s="122"/>
+      <c r="B158" s="114"/>
+      <c r="K158" s="113"/>
     </row>
     <row r="159" spans="2:11">
-      <c r="B159" s="123"/>
-      <c r="C159" s="121"/>
-      <c r="D159" s="121"/>
-      <c r="E159" s="121"/>
-      <c r="F159" s="121"/>
-      <c r="G159" s="121"/>
-      <c r="H159" s="124"/>
-      <c r="I159" s="121"/>
-      <c r="J159" s="121"/>
-      <c r="K159" s="122"/>
+      <c r="B159" s="114"/>
+      <c r="K159" s="113"/>
     </row>
     <row r="160" spans="2:11">
-      <c r="B160" s="123"/>
-      <c r="C160" s="121"/>
-      <c r="D160" s="121"/>
-      <c r="E160" s="121"/>
-      <c r="F160" s="121"/>
-      <c r="G160" s="121"/>
-      <c r="H160" s="124"/>
-      <c r="I160" s="121"/>
-      <c r="J160" s="121"/>
-      <c r="K160" s="122"/>
+      <c r="B160" s="114"/>
+      <c r="K160" s="113"/>
     </row>
     <row r="161" spans="2:11">
-      <c r="B161" s="123"/>
-      <c r="C161" s="121"/>
-      <c r="D161" s="121"/>
-      <c r="E161" s="121"/>
-      <c r="F161" s="121"/>
-      <c r="G161" s="121"/>
-      <c r="H161" s="124"/>
-      <c r="I161" s="121"/>
-      <c r="J161" s="121"/>
-      <c r="K161" s="122"/>
+      <c r="B161" s="114"/>
+      <c r="K161" s="113"/>
     </row>
     <row r="162" spans="2:11">
-      <c r="B162" s="123"/>
-      <c r="C162" s="121"/>
-      <c r="D162" s="121"/>
-      <c r="E162" s="121"/>
-      <c r="F162" s="121"/>
-      <c r="G162" s="121"/>
-      <c r="H162" s="124"/>
-      <c r="I162" s="121"/>
-      <c r="J162" s="121"/>
-      <c r="K162" s="122"/>
+      <c r="B162" s="114"/>
+      <c r="K162" s="113"/>
     </row>
     <row r="163" spans="2:11">
-      <c r="B163" s="123"/>
-      <c r="C163" s="121"/>
-      <c r="D163" s="121"/>
-      <c r="E163" s="121"/>
-      <c r="F163" s="121"/>
-      <c r="G163" s="121"/>
-      <c r="H163" s="124"/>
-      <c r="I163" s="121"/>
-      <c r="J163" s="121"/>
-      <c r="K163" s="122"/>
+      <c r="B163" s="114"/>
+      <c r="K163" s="113"/>
     </row>
     <row r="164" spans="2:11">
-      <c r="B164" s="123"/>
-      <c r="C164" s="121"/>
-      <c r="D164" s="121"/>
-      <c r="E164" s="121"/>
-      <c r="F164" s="121"/>
-      <c r="G164" s="121"/>
-      <c r="H164" s="124"/>
-      <c r="I164" s="121"/>
-      <c r="J164" s="121"/>
-      <c r="K164" s="122"/>
+      <c r="B164" s="114"/>
+      <c r="K164" s="113"/>
     </row>
     <row r="165" spans="2:11">
-      <c r="B165" s="123"/>
-      <c r="C165" s="121"/>
-      <c r="D165" s="121"/>
-      <c r="E165" s="121"/>
-      <c r="F165" s="121"/>
-      <c r="G165" s="121"/>
-      <c r="H165" s="124"/>
-      <c r="I165" s="121"/>
-      <c r="J165" s="121"/>
-      <c r="K165" s="122"/>
+      <c r="B165" s="114"/>
+      <c r="K165" s="113"/>
     </row>
     <row r="166" spans="2:11">
-      <c r="B166" s="123"/>
-      <c r="C166" s="121"/>
-      <c r="D166" s="121"/>
-      <c r="E166" s="121"/>
-      <c r="F166" s="121"/>
-      <c r="G166" s="121"/>
-      <c r="H166" s="124"/>
-      <c r="I166" s="121"/>
-      <c r="J166" s="121"/>
-      <c r="K166" s="122"/>
+      <c r="B166" s="114"/>
+      <c r="K166" s="113"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
